--- a/usmoll.xlsx
+++ b/usmoll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Каталог</t>
   </si>
@@ -46,10 +46,10 @@
     <t>Цена</t>
   </si>
   <si>
-    <t>Описание товара</t>
-  </si>
-  <si>
-    <t>Ссылки на картинки</t>
+    <t>Описание товара Rus</t>
+  </si>
+  <si>
+    <t>Описание товара Eng</t>
   </si>
   <si>
     <t>Цвета</t>
@@ -58,142 +58,179 @@
     <t>Размеры</t>
   </si>
   <si>
-    <t>Мальчики</t>
-  </si>
-  <si>
-    <t>Одежда</t>
-  </si>
-  <si>
-    <t>Пижамы</t>
+    <t/>
+  </si>
+  <si>
+    <t>Уютный халат с длинными рукавами для мальчиков Big Boy</t>
+  </si>
+  <si>
+    <t>Big Boys Long Sleeve Cozy Robe</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4810502-big-boys-long-sleeve-cozy-robe-calvin-klein</t>
+  </si>
+  <si>
+    <t>4810502</t>
   </si>
   <si>
     <t>Calvin Klein</t>
   </si>
   <si>
-    <t>Big Boys Long Sleeve Cozy Robe</t>
-  </si>
-  <si>
-    <t>Уютный халат с длинными рукавами для мальчиков Big Boy Calvin Klein</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4810502-big-boys-long-sleeve-cozy-robe-calvin-klein</t>
-  </si>
-  <si>
-    <t>4810502</t>
-  </si>
-  <si>
-    <t>Ремень для галстукаБез капюшонаКарманыЭтот предмет, приобретенный через Интернет, должен быть возвращен продавцу только по почте. Этот предмет нельзя вернуть в магазины Macy's.100% полиэстер Джерси с классом огнестойкостиМожно стирать в машине</t>
+    <t>Уютный халат с вышитым логотипом Calvin Klein, завязывающимся поясом и двумя карманами для максимального комфорта.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Ремень для галстука&lt;/li&gt;&lt;li&gt;Без капюшона&lt;/li&gt;&lt;li&gt;Карманы&lt;/li&gt;&lt;li&gt;Этот предмет, приобретенный через Интернет, должен быть возвращен продавцу только по почте. Этот предмет нельзя вернуть в магазины Macy's.&lt;/li&gt;&lt;li&gt;100% полиэстер Джерси с классом огнестойкости&lt;/li&gt;&lt;li&gt;Можно стирать в машине&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Calvin Klein embroidered logo cozy robe with tie belt and two pockets for the ultimate comfort.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Tie belt&lt;/li&gt;&lt;li&gt;No hood&lt;/li&gt;&lt;li&gt;Pockets&lt;/li&gt;&lt;li&gt;100% Fire Resistance Rating Polyester Jersey&lt;/li&gt;&lt;li&gt;Machine Washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[серый]</t>
+  </si>
+  <si>
+    <t>[S M L XL]</t>
+  </si>
+  <si>
+    <t>серый</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/481/05/02/625737335b67d8d54d3ea5362bbf7334.jpeg https://usmall.ru/image/481/05/02/49a9c7cf1dac75e7954c43b92cc7ae97.jpeg https://usmall.ru/image/481/05/02/47bb97c51fc253803cb58d62ab8b25f6.jpeg]</t>
   </si>
   <si>
-    <t>[Серый (Slate Gray Camo)]</t>
-  </si>
-  <si>
-    <t>[S M L XL]</t>
-  </si>
-  <si>
-    <t>Событие</t>
-  </si>
-  <si>
-    <t>На выход</t>
-  </si>
-  <si>
-    <t>Способ ухода</t>
-  </si>
-  <si>
-    <t>Машинная стирка</t>
-  </si>
-  <si>
-    <t>Длина рукава</t>
-  </si>
-  <si>
-    <t>Длинные</t>
+    <t>Baby Boys and Girls Plush Bathrobe and Toy, 2-Piece Set</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4862430-baby-boys-and-girls-plush-bathrobe-and-toy-2-piece-set-hudson-baby</t>
+  </si>
+  <si>
+    <t>4862430</t>
   </si>
   <si>
     <t>Hudson Baby</t>
   </si>
   <si>
-    <t>Baby Boys and Girls Plush Bathrobe and Toy, 2-Piece Set</t>
-  </si>
-  <si>
-    <t>Baby Boys and Girls Plush Bathrobe and Toy, 2-Piece Set Hudson Baby</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4862430-baby-boys-and-girls-plush-bathrobe-and-toy-2-piece-set-hudson-baby</t>
-  </si>
-  <si>
-    <t>4862430</t>
-  </si>
-  <si>
-    <t>Set includes - 1 plush bathrobe and 1 toySoft and gentle on baby's skinPerfect baby shower giftThis item purchased online must be returned to the vendor by mail only. This item cannot be returned to Macy's stores.100% PolyesterMachine Washable</t>
+    <t>Hudson Baby plush robe and toy set is a great gift set for baby. Our super soft bathrobe and matching plush toy is perfect for snuggling up and getting cozy for bed at the end of a long day.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Set includes - 1 plush bathrobe and 1 toy&lt;/li&gt;&lt;li&gt;Soft and gentle on baby's skin&lt;/li&gt;&lt;li&gt;Perfect baby shower gift&lt;/li&gt;&lt;li&gt;This item purchased online must be returned to the vendor by mail only. This item cannot be returned to Macy's stores.&lt;/li&gt;&lt;li&gt;100% Polyester&lt;/li&gt;&lt;li&gt;Machine Washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[желтый]</t>
+  </si>
+  <si>
+    <t>[One Size Fits All]</t>
+  </si>
+  <si>
+    <t>желтый</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/486/24/30/37823e18d9ccfb63bfe71079cdfb046d.jpeg https://usmall.ru/image/486/24/30/d69c90cccfffe5332944ddd567debe57.jpeg https://usmall.ru/image/486/24/30/11acef3aeb3fcd665d9bd3a734ba7be4.jpeg]</t>
   </si>
   <si>
-    <t>[Желтый (Yellow Duck)]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Фасон</t>
-  </si>
-  <si>
-    <t>Пижамные</t>
-  </si>
-  <si>
-    <t>Халаты</t>
+    <t>Халат без капюшона (для больших детей)</t>
+  </si>
+  <si>
+    <t>Non Hooded Robe (Big Kids)</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5056636-non-hooded-robe-big-kids-hurley-kids</t>
+  </si>
+  <si>
+    <t>5056636</t>
+  </si>
+  <si>
+    <t>Hurley Kids</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Проведите веселый день у бассейна, отдыхая в непринужденном халате без капюшона Hurley® Kids.&lt;/li&gt;
+&lt;li&gt;Дизайн клетчатого узора.&lt;/li&gt;
+&lt;li&gt;Открытый фронт.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Шаль воротник.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Длинные рукава с широкой резинкой.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Брендинг на левой груди.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Самостоятельная завязка на талии шлевками для ремня.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Модель прямого силуэта.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Машинная стирка, сушка в стиральной машине.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина: 38 дюймов&lt;/li&gt;
+    &lt;li&gt;Длина рукава: 30 дюймов&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Измерения продукта проводились с использованием размера XL (18/20 Big Kid). Заметьте, пожалуйста, что измерения могут быть разной величины.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Have a fun day around the pool lounging in the super relaxed Hurley® Kids Non Hooded Robe.&lt;/li&gt;
+&lt;li&gt;Plaid pattern design.&lt;/li&gt;
+&lt;li&gt;Open front.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Shawl collar.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Long sleeves with banded cuffs.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Branding on left chest.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Self-tie at the waist with belt loops.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Straight hemline.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt; Machine wash, tumble dry.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;li&gt;Measurements:
+&lt;ul&gt;&lt;li&gt; Length: 38 in&lt;/li&gt;
+    &lt;li&gt; Sleeve Length: 30 in&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Product measurements were taken using size XL (18/20 Big Kid). Please note that measurements may vary by size.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[красный]</t>
+  </si>
+  <si>
+    <t>[SM (8 Big Kid) One Size MD (10/12 Big Kid) One Size LG (14/16 Big Kid) One Size XL (18/20 Big Kid) One Size]</t>
+  </si>
+  <si>
+    <t>красный</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/505/66/36/2a94c535486303e24a53ccc70b080cde.jpeg]</t>
+  </si>
+  <si>
+    <t>Набор из халата и тапочек Lego Star Wars для мальчиков 4–12 лет для мальчиков 4–12 лет</t>
+  </si>
+  <si>
+    <t>Boys 4-12 Lego Star Wars Boys Robe &amp; Slippers Set</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3439266-boys-4-12-lego-star-wars-boys-robe-slippers-set-licensed-character</t>
+  </si>
+  <si>
+    <t>3439266</t>
   </si>
   <si>
     <t>Licensed Character</t>
   </si>
   <si>
-    <t>Boys 4-12 Lego Star Wars Boys Robe &amp; Slippers Set</t>
-  </si>
-  <si>
-    <t>Набор из халата и тапочек Lego Star Wars для мальчиков 4–12 лет для мальчиков 4–12 лет Licensed Character</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/3439266-boys-4-12-lego-star-wars-boys-robe-slippers-set-licensed-character</t>
-  </si>
-  <si>
-    <t>3439266</t>
-  </si>
-  <si>
-    <t>Полиэстер В целях безопасности детей одежда должна быть плотно прилегающей или огнестойкой. Это огнестойкая одежда. Машинная стирка Импортные</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/343/92/66/0ab94bbeb5e6782aaa8ccbcc993efea4.jpeg https://usmall.ruhttps://app.usmall.ru/image/39758543 https://usmall.ru/image/000/00/00/40a658070482bd804220beabf888ef0f.jpeg https://usmall.ru/image/000/00/00/26923d95d420c51d685b538a05f16842.jpeg https://usmall.ru/image/000/00/00/4b08bab15d7564e2b1e23380c265b001.jpeg]</t>
-  </si>
-  <si>
-    <t>[Красный (Red)]</t>
+    <t>&lt;p&gt;Ему понравится готовиться ко сну с этим набором халата и тапочек для мальчиков Lego Star Wars.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;В наборе 2 предмета: халат и тапочки.&lt;/li&gt; &lt;li&gt;Верх: круглый вырез, длинные рукава&lt;/li&gt; &lt;li&gt;Низ: эластичный пояс&lt;/li&gt; &lt;li&gt;Халат размера 4/5 = тапочки размера 9/10, халат размера 6/7 = тапочки размера 11/12, халат размера 8/9 = тапочки размера 13/1, халат размера 10/12 = тапочки размера 2/3&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ТКАНИ И УХОД&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Полиэстер&lt;/li&gt; &lt;li&gt;В целях безопасности детей одежда должна быть плотно прилегающей или огнестойкой. Это огнестойкая одежда.&lt;/li&gt; &lt;li&gt;Машинная стирка&lt;/li&gt; &lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; He'll love getting ready for bed with this boys' Lego Star Wars Boys Robe and Slippers Set. &lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;2-piece set includes: robe &amp;amp; slippers&lt;/li&gt; &lt;li&gt;Top: crewneck, long sleeves&lt;/li&gt; &lt;li&gt;Bottoms: elastic waistband&lt;/li&gt; &lt;li&gt;Size 4/5 robe = size 9/10 slipper, size 6/7 robe = size 11/12 slipper, size 8/9 robe = size 13/1 slipper, size 10/12 robe = size 2/3 slipper&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FABRIC &amp;amp; CARE&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polyester&lt;/li&gt; &lt;li&gt;For children's safety, garments should be snug fitting or flame resistant. These are flame resistant garments.&lt;/li&gt; &lt;li&gt;Machine wash&lt;/li&gt; &lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[4-5]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/343/92/66/0ab94bbeb5e6782aaa8ccbcc993efea4.jpeg https://app.usmall.ru/image/39758543 https://usmall.ru/image/000/00/00/40a658070482bd804220beabf888ef0f.jpeg https://usmall.ru/image/000/00/00/26923d95d420c51d685b538a05f16842.jpeg https://usmall.ru/image/000/00/00/4b08bab15d7564e2b1e23380c265b001.jpeg]</t>
+  </si>
+  <si>
+    <t>Toddler|Child Boys Fleece Sleep Robe - Soft &amp; Cozy Kids Bathrobe</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5081179-toddlerchild-boys-fleece-sleep-robe-soft-cozy-kids-bathrobe-jellifish-kids</t>
+  </si>
+  <si>
+    <t>5081179</t>
   </si>
   <si>
     <t>Jellifish Kids</t>
   </si>
   <si>
-    <t>Toddler|Child Boys Fleece Sleep Robe - Soft &amp; Cozy Kids Bathrobe</t>
-  </si>
-  <si>
-    <t>Toddler|Child Boys Fleece Sleep Robe - Soft &amp; Cozy Kids Bathrobe Jellifish Kids</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/5081179-toddlerchild-boys-fleece-sleep-robe-soft-cozy-kids-bathrobe-jellifish-kids</t>
-  </si>
-  <si>
-    <t>5081179</t>
-  </si>
-  <si>
-    <t>Soft 100% polyester flannel fleece fabric3D animal ear hoodTie-belt at the waist for the perfect fitLong sleeves for added warmthDeep pockets perfect for anything you need to carry with you100% Polyester Flannel Fleece (200 Gsm)Machine washable</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/508/11/79/7a24ed87bd90a6acf19db40f4a054bc2.jpeg https://usmall.ruhttps://app.usmall.ru/image/42136590 https://usmall.ruhttps://app.usmall.ru/image/42136591]</t>
-  </si>
-  <si>
-    <t>[Красный (Red Bear)]</t>
+    <t>These soft, plush sleep robes are perfect for getting out of the bath or for chilly nights. Made from 100% Polyester Flannel Fleece, these robes are durable and will not be worn out by your little one. Available in pink and purple, they come with deep pockets and hood for added functionality.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Soft 100% polyester flannel fleece fabric&lt;/li&gt;&lt;li&gt;3D animal ear hood&lt;/li&gt;&lt;li&gt;Tie-belt at the waist for the perfect fit&lt;/li&gt;&lt;li&gt;Long sleeves for added warmth&lt;/li&gt;&lt;li&gt;Deep pockets perfect for anything you need to carry with you&lt;/li&gt;&lt;li&gt;100% Polyester Flannel Fleece (200 Gsm)&lt;/li&gt;&lt;li&gt;Machine washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[XSmall Small Medium Large XLarge]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/508/11/79/7a24ed87bd90a6acf19db40f4a054bc2.jpeg https://app.usmall.ru/image/42136590 https://app.usmall.ru/image/42136591]</t>
   </si>
   <si>
     <t>https://usmall.ru/product/5075601-toddlerchild-boys-fleece-sleep-robe-soft-cozy-kids-bathrobe-jellifish-kids</t>
@@ -202,269 +239,279 @@
     <t>5075601</t>
   </si>
   <si>
-    <t>Soft 100% polyester flannel fleece fabric3D animal ear hoodTie-belt at the waist for the perfect fitLong sleeves for added warmthDeep pockets perfect for anything you need to carry with you100% Polyester Frosted Plush (200 Gsm)Machine washable</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/507/56/01/cc906bace099624eb660ec24a0a49354.jpeg https://usmall.ruhttps://app.usmall.ru/image/42084203 https://usmall.ruhttps://app.usmall.ru/image/42084204]</t>
-  </si>
-  <si>
-    <t>[Серый (Grey Plush) Синий (Navy Plush)]</t>
-  </si>
-  <si>
-    <t>Hurley Kids</t>
-  </si>
-  <si>
-    <t>Non Hooded Robe (Big Kids)</t>
-  </si>
-  <si>
-    <t>Халат без капюшона (для больших детей) Hurley Kids</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/5056636-non-hooded-robe-big-kids-hurley-kids</t>
-  </si>
-  <si>
-    <t>5056636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Длина: 38 дюймов
-Длина рукава: 30 дюймов
-</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/505/66/36/2a94c535486303e24a53ccc70b080cde.jpeg]</t>
-  </si>
-  <si>
-    <t>[Красный (Gym Red)]</t>
-  </si>
-  <si>
-    <t>Материал</t>
-  </si>
-  <si>
-    <t>Полиэстер</t>
-  </si>
-  <si>
-    <t>Узор</t>
-  </si>
-  <si>
-    <t>Клетка</t>
+    <t>These soft, plush sleep robes are perfect for getting out of the bath or for chilly nights. Made from 100% Polyester Flannel Fleece, these robes are durable and will not be worn out by your little one. Available in pink and purple, they come with deep pockets and hood for added functionality.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Soft 100% polyester flannel fleece fabric&lt;/li&gt;&lt;li&gt;3D animal ear hood&lt;/li&gt;&lt;li&gt;Tie-belt at the waist for the perfect fit&lt;/li&gt;&lt;li&gt;Long sleeves for added warmth&lt;/li&gt;&lt;li&gt;Deep pockets perfect for anything you need to carry with you&lt;/li&gt;&lt;li&gt;100% Polyester Frosted Plush (200 Gsm)&lt;/li&gt;&lt;li&gt;Machine washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[серый синий]</t>
+  </si>
+  <si>
+    <t>[XSmall Small Medium]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/507/56/01/cc906bace099624eb660ec24a0a49354.jpeg https://app.usmall.ru/image/42084203 https://app.usmall.ru/image/42084204]</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/42084198 https://app.usmall.ru/image/42084199 https://app.usmall.ru/image/42084200]</t>
+  </si>
+  <si>
+    <t>Sleep On It Boys Yeti Monster Plush Fleece Robe with 3D Character Hood</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5027669-sleep-on-it-boys-yeti-monster-plush-fleece-robe-with-3d-character-hood-sleep-on-it</t>
+  </si>
+  <si>
+    <t>5027669</t>
   </si>
   <si>
     <t>Sleep On It</t>
   </si>
   <si>
-    <t>Sleep On It Boys Yeti Monster Plush Fleece Robe with 3D Character Hood</t>
-  </si>
-  <si>
-    <t>Sleep On It Boys Yeti Monster Plush Fleece Robe with 3D Character Hood Sleep On It</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/5027669-sleep-on-it-boys-yeti-monster-plush-fleece-robe-with-3d-character-hood-sleep-on-it</t>
-  </si>
-  <si>
-    <t>5027669</t>
-  </si>
-  <si>
-    <t>Hooded Robe with Front Tie100% Plush Flannel FleeceBuilt Up 3D Charachter HoodMeant to be Loose FittingFlame resistantPolyesterMachine WashImported</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/502/76/69/f878d7faf8a2d915d794066c725f0664.jpeg https://usmall.ruhttps://app.usmall.ru/image/41584770 https://usmall.ruhttps://app.usmall.ru/image/41584769]</t>
-  </si>
-  <si>
-    <t>[Синий (Blue)]</t>
+    <t>&lt;p&gt;He loves hanging out in the forest and staying up late, and we hear he can be lured out of hiding with peanut butter and goldfish crackers. Is it the mythical sasquatch, or just the cutest little boy getting ready for bed? You'll never know for sure when he's donning this novelty robe made with warm and cozy flannel fleece.&lt;/p&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Hooded Robe with Front Tie&lt;/li&gt;&lt;li&gt;100% Plush Flannel Fleece&lt;/li&gt;&lt;li&gt;Built Up 3D Charachter Hood&lt;/li&gt;&lt;li&gt;Meant to be Loose Fitting&lt;/li&gt;&lt;li&gt;Flame resistant&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Machine Wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[синий]</t>
+  </si>
+  <si>
+    <t>[MEDIUM]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/502/76/69/f878d7faf8a2d915d794066c725f0664.jpeg https://app.usmall.ru/image/41584770 https://app.usmall.ru/image/41584769]</t>
+  </si>
+  <si>
+    <t>Халат с длинными рукавами и тапочки для маленьких мальчиков, комплект из 2 предметов</t>
+  </si>
+  <si>
+    <t>Little Boys Long Sleeve Robe with Slippers, 2 Piece Set</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4885607-little-boys-long-sleeve-robe-with-slippers-2-piece-set-max-olivia</t>
+  </si>
+  <si>
+    <t>4885607</t>
   </si>
   <si>
     <t>Max &amp; Olivia</t>
   </si>
   <si>
-    <t>Little Boys Long Sleeve Robe with Slippers, 2 Piece Set</t>
-  </si>
-  <si>
-    <t>Халат с длинными рукавами и тапочки для маленьких мальчиков, комплект из 2 предметов Max &amp; Olivia</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4885607-little-boys-long-sleeve-robe-with-slippers-2-piece-set-max-olivia</t>
-  </si>
-  <si>
-    <t>4885607</t>
-  </si>
-  <si>
-    <t>В комплект входит- 1 халат и 1 пара тапочек.Длинный рукавХалат с поясом и шалевым воротникомЭтот предмет, приобретенный через Интернет, должен быть возвращен продавцу только по почте. Этот предмет нельзя вернуть в магазины Macy's.100% полиэстерМожно стирать в машине</t>
+    <t>Согрейтесь, отдыхая в этом уютном плюшевом халате из флиса с подходящими тапочками.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;В комплект входит- 1 халат и 1 пара тапочек.&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Халат с поясом и шалевым воротником&lt;/li&gt;&lt;li&gt;Этот предмет, приобретенный через Интернет, должен быть возвращен продавцу только по почте. Этот предмет нельзя вернуть в магазины Macy's.&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в машине&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Keep warm lounging in this cozy, plush fleece robe with matching slippers.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Set includes- 1 robe and 1 pair of slippers&lt;/li&gt;&lt;li&gt;Long sleeve&lt;/li&gt;&lt;li&gt;Belted robe with shawl collar&lt;/li&gt;&lt;li&gt;This item purchased online must be returned to the vendor by mail only. This item cannot be returned to Macy's stores.&lt;/li&gt;&lt;li&gt;100% Polyester&lt;/li&gt;&lt;li&gt;Machine Washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[S (6/7)]</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/471/44/76/1cf79519c53317b385405c2f55476557.jpeg]</t>
   </si>
   <si>
-    <t>[Синий (Navy)]</t>
+    <t>Детский флисовый халат с капюшоном Leveret, оранжевый, 16 лет</t>
+  </si>
+  <si>
+    <t>Leveret Kids Fleece Hooded Robe Classic Solid Color</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4870695-leveret-kids-fleece-hooded-robe-classic-solid-color-leveret</t>
+  </si>
+  <si>
+    <t>4870695</t>
   </si>
   <si>
     <t>Leveret</t>
   </si>
   <si>
-    <t>Leveret Kids Fleece Hooded Robe Classic Solid Color</t>
-  </si>
-  <si>
-    <t>Детский флисовый халат с капюшоном Leveret, оранжевый, 16 лет Leveret</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4870695-leveret-kids-fleece-hooded-robe-classic-solid-color-leveret</t>
-  </si>
-  <si>
-    <t>4870695</t>
-  </si>
-  <si>
-    <t>100% полиэстер огнестойкий флисОтлично подходит для ношения поверх легкой пижамы в холодные ночи.Халат с капюшоном и завязывающимся поясом на талииМашинная стирка в холодной воде наизнанку100% полиэстерМашинная стиркаИмпортные</t>
+    <t>&lt;p&gt;Устройтесь поудобнее после холодного душа в детском халате с капюшоном из флиса! Они идеально подходят для ношения поверх других пижам, чтобы оставаться в тепле зимними ночами. Каждый продукт оснащен удобными карманами спереди, а также самозавязывающимся ремнем на талии для регулируемой посадки. Он также включает в себя стильный капюшон, чтобы завершить удобный вид, и есть много вариантов, чтобы сочетаться с остальными членами семьи. Цвета включают черный, пурпурный и другие цвета, чтобы ваш ребенок выглядел идеально. Размеры варьируются от 2 до 16 лет, имейте в виду, что изделия могут дать усадку после стирки. Детский флисовый халат с капюшоном обязательно станет удобным фаворитом! Лучший праздничный подарок на Рождество, Хануку или любой праздник или особый случай.&lt;/p&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;100% полиэстер огнестойкий флис&lt;/li&gt;&lt;li&gt;Отлично подходит для ношения поверх легкой пижамы в холодные ночи.&lt;/li&gt;&lt;li&gt;Халат с капюшоном и завязывающимся поясом на талии&lt;/li&gt;&lt;li&gt;Машинная стирка в холодной воде наизнанку&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Машинная стирка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Get cozy after those cold showers with the Kids Fleece Hooded Robe! These are perfect for wearing on top of other pajamas to stay extra warm during the winter nights. Each product comes with convenient pockets at the front along with a self-tying belt at the waist for that adjustable fit. It also includes a stylish hood to complete the comfy look, and there are many options for matching with the rest of the family. Colors consist of black, magenta, plus others to get that perfect look for your child. Sizes range from ages 2 to 16 years old, keep in mind products may shrink after washing. The Kids Fleece Hooded Robe is bound to be a comfortable favorite! Best Holiday gift for Christmas, Hanukkah or any Holiday or special occasion.&lt;/p&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;100% Polyester Flame Resistant fleece&lt;/li&gt;&lt;li&gt;Great for wearing on top of lighter pj's on cold nights&lt;/li&gt;&lt;li&gt;Hooded robe featuring self-tie belt at waist&lt;/li&gt;&lt;li&gt;Machine Wash Cold, Inside Out&lt;/li&gt;&lt;li&gt;100% Polyester&lt;/li&gt;&lt;li&gt;Machine Wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[зеленый синий красный оранжевый желтый Пурпурный розовый]</t>
+  </si>
+  <si>
+    <t>[5T 16 10 12 3T 14 2T 8 4T 6]</t>
+  </si>
+  <si>
+    <t>Пурпурный</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/41584447]</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/43291117]</t>
+  </si>
+  <si>
+    <t>зеленый</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/487/06/95/d884f189a041e94cd355df57fe8591e1.jpeg]</t>
   </si>
   <si>
-    <t>[Розовый (Hot Pink) Красный (Red) Оранжевый (Orange) Желтый (Yellow) Зеленый (Green) Синий (Royal Blue) Пурпурный (Purple)]</t>
-  </si>
-  <si>
-    <t>[6 8 10 12 14 16 2T 3T 4T 5T]</t>
+    <t>[https://app.usmall.ru/image/41584449]</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/40491481]</t>
+  </si>
+  <si>
+    <t>оранжевый</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/39970143]</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/39970145]</t>
+  </si>
+  <si>
+    <t>Boy&amp;#8217;s Camo Robe</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4840902-boy8217s-camo-robe-petit-lem</t>
+  </si>
+  <si>
+    <t>4840902</t>
   </si>
   <si>
     <t>Petit Lem</t>
   </si>
   <si>
-    <t>Boy’s Camo Robe</t>
-  </si>
-  <si>
-    <t>Boy&amp;#8217;s Camo Robe Petit Lem</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4840902-boy8217s-camo-robe-petit-lem</t>
-  </si>
-  <si>
-    <t>4840902</t>
-  </si>
-  <si>
-    <t>Attached hoodLong sleevesOpen frontRemovable sashTwo front slip pocketsPolyesterMachine washImported</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/484/09/02/1c73dfb2a51a911b513282b80e996119.jpeg https://usmall.ruhttps://app.usmall.ru/image/39652546]</t>
-  </si>
-  <si>
-    <t>[Синий (BLUE)]</t>
-  </si>
-  <si>
-    <t>[8 12 14]</t>
+    <t>He’ll look cool in camouflage when it’s time for bed! Made with super plush fabric, this Petit Lem robe features a hood and a self-tie sash at the waist.&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Removable sash&lt;/li&gt;&lt;li&gt;Two front slip pockets&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[12 14 8]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/484/09/02/1c73dfb2a51a911b513282b80e996119.jpeg https://app.usmall.ru/image/39652546]</t>
   </si>
   <si>
     <t>Boy's Game Controller Knit Hooded Robe</t>
   </si>
   <si>
-    <t>Boy's Game Controller Knit Hooded Robe Petit Lem</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4840867-boys-game-controller-knit-hooded-robe-petit-lem</t>
   </si>
   <si>
     <t>4840867</t>
   </si>
   <si>
-    <t>Attached hoodLong sleevesOpen frontSide slip pocketsDetachable beltPolyesterMachine washImported</t>
+    <t>This robe is knitted with a video game controller design and a hooded neckline.&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Detachable belt&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный]</t>
+  </si>
+  <si>
+    <t>[14 8]</t>
+  </si>
+  <si>
+    <t>черный</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/484/08/67/6626d5e4dc704f46f73df6a0c83429e3.jpeg https://usmall.ru/image/484/08/67/6949c4a34c0223eb901e103afb721e24.jpeg]</t>
   </si>
   <si>
-    <t>[Черный (BLACK)]</t>
-  </si>
-  <si>
-    <t>[8 14]</t>
-  </si>
-  <si>
     <t>Little Boy's Patterned Hooded Robe</t>
   </si>
   <si>
-    <t>Little Boy's Patterned Hooded Robe Petit Lem</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4840854-little-boys-patterned-hooded-robe-petit-lem</t>
   </si>
   <si>
     <t>4840854</t>
   </si>
   <si>
+    <t>A comfortable patterned robe styled with an attached hood and a self-tie belt.&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Detachable belt&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[2 3 4 5 6 7]</t>
+  </si>
+  <si>
     <t>[https://usmall.ru/image/484/08/54/05dc914cae05dfeee997bf4407d41669.jpeg https://usmall.ru/image/484/08/54/a838d964b3dd81e9ba923882a2550144.jpeg]</t>
   </si>
   <si>
-    <t>[Красный (BURGUNDY_MULTI)]</t>
-  </si>
-  <si>
-    <t>[2 3 4 5 6 7]</t>
-  </si>
-  <si>
     <t>Little Boy's Camouflage Fuzzy Hooded Robe</t>
   </si>
   <si>
-    <t>Little Boy's Camouflage Fuzzy Hooded Robe Petit Lem</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4826749-little-boys-camouflage-fuzzy-hooded-robe-petit-lem</t>
   </si>
   <si>
     <t>4826749</t>
   </si>
   <si>
-    <t>Attached hoodLong sleevesOpen frontTwo pocketsDetachable beltPolyesterMachine washImported</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/482/67/49/524fff8df06acbfe2d55650f97ff6616.jpeg https://usmall.ruhttps://app.usmall.ru/image/39508152]</t>
-  </si>
-  <si>
-    <t>[Зеленый (TEAL)]</t>
+    <t>This fuzzy robe in camouflage print has an attached hood and detachable belt.&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Two pockets&lt;/li&gt;&lt;li&gt;Detachable belt&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[зеленый]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/482/67/49/524fff8df06acbfe2d55650f97ff6616.jpeg https://app.usmall.ru/image/39508152]</t>
+  </si>
+  <si>
+    <t>Мандалорское одеяние для маленьких мальчиков</t>
+  </si>
+  <si>
+    <t>Little Boys Mandalorian Robe</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4808587-little-boys-mandalorian-robe-ame</t>
+  </si>
+  <si>
+    <t>4808587</t>
   </si>
   <si>
     <t>AME</t>
   </si>
   <si>
-    <t>Little Boys Mandalorian Robe</t>
-  </si>
-  <si>
-    <t>Мандалорское одеяние для маленьких мальчиков AME</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4808587-little-boys-mandalorian-robe-ame</t>
-  </si>
-  <si>
-    <t>4808587</t>
-  </si>
-  <si>
-    <t>Завяжите вокруг талииВоротник декольтеОгнестойкий материал.Роскошный плюш, ПолиэстерМожно стирать в машине</t>
+    <t>AME привносит веселье мандалорца в свой образ перед сном с помощью этого халата.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Завяжите вокруг талии&lt;/li&gt;&lt;li&gt;Воротник декольте&lt;/li&gt;&lt;li&gt;Огнестойкий материал.&lt;/li&gt;&lt;li&gt;Роскошный плюш, Полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в машине&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>AME brings the fun of Mandalorian to his bedtime looks with this robe.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Tie around the waist closure&lt;/li&gt;&lt;li&gt;Collar neckline&lt;/li&gt;&lt;li&gt;Flame resistant&lt;/li&gt;&lt;li&gt;Luxe Plush, Polyester&lt;/li&gt;&lt;li&gt;Machine Washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[разноцветный]</t>
+  </si>
+  <si>
+    <t>[4 6]</t>
+  </si>
+  <si>
+    <t>разноцветный</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/480/72/22/30685f9b6528e5e22e1862223292f1b9.jpeg]</t>
   </si>
   <si>
-    <t>[Разноцветный (Multi)]</t>
-  </si>
-  <si>
-    <t>[4 6]</t>
+    <t>Одеяние Майнкрафт для маленьких мальчиков</t>
   </si>
   <si>
     <t>Little Boys Minecraft Robe</t>
   </si>
   <si>
-    <t>Одеяние Майнкрафт для маленьких мальчиков AME</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4808473-little-boys-minecraft-robe-ame</t>
   </si>
   <si>
     <t>4808473</t>
   </si>
   <si>
+    <t>В этом халате AME привносит веселье Minecraft в свой образ перед сном.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Завяжите вокруг талии&lt;/li&gt;&lt;li&gt;Воротник декольте&lt;/li&gt;&lt;li&gt;Огнестойкий материал.&lt;/li&gt;&lt;li&gt;Роскошный плюш, Полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в машине&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>AME brings the fun of Minecraft to his bedtime looks with this robe.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Tie around the waist closure&lt;/li&gt;&lt;li&gt;Collar neckline&lt;/li&gt;&lt;li&gt;Flame resistant&lt;/li&gt;&lt;li&gt;Luxe Plush, Polyester&lt;/li&gt;&lt;li&gt;Machine Washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
     <t>[https://usmall.ru/image/480/39/88/6a817194d3eb44e98dff7dc5d5c3e383.jpeg]</t>
   </si>
   <si>
+    <t>Мандалорское одеяние для больших мальчиков</t>
+  </si>
+  <si>
     <t>Big Boys Mandalorian Robe</t>
   </si>
   <si>
-    <t>Мандалорское одеяние для больших мальчиков AME</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4807222-big-boys-mandalorian-robe-ame</t>
   </si>
   <si>
@@ -474,12 +521,12 @@
     <t>[8 10]</t>
   </si>
   <si>
+    <t>Одеяние Minecraft для больших мальчиков</t>
+  </si>
+  <si>
     <t>Big Boys Minecraft Robe</t>
   </si>
   <si>
-    <t>Одеяние Minecraft для больших мальчиков AME</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4803988-big-boys-minecraft-robe-ame</t>
   </si>
   <si>
@@ -489,10 +536,10 @@
     <t>[8 10 12]</t>
   </si>
   <si>
-    <t>Boys 4-10 Jurassic World "Dino Stomp" Robe</t>
-  </si>
-  <si>
-    <t>Мальчики 4–10 лет «Мир Юрского периода» &amp;#34;Дино Стомп&amp;#34; Халат Licensed Character</t>
+    <t>Мальчики 4–10 лет «Мир Юрского периода» &amp;#34;Дино Стомп&amp;#34; Халат</t>
+  </si>
+  <si>
+    <t>Boys 4-10 Jurassic World &amp;#34;Dino Stomp&amp;#34; Robe</t>
   </si>
   <si>
     <t>https://usmall.ru/product/4729521-boys-4-10-jurassic-world-34dino-stomp34-robe-licensed-character</t>
@@ -501,34 +548,43 @@
     <t>4729521</t>
   </si>
   <si>
-    <t>Полиэстер В целях безопасности детей одежда должна быть плотно прилегающей или огнестойкой. Это огнеупорная одежда. Машинная стирка Импортные</t>
+    <t>&lt;p&gt;Ему понравится, как Дино топает по дому в уютном и комфортном халате для мальчиков.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Длинный рукав&lt;/li&gt; &lt;li&gt;Открытый фронт&lt;/li&gt; &lt;li&gt;Завязывание&lt;/li&gt; &lt;li&gt;Длина колена&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ТКАНИ И УХОД&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Полиэстер&lt;/li&gt; &lt;li&gt;В целях безопасности детей одежда должна быть плотно прилегающей или огнестойкой. Это огнеупорная одежда.&lt;/li&gt; &lt;li&gt;Машинная стирка&lt;/li&gt; &lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; He'll love Dino Stomping around the house in the cozy comfort of this boys' robe. &lt;/p&gt;&lt;br /&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Long sleeves&lt;/li&gt; &lt;li&gt;Open front&lt;/li&gt; &lt;li&gt;Tie closure&lt;/li&gt; &lt;li&gt;Knee length&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FABRIC &amp;amp; CARE&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polyester&lt;/li&gt; &lt;li&gt;For children's safety the garment should be snug fitting or flame resistant. This is a flame resistant garment.&lt;/li&gt; &lt;li&gt;Machine wash&lt;/li&gt; &lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[4 8]</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/472/95/21/421058ca2a3c1379c5b6a0aeda59d73b.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg]</t>
   </si>
   <si>
-    <t>[4 8]</t>
+    <t>Халат с длинными рукавами и тапочками для мальчиков Big Boy, комплект из 2 предметов</t>
   </si>
   <si>
     <t>Big Boys Long Sleeve Robe with Slippers, 2 Piece Set</t>
   </si>
   <si>
-    <t>Халат с длинными рукавами и тапочками для мальчиков Big Boy, комплект из 2 предметов Max &amp; Olivia</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/4714476-big-boys-long-sleeve-robe-with-slippers-2-piece-set-max-olivia</t>
   </si>
   <si>
     <t>4714476</t>
   </si>
   <si>
-    <t>В комплект входит- 1 халат и 1 пара тапочек.Длинный рукавХалат с поясом и шалевым воротником100% полиэстерМожно стирать в машине</t>
-  </si>
-  <si>
-    <t>Boys 4-10 Marvel The Avengers Black Panther "Panther King" Robe</t>
-  </si>
-  <si>
-    <t>Мальчики 4–10 лет Marvel Мстители Черная пантера &amp;#34;Король пантер&amp;#34; Халат Licensed Character</t>
+    <t>Согрейтесь, отдыхая в этом уютном плюшевом халате из флиса с подходящими тапочками.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;В комплект входит- 1 халат и 1 пара тапочек.&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Халат с поясом и шалевым воротником&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в машине&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Keep warm lounging in this cozy, plush fleece robe with matching slippers.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Set includes- 1 robe and 1 pair of slippers&lt;/li&gt;&lt;li&gt;Long sleeve&lt;/li&gt;&lt;li&gt;Belted robe with shawl collar&lt;/li&gt;&lt;li&gt;100% Polyester&lt;/li&gt;&lt;li&gt;Machine Washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[M (8/10) L (12/14) XL (16/18)]</t>
+  </si>
+  <si>
+    <t>Мальчики 4–10 лет Marvel Мстители Черная пантера &amp;#34;Король пантер&amp;#34; Халат</t>
+  </si>
+  <si>
+    <t>Boys 4-10 Marvel The Avengers Black Panther &amp;#34;Panther King&amp;#34; Robe</t>
   </si>
   <si>
     <t>https://usmall.ru/product/4686045-boys-4-10-marvel-the-avengers-black-panther-34panther-king34-robe-licensed-character</t>
@@ -537,222 +593,334 @@
     <t>4686045</t>
   </si>
   <si>
-    <t>Полиэстер Машинная стирка Импортные</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/468/60/45/d406229a8214bce87111c84678e799ae.jpeg https://usmall.ruhttps://app.usmall.ru/image/39641492]</t>
+    <t>&lt;p&gt;Вашему поклоннику Marvel понравится бездельничать в героическом стиле этой мантии Черной пантеры для мальчиков.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Завязывание&lt;/li&gt; &lt;li&gt;Длинный рукав&lt;/li&gt; &lt;li&gt;Длина колена&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ТКАНИ И УХОД&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Полиэстер&lt;/li&gt; &lt;li&gt;Машинная стирка&lt;/li&gt; &lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Your Marvel fan will love lounging in the heroic style of this boys' Black Panther robe. &lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Tie closure&lt;/li&gt; &lt;li&gt;Long sleeves&lt;/li&gt; &lt;li&gt;Knee length&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FABRIC &amp;amp; CARE&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polyester&lt;/li&gt; &lt;li&gt;Machine wash&lt;/li&gt; &lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>[4 6 8]</t>
   </si>
   <si>
+    <t>[https://usmall.ru/image/468/60/45/d406229a8214bce87111c84678e799ae.jpeg https://app.usmall.ru/image/39641492]</t>
+  </si>
+  <si>
+    <t>Халат Cuddl Duds с капюшоном для мальчиков 4–14 лет</t>
+  </si>
+  <si>
+    <t>Boys 4-14 Cuddl Duds Hooded Robe</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4666426-boys-4-14-cuddl-duds-hooded-robe-cuddl-duds</t>
+  </si>
+  <si>
+    <t>4666426</t>
+  </si>
+  <si>
     <t>Cuddl Duds</t>
   </si>
   <si>
-    <t>Boys 4-14 Cuddl Duds Hooded Robe</t>
-  </si>
-  <si>
-    <t>Халат Cuddl Duds с капюшоном для мальчиков 4–14 лет Cuddl Duds</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4666426-boys-4-14-cuddl-duds-hooded-robe-cuddl-duds</t>
-  </si>
-  <si>
-    <t>4666426</t>
+    <t>&lt;p&gt;Этот халат с капюшоном для мальчиков от Cuddl Duds идеально подходит для создания уюта в непринужденные дни отдыха.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Прикрепленный капюшон&lt;/li&gt; &lt;li&gt;2 функциональных кармана&lt;/li&gt; &lt;li&gt;Включает прикрепленный ремень&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ТКАНИ И УХОД&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Полиэстер&lt;/li&gt; &lt;li&gt;Машинная стирка&lt;/li&gt; &lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; Perfect for keeping cozy on laid-back lounge days, he'll love this boys' hooded robe from Cuddl Duds. &lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt; &lt;li&gt;2 functional pockets&lt;/li&gt; &lt;li&gt;Includes attached belt&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FABRIC &amp;amp; CARE&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Polyester&lt;/li&gt; &lt;li&gt;Machine wash&lt;/li&gt; &lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[ синий черный красный]</t>
+  </si>
+  <si>
+    <t>[4-6 8-10 12-14]</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/466/64/26/05983c3b651413ff990a0bad5cd8116d.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg]</t>
   </si>
   <si>
-    <t>[Черный (Black) Красный (Red Buff Check) Синий (Blue Plaid) Синий (Blue Sports) Teal Gamer]</t>
+    <t>[https://usmall.ru/image/466/64/26/69fdf5ff67410afd6982c97f7f813168.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/466/64/26/acfa8904864b81116fce9677d46b013a.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/466/64/26/d4ce375c84f763e3257b65a3ca459adc.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg]</t>
+  </si>
+  <si>
+    <t>Флисовый халат Dino Silhouettes (для малышей/маленьких детей/больших детей)</t>
+  </si>
+  <si>
+    <t>Dino Silhouettes Fleece Robe (Toddler/Little Kids/Big Kids)</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4644024-dino-silhouettes-fleece-robe-toddlerlittle-kidsbig-kids-hatley-kids</t>
+  </si>
+  <si>
+    <t>4644024</t>
   </si>
   <si>
     <t>Hatley Kids</t>
   </si>
   <si>
-    <t>Dino Silhouettes Fleece Robe (Toddler/Little Kids/Big Kids)</t>
-  </si>
-  <si>
-    <t>Флисовый халат Dino Silhouettes (для малышей/маленьких детей/больших детей) Hatley Kids</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4644024-dino-silhouettes-fleece-robe-toddlerlittle-kidsbig-kids-hatley-kids</t>
-  </si>
-  <si>
-    <t>4644024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Длина изделия: 32 дюйма
-</t>
+    <t>&lt;ul&gt;&lt;li&gt;Оберните своего малыша флисовым халатом Hatley® Kids Dino Silhouettes после уютной ванны и держите его в тепле.&lt;/li&gt;
+&lt;li&gt;Вместительная конструкция с капюшоном.&lt;/li&gt;
+&lt;li&gt;Длинный рукав.&lt;/li&gt;
+&lt;li&gt;Пояс с петлей на талии с завязывающимся поясным ремнем.&lt;/li&gt;
+&lt;li&gt;Нижние передние накладные карманы.&lt;/li&gt;
+&lt;li&gt;Сплошной силуэт динозавра.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Машинная стирка, сушка в стиральной машине.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина изделия: 32 дюйма&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Измерения продукта были сделаны для размера XL (8-10 Big Kid). Заметьте, пожалуйста, что измерения могут быть разной величины.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wrap your little one in the  Hatley® Kids Dino Silhouettes Fleece Robe after a cozy bath and keep them warm.&lt;/li&gt;
+&lt;li&gt;Roomy hooded construction.&lt;/li&gt;
+&lt;li&gt;Long sleeves.&lt;/li&gt;
+&lt;li&gt;Belt loop waist with tie-up waistbelt.&lt;/li&gt;
+&lt;li&gt;Lower front patch pockets.&lt;/li&gt;
+&lt;li&gt;Allover dino silhouette print.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Machine wash, tumble dry.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;li&gt;Measurements:
+&lt;ul&gt;&lt;li&gt; Length: 32 in&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Product measurements were taken using size XL (8-10 Big Kid). Please note that measurements may vary by size.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[LG (6-7 Little Kid) One Size SM (2-3 Toddler) One Size XL (8-10 Big Kid) One Size MD (4-5 Little Kid) One Size]</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/464/40/24/62a25f9ae497c89ea21f57639c863de2.jpeg]</t>
   </si>
   <si>
-    <t>Полиэстер, Флис</t>
-  </si>
-  <si>
-    <t>С принтом</t>
-  </si>
-  <si>
-    <t>Boys 4-12 DC Comics Batman Robe &amp; Slippers Set</t>
-  </si>
-  <si>
-    <t>Мальчики 4-12 DC Comics Batman халат и тапочки Licensed Character</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/4299806-boys-4-12-dc-comics-batman-robe-slippers-set-licensed-character</t>
-  </si>
-  <si>
-    <t>4299806</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/429/98/06/7d19ef4f728ef7eedb517202fd65dda3.jpeg https://usmall.ruhttps://app.usmall.ru/image/40257152 https://usmall.ruhttps://app.usmall.ru/image/34973020 https://usmall.ruhttps://app.usmall.ru/image/34973019 https://usmall.ruhttps://app.usmall.ru/image/34973018 https://usmall.ruhttps://app.usmall.ru/image/34973017]</t>
-  </si>
-  <si>
-    <t>[Черный (Black)]</t>
-  </si>
-  <si>
-    <t>Девочки</t>
+    <t>Комплект из 2 комплектов пижам Baby Boy Carter's</t>
+  </si>
+  <si>
+    <t>Baby Boy Carter's 2-Pack Sleeper Gowns</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4298853-baby-boy-carters-2-pack-sleeper-gowns-carters</t>
+  </si>
+  <si>
+    <t>4298853</t>
+  </si>
+  <si>
+    <t>Carter's</t>
+  </si>
+  <si>
+    <t>&lt;br /&gt;&lt;p&gt;Дополните гардероб своего малыша набором из двух комплектов пижам Carter's.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;2 штуки в наборе&lt;/li&gt; &lt;li&gt;Вырез-конверт и планка на пуговицах&lt;/li&gt; &lt;li&gt;Длинный рукав&lt;/li&gt; &lt;li&gt;Раскладные манжеты&lt;/li&gt; &lt;li&gt;Подол&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ТКАНИ И УХОД&lt;/p&gt;&lt;ul&gt;&lt;li&gt;хлопок&lt;/li&gt; &lt;li&gt;Машинная стирка&lt;/li&gt; &lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ОСОБЕННОСТИ УСТОЙЧИВОГО РАЗВИТИЯ&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Проверено на вредные вещества&lt;/li&gt;&lt;li&gt;СТАНДАРТ 100 СЕРТИФИЦИРОВАНО OEKO-TEX®&lt;/li&gt; &lt;li&gt;Сертификат № 20.HUS.39362&lt;/li&gt; &lt;li&gt;Институт испытаний: Институт испытаний текстиля Хоэнштайна&lt;/li&gt;&lt;li&gt;www.oeko-tex.com/standard100&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br /&gt;&lt;p&gt; Complete your little one's wardrobe with these Carter's 2-Pack Sleeper Gowns. &lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;2-pack&lt;/li&gt; &lt;li&gt;Envelope neck &amp;amp; button placket&lt;/li&gt; &lt;li&gt;Long sleeves&lt;/li&gt; &lt;li&gt;Foldover cuffs&lt;/li&gt; &lt;li&gt;Cinched hem&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FABRIC &amp;amp; CARE&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Cotton&lt;/li&gt; &lt;li&gt;Machine wash&lt;/li&gt; &lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SUSTAINABILITY FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Tested for harmful substances&lt;/li&gt;&lt;li&gt;STANDARD 100 by OEKO-TEXÂ® CERTIFIED&lt;/li&gt; &lt;li&gt;Certification No. 20.HUS.39362&lt;/li&gt; &lt;li&gt;Testing Institute: Hohenstein Textile Testing Institute&lt;/li&gt;&lt;li&gt;www.oeko-tex.com/standard100&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[NEWBORN 3 MONTHS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/429/88/53/022c49a47338728c74360fc35a6c13c6.jpeg https://app.usmall.ru/image/39607526 https://usmall.ru/image/000/00/00/2d562595e37b7d3146b8d9c0c1c335af.jpeg https://usmall.ru/image/000/00/00/8d03b188a464fe7bf3d398929f027a32.jpeg https://usmall.ru/image/000/00/00/2e450948e39957b366e84a73f347d88f.jpeg]</t>
+  </si>
+  <si>
+    <t>Уютный халат с животными (для больших детей)</t>
+  </si>
+  <si>
+    <t>Cozy Animal Robe (Big Kids)</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3336498-cozy-animal-robe-big-kids-llbean</t>
+  </si>
+  <si>
+    <t>3336498</t>
   </si>
   <si>
     <t>L.L.Bean</t>
   </si>
   <si>
-    <t>Cozy Animal Robe (Big Kids)</t>
-  </si>
-  <si>
-    <t>Уютный халат с животными (для больших детей) L.L.Bean</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/3336498-cozy-animal-robe-big-kids-llbean</t>
-  </si>
-  <si>
-    <t>3336498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подарите своему ребенку уют от подбородка до голени в этом невероятно мягком, плюшевом и удобном халате LL Bean™ Cosy Animal Robe (Big Kids).
-Свободный крой.
-Графические детали животных на капюшоне.
-Уютный капюшон зверька.
-Глубокие передние карманы.
-Притачной пояс.
-Ткань соответствует федеральным требованиям безопасности для детской одежды для сна.
-Сверхмягкая конструкция из 100% полиэстера с высоким ворсом и начесом с обеих сторон.
-Можно стирать в машине.
-Импортные.
-</t>
+    <t>&lt;ul&gt;&lt;li&gt;Подарите своему ребенку уют от подбородка до голени в этом невероятно мягком, плюшевом и удобном халате LL Bean™ Cosy Animal Robe (Big Kids).&lt;/li&gt;
+&lt;li&gt;Свободный крой.&lt;/li&gt;
+&lt;li&gt;Графические детали животных на капюшоне.&lt;/li&gt;
+&lt;li&gt;Уютный капюшон зверька.&lt;/li&gt;
+&lt;li&gt;Глубокие передние карманы.&lt;/li&gt;
+&lt;li&gt;Притачной пояс.&lt;/li&gt;
+&lt;li&gt;Ткань соответствует федеральным требованиям безопасности для детской одежды для сна.&lt;/li&gt;
+&lt;li&gt;Сверхмягкая конструкция из 100% полиэстера с высоким ворсом и начесом с обеих сторон.&lt;/li&gt;
+&lt;li&gt;Можно стирать в машине.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Keep your kid cozy from chin to shin in this incredibly soft, plush, and comfortable L.L. Bean™ Cozy Animal Robe (Big Kids).&lt;/li&gt;
+&lt;li&gt;Relaxed fit.&lt;/li&gt;
+&lt;li&gt;Animal graphic details on the hood.&lt;/li&gt;
+&lt;li&gt;Cozy critter hood. &lt;/li&gt;
+&lt;li&gt;Deep front pockets.&lt;/li&gt;
+&lt;li&gt;Stitched-down belt.&lt;/li&gt;
+&lt;li&gt;Fabric meets federal safety requirements for children's sleepwear.&lt;/li&gt;
+&lt;li&gt;Super-soft, high-pile, both side brushed 100% polyester construction.&lt;/li&gt;
+&lt;li&gt;Machine washable.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[синий розовый коричневый]</t>
+  </si>
+  <si>
+    <t>[SM (8 Big Kid) One Size MD (10-12 Big Kid) One Size LG (14-16 Big Kid) One Size XL (18 Big Kid) One Size]</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/333/64/98/dccf74fa1c3db42db12b2e540edd79cf.jpeg https://usmall.ru/image/333/64/98/fd8441316e47d3912a6502b6a8d44eb9.jpeg]</t>
   </si>
   <si>
-    <t>[Розовый (Mauve Berry) Коричневый (Dark Barley) Синий (Bright Blue)]</t>
+    <t>[https://usmall.ru/image/333/64/98/27243be246d3869d59b1cf3aaa94fbb7.jpeg https://usmall.ru/image/333/64/98/45b85ca2873fef98924c23317f6a74b7.jpeg]</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/38076144 https://app.usmall.ru/image/38076146]</t>
+  </si>
+  <si>
+    <t>Флисовый халат (маленькие дети)</t>
   </si>
   <si>
     <t>Fleece Robe (Little Kids)</t>
   </si>
   <si>
-    <t>Флисовый халат (маленькие дети) L.L.Bean</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/3214979-fleece-robe-little-kids-llbean</t>
   </si>
   <si>
     <t>3214979</t>
   </si>
   <si>
-    <t xml:space="preserve">Устройтесь поудобнее в этом уютном флисовом халате LL Bean™. Этот толстый флисовый халат отлично смотрится после стирки.
-Изготовлен из ультрамягкой флисовой ткани.
-Плюшевый воротник поднимается вверх, чтобы предотвратить сквозняки.
-Глубокие передние карманы.
-100% полиэстер флис.
-Машинная стирка и сушка.
-Импортные.
-</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/321/49/79/81d5deed9f7df1ea4f10694e6686a6c2.jpeg]</t>
-  </si>
-  <si>
-    <t>[Красный (Apple Red) Зеленый (Emerald Spruce) Синий (Island Blue) Синий (Blue) Пурпурный (Plum Grape)]</t>
+    <t>&lt;ul&gt;&lt;li&gt;Устройтесь поудобнее в этом уютном флисовом халате LL Bean™. Этот толстый флисовый халат отлично смотрится после стирки.&lt;/li&gt;
+&lt;li&gt;Изготовлен из ультрамягкой флисовой ткани.&lt;/li&gt;
+&lt;li&gt;Плюшевый воротник поднимается вверх, чтобы предотвратить сквозняки.&lt;/li&gt;
+&lt;li&gt;Глубокие передние карманы.&lt;/li&gt;
+&lt;li&gt;100% полиэстер флис.&lt;/li&gt;
+&lt;li&gt;Машинная стирка и сушка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Snuggle up and feel comfy in this cozy L.L Bean™  Fleece Robe. This thick fleece robe looks great wash after wash.&lt;/li&gt;
+&lt;li&gt;Made of ultra-plush fleece fabric.&lt;/li&gt;
+&lt;li&gt;Plush collar turns up to stop drafts.&lt;/li&gt;
+&lt;li&gt;Deep front pockets.&lt;/li&gt;
+&lt;li&gt;100% polyester fleece.&lt;/li&gt;
+&lt;li&gt;Machine wash and dry.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[синий красный Пурпурный зеленый]</t>
+  </si>
+  <si>
+    <t>[SM (4 Little Kid) One Size MD (5-6 Little Kid) One Size LG (6X-7 Little Kid) One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/321/49/79/64c3912170002fee2d4ead154ece1196.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/321/49/79/79c702a0cd0fa64ca79eb2eb8a38d416.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/38075831]</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/26060814]</t>
+  </si>
+  <si>
+    <t>Флисовый халат (для больших детей)</t>
   </si>
   <si>
     <t>Fleece Robe (Big Kids)</t>
   </si>
   <si>
-    <t>Флисовый халат (для больших детей) L.L.Bean</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/3214975-fleece-robe-big-kids-llbean</t>
   </si>
   <si>
     <t>3214975</t>
   </si>
   <si>
-    <t xml:space="preserve">Удобный и теплый флисовый халат LL Bean™ из толстого ультраплюшевого флиса.
-Плюшевый воротник поднимается вверх, чтобы предотвратить сквозняки.
-На талии крепится флисовый пояс.
-Глубокие передние карманы.
-100% полиэстер флис.
-Можно стирать в машине.
-Импортные.
-</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/321/49/75/e4dd30163f3ef7f24e1d097ba09fa338.jpeg]</t>
-  </si>
-  <si>
-    <t>Gap Factory</t>
-  </si>
-  <si>
-    <t>Toddler Brannan Bear Hoodie Robe</t>
-  </si>
-  <si>
-    <t>Toddler Brannan Bear Hoodie Robe Gap Factory</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/3129308-toddler-brannan-bear-hoodie-robe-gap-factory</t>
-  </si>
-  <si>
-    <t>3129308</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/312/93/08/3028eaf6c3405547b01c42eebbb6d95d.jpeg]</t>
-  </si>
-  <si>
-    <t>[Слоновая кость (Creme Brule)]</t>
+    <t>&lt;ul&gt;&lt;li&gt;Удобный и теплый флисовый халат LL Bean™ из толстого ультраплюшевого флиса.&lt;/li&gt;
+&lt;li&gt;Плюшевый воротник поднимается вверх, чтобы предотвратить сквозняки.&lt;/li&gt;
+&lt;li&gt;На талии крепится флисовый пояс.&lt;/li&gt;
+&lt;li&gt;Глубокие передние карманы.&lt;/li&gt;
+&lt;li&gt;100% полиэстер флис.&lt;/li&gt;
+&lt;li&gt;Можно стирать в машине.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Featuring a thick ultra-plush fleece, the L.L Bean™ Fleece Robe is comfy and warm.&lt;/li&gt;
+&lt;li&gt;Plush collar turns up to stop drafts.&lt;/li&gt;
+&lt;li&gt;Fleece belt attached to the waist.&lt;/li&gt;
+&lt;li&gt;Deep front pockets.&lt;/li&gt;
+&lt;li&gt;100% polyester fleece.&lt;/li&gt;
+&lt;li&gt;Machine washable.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/321/49/75/4293697fc68c6318bfc4734cf41b224e.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/321/49/75/51eea0f33b49bb74788664f9a2dbcd84.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/321/49/75/3ec61b72c412febd4f760286da6f35d5.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/321/49/75/2ab9ac621f0be3ee6e3535fe869ea92e.jpeg]</t>
+  </si>
+  <si>
+    <t>Уютный халат с животными (маленькие дети)</t>
   </si>
   <si>
     <t>Cozy Animal Robe (Little Kids)</t>
   </si>
   <si>
-    <t>Уютный халат с животными (маленькие дети) L.L.Bean</t>
-  </si>
-  <si>
     <t>https://usmall.ru/product/2988329-cozy-animal-robe-little-kids-llbean</t>
   </si>
   <si>
     <t>2988329</t>
   </si>
   <si>
-    <t xml:space="preserve">Устройтесь поудобнее со своим малышом в их очаровательном комбинезоне LLBean™ Cozy Animal Robe.
-Этот халат, изготовленный из очень мягкого полиэстера, имеет капюшон с ушками в виде животных, глубокие передние карманы и пояс с завязками на талии.
-Этот халат не распространяет горение и соответствует требованиям безопасности для детской одежды для сна.
-Легко тянуть на строительство.
-100% полиэстер.
-Машинная стирка, сушка в стиральной машине.
-Импортные.
-</t>
+    <t>&lt;ul&gt;&lt;li&gt;Устройтесь поудобнее со своим малышом в их очаровательном комбинезоне LLBean™ Cozy Animal Robe.&lt;/li&gt;
+&lt;li&gt;Этот халат, изготовленный из очень мягкого полиэстера, имеет капюшон с ушками в виде животных, глубокие передние карманы и пояс с завязками на талии.&lt;/li&gt;
+&lt;li&gt;Этот халат не распространяет горение и соответствует требованиям безопасности для детской одежды для сна.&lt;/li&gt;
+&lt;li&gt;Легко тянуть на строительство.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Машинная стирка, сушка в стиральной машине.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Snuggle up with your little one in their adorable L.L.Bean™ Cozy Animal Robe.&lt;/li&gt;
+&lt;li&gt;Crafted from a super soft polyester, this robe features an animal designed hood with ears, deep front pockets, and a self tie belt at the waist. &lt;/li&gt;
+&lt;li&gt;This robe is flame retardant and meets safety requirements for children's sleepwear.&lt;/li&gt;
+&lt;li&gt;Easy pull on construction.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Machine wash, tumble dry.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[синий розовый серый коричневый]</t>
   </si>
   <si>
     <t>[https://usmall.ru/image/298/83/29/9c885434a9326e6f78506758791b4d47.jpeg https://usmall.ru/image/298/83/29/d1a4405f9bab6d07d4f1e175bec8f24e.jpeg]</t>
   </si>
   <si>
-    <t>[Серый (Mineral Gray) Розовый (Mauve Berry) Коричневый (Dark Barley) Синий (Bright Blue)]</t>
+    <t>[https://usmall.ru/image/298/83/29/bc57aad91ed2850cc7630c68c6e5a278.jpeg https://usmall.ru/image/298/83/29/55a4d521a9f3e62a1534587d2a869920.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/298/83/29/8eaae1529cbceddb299cb770167a9b7a.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/38070272 https://app.usmall.ru/image/38070274]</t>
   </si>
 </sst>
 </file>
@@ -1105,22 +1273,40 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="S1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>98</v>
+      </c>
+      <c r="U1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" t="s">
+        <v>120</v>
+      </c>
+      <c r="X1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -1128,52 +1314,46 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
       </c>
       <c r="J2">
         <v>7040</v>
       </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1181,52 +1361,46 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>3640</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1234,43 +1408,46 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>4520</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="Q4" t="s">
         <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4">
-        <v>6280</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1278,46 +1455,46 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5">
+        <v>6280</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="Q5" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5">
-        <v>4400</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1325,46 +1502,46 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J6">
         <v>4400</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -1372,46 +1549,49 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J7">
         <v>4400</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1419,49 +1599,49 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8">
+        <v>4400</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="N8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="O8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="R8" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8">
-        <v>4520</v>
-      </c>
-      <c r="K8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1469,43 +1649,46 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J9">
         <v>4520</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -1513,49 +1696,46 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J10">
         <v>5530</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
+        <v>85</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1563,43 +1743,64 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J11">
         <v>5460</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" t="s">
+        <v>102</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="s">
         <v>99</v>
       </c>
-      <c r="M11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="U11" t="s">
         <v>101</v>
+      </c>
+      <c r="V11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -1607,43 +1808,64 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J12">
         <v>5460</v>
       </c>
       <c r="K12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" t="s">
         <v>99</v>
       </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="U12" t="s">
         <v>101</v>
+      </c>
+      <c r="V12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -1651,43 +1873,64 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J13">
         <v>5460</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" t="s">
         <v>99</v>
       </c>
-      <c r="M13" t="s">
-        <v>100</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="U13" t="s">
         <v>101</v>
+      </c>
+      <c r="V13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -1695,43 +1938,64 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J14">
         <v>5460</v>
       </c>
       <c r="K14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" t="s">
         <v>99</v>
       </c>
-      <c r="M14" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="U14" t="s">
         <v>101</v>
+      </c>
+      <c r="V14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -1739,43 +2003,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J15">
         <v>5460</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="P15" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15" t="s">
+        <v>97</v>
+      </c>
+      <c r="T15" t="s">
         <v>99</v>
       </c>
-      <c r="M15" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="U15" t="s">
         <v>101</v>
+      </c>
+      <c r="V15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1783,43 +2068,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J16">
         <v>5460</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="N16" t="s">
+        <v>95</v>
+      </c>
+      <c r="P16" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" t="s">
         <v>99</v>
       </c>
-      <c r="M16" t="s">
-        <v>100</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="U16" t="s">
         <v>101</v>
+      </c>
+      <c r="V16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -1827,43 +2133,64 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17">
+        <v>5460</v>
+      </c>
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" t="s">
         <v>102</v>
       </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="S17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" t="s">
+        <v>101</v>
+      </c>
+      <c r="V17" t="s">
         <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17">
-        <v>3520</v>
-      </c>
-      <c r="K17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -1871,43 +2198,46 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J18">
         <v>3520</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="N18" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="R18" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1915,43 +2245,46 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J19">
         <v>3520</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="W19" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20">
@@ -1959,43 +2292,46 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="J20">
         <v>3520</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -2003,49 +2339,46 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21">
+        <v>3520</v>
+      </c>
+      <c r="K21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" t="s">
+        <v>131</v>
+      </c>
+      <c r="M21" t="s">
+        <v>132</v>
+      </c>
+      <c r="N21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" t="s">
         <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" t="s">
-        <v>134</v>
-      </c>
-      <c r="J21">
-        <v>7290</v>
-      </c>
-      <c r="K21" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" t="s">
-        <v>140</v>
-      </c>
-      <c r="N21" t="s">
-        <v>141</v>
-      </c>
-      <c r="P21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2053,49 +2386,46 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J22">
         <v>7290</v>
       </c>
       <c r="K22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>31</v>
+        <v>142</v>
+      </c>
+      <c r="X22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23">
@@ -2103,49 +2433,46 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" t="s">
         <v>147</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>148</v>
       </c>
-      <c r="G23" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" t="s">
-        <v>150</v>
-      </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="J23">
         <v>7290</v>
       </c>
       <c r="K23" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N23" t="s">
         <v>151</v>
       </c>
-      <c r="P23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>31</v>
+      <c r="X23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24">
@@ -2153,49 +2480,46 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="J24">
         <v>7290</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L24" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="M24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>31</v>
+        <v>157</v>
+      </c>
+      <c r="X24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -2203,43 +2527,46 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="J25">
-        <v>2640</v>
+        <v>7290</v>
       </c>
       <c r="K25" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" t="s">
         <v>162</v>
       </c>
-      <c r="M25" t="s">
-        <v>140</v>
-      </c>
-      <c r="N25" t="s">
-        <v>163</v>
+      <c r="X25" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26">
@@ -2247,49 +2574,46 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
         <v>164</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>165</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>166</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26">
+        <v>2640</v>
+      </c>
+      <c r="K26" t="s">
         <v>167</v>
       </c>
-      <c r="I26" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26">
-        <v>5530</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>168</v>
       </c>
-      <c r="L26" t="s">
-        <v>91</v>
-      </c>
       <c r="M26" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="N26" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>31</v>
+        <v>169</v>
+      </c>
+      <c r="X26" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27">
@@ -2297,43 +2621,46 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="J27">
-        <v>2640</v>
+        <v>5530</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M27" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="N27" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="R27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -2341,43 +2668,46 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="J28">
-        <v>2520</v>
+        <v>2640</v>
       </c>
       <c r="K28" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="L28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="N28" t="s">
-        <v>40</v>
+        <v>184</v>
+      </c>
+      <c r="X28" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29">
@@ -2385,43 +2715,55 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J29">
         <v>2520</v>
       </c>
       <c r="K29" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="N29" t="s">
-        <v>40</v>
+        <v>194</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>198</v>
+      </c>
+      <c r="R29" t="s">
+        <v>196</v>
+      </c>
+      <c r="W29" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="30">
@@ -2429,43 +2771,55 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J30">
         <v>2520</v>
       </c>
       <c r="K30" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="N30" t="s">
-        <v>40</v>
+        <v>194</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>198</v>
+      </c>
+      <c r="R30" t="s">
+        <v>196</v>
+      </c>
+      <c r="W30" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
@@ -2473,49 +2827,55 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="J31">
-        <v>5740</v>
+        <v>2520</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M31" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s">
-        <v>40</v>
-      </c>
-      <c r="S31" t="s">
-        <v>190</v>
-      </c>
-      <c r="T31" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>198</v>
+      </c>
+      <c r="R31" t="s">
+        <v>196</v>
+      </c>
+      <c r="W31" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="32">
@@ -2523,560 +2883,644 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="J32">
-        <v>6280</v>
+        <v>5740</v>
       </c>
       <c r="K32" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="L32" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M32" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="N32" t="s">
-        <v>40</v>
+        <v>206</v>
+      </c>
+      <c r="R32" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J33">
-        <v>6900</v>
+        <v>1960</v>
       </c>
       <c r="K33" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="N33" t="s">
-        <v>40</v>
-      </c>
-      <c r="S33" t="s">
-        <v>74</v>
+        <v>215</v>
+      </c>
+      <c r="X33" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G34" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H34" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="I34" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J34">
         <v>6900</v>
       </c>
       <c r="K34" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
-      </c>
-      <c r="S34" t="s">
-        <v>74</v>
+        <v>225</v>
+      </c>
+      <c r="R34" t="s">
+        <v>226</v>
+      </c>
+      <c r="T34" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="I35" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J35">
         <v>6900</v>
       </c>
       <c r="K35" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M35" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N35" t="s">
-        <v>40</v>
-      </c>
-      <c r="S35" t="s">
-        <v>74</v>
+        <v>225</v>
+      </c>
+      <c r="R35" t="s">
+        <v>226</v>
+      </c>
+      <c r="T35" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G36" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="H36" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="I36" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J36">
-        <v>5650</v>
+        <v>6900</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M36" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="N36" t="s">
-        <v>40</v>
-      </c>
-      <c r="S36" t="s">
-        <v>190</v>
+        <v>225</v>
+      </c>
+      <c r="R36" t="s">
+        <v>226</v>
+      </c>
+      <c r="T36" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G37" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J37">
-        <v>5650</v>
+        <v>5590</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L37" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N37" t="s">
-        <v>40</v>
+        <v>237</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>238</v>
+      </c>
+      <c r="R37" t="s">
+        <v>241</v>
       </c>
       <c r="S37" t="s">
-        <v>190</v>
+        <v>239</v>
+      </c>
+      <c r="U37" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J38">
-        <v>5650</v>
+        <v>5590</v>
       </c>
       <c r="K38" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N38" t="s">
-        <v>40</v>
+        <v>237</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>238</v>
+      </c>
+      <c r="R38" t="s">
+        <v>241</v>
       </c>
       <c r="S38" t="s">
-        <v>190</v>
+        <v>239</v>
+      </c>
+      <c r="U38" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="I39" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="J39">
-        <v>5650</v>
+        <v>5590</v>
       </c>
       <c r="K39" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N39" t="s">
-        <v>40</v>
+        <v>237</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>238</v>
+      </c>
+      <c r="R39" t="s">
+        <v>241</v>
       </c>
       <c r="S39" t="s">
-        <v>190</v>
+        <v>239</v>
+      </c>
+      <c r="U39" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J40">
-        <v>5650</v>
+        <v>5590</v>
       </c>
       <c r="K40" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="M40" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N40" t="s">
-        <v>40</v>
+        <v>237</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>238</v>
+      </c>
+      <c r="R40" t="s">
+        <v>241</v>
       </c>
       <c r="S40" t="s">
-        <v>190</v>
+        <v>239</v>
+      </c>
+      <c r="U40" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H41" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="I41" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J41">
         <v>5650</v>
       </c>
       <c r="K41" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="L41" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="M41" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N41" t="s">
-        <v>40</v>
+        <v>225</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>250</v>
+      </c>
+      <c r="R41" t="s">
+        <v>249</v>
       </c>
       <c r="S41" t="s">
-        <v>190</v>
+        <v>251</v>
+      </c>
+      <c r="U41" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="I42" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J42">
         <v>5650</v>
       </c>
       <c r="K42" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="M42" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>225</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>250</v>
+      </c>
+      <c r="R42" t="s">
+        <v>249</v>
       </c>
       <c r="S42" t="s">
-        <v>190</v>
+        <v>251</v>
+      </c>
+      <c r="U42" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="I43" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J43">
         <v>5650</v>
       </c>
       <c r="K43" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="L43" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="M43" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N43" t="s">
-        <v>40</v>
+        <v>225</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>250</v>
+      </c>
+      <c r="R43" t="s">
+        <v>249</v>
       </c>
       <c r="S43" t="s">
-        <v>190</v>
+        <v>251</v>
+      </c>
+      <c r="U43" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="44">
@@ -3084,231 +3528,279 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G44" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H44" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="I44" t="s">
         <v>221</v>
       </c>
       <c r="J44">
-        <v>2510</v>
+        <v>5650</v>
       </c>
       <c r="K44" t="s">
+        <v>246</v>
+      </c>
+      <c r="L44" t="s">
+        <v>247</v>
+      </c>
+      <c r="M44" t="s">
+        <v>236</v>
+      </c>
+      <c r="N44" t="s">
         <v>225</v>
       </c>
-      <c r="L44" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" t="s">
-        <v>227</v>
-      </c>
-      <c r="N44" t="s">
-        <v>40</v>
+      <c r="Q44" t="s">
+        <v>250</v>
+      </c>
+      <c r="R44" t="s">
+        <v>249</v>
+      </c>
+      <c r="S44" t="s">
+        <v>251</v>
+      </c>
+      <c r="U44" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G45" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H45" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I45" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J45">
-        <v>6700</v>
+        <v>6560</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L45" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M45" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N45" t="s">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="O45" t="s">
+        <v>261</v>
+      </c>
+      <c r="R45" t="s">
+        <v>259</v>
+      </c>
+      <c r="T45" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F46" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G46" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J46">
-        <v>6700</v>
+        <v>6560</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M46" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N46" t="s">
-        <v>40</v>
-      </c>
-      <c r="S46" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="O46" t="s">
+        <v>261</v>
+      </c>
+      <c r="R46" t="s">
+        <v>259</v>
+      </c>
+      <c r="T46" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G47" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J47">
-        <v>6700</v>
+        <v>6560</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L47" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M47" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N47" t="s">
-        <v>40</v>
-      </c>
-      <c r="S47" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="O47" t="s">
+        <v>261</v>
+      </c>
+      <c r="R47" t="s">
+        <v>259</v>
+      </c>
+      <c r="T47" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="H48" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="I48" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J48">
-        <v>6700</v>
+        <v>6560</v>
       </c>
       <c r="K48" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="N48" t="s">
-        <v>40</v>
-      </c>
-      <c r="S48" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="O48" t="s">
+        <v>261</v>
+      </c>
+      <c r="R48" t="s">
+        <v>259</v>
+      </c>
+      <c r="T48" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/usmoll.xlsx
+++ b/usmoll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
   <si>
     <t>Каталог</t>
   </si>
@@ -67,7 +67,621 @@
     <t>Пальто и верхняя одежда</t>
   </si>
   <si>
+    <t>Женские шубы</t>
+  </si>
+  <si>
+    <t>Женское пальто oversize из искусственного меха</t>
+  </si>
+  <si>
+    <t>Women's Oversize Faux-Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3301214-womens-oversize-faux-fur-coat-mango</t>
+  </si>
+  <si>
+    <t>3301214</t>
+  </si>
+  <si>
+    <t>MANGO</t>
+  </si>
+  <si>
+    <t>Задайте новые модные тенденции этой зимой, надев эту объемную шубу из искусственного меха от MANGO. Это объемное пальто из искусственного меха с длинными рукавами, внутренней подкладкой и боковыми карманами. Соедините его с подходящими брюками или джинсами, чтобы завершить образ.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Приблизительно 32,17 дюйма в длину&lt;/li&gt;&lt;li&gt;незаконченный&lt;/li&gt;&lt;li&gt;Боковые карманы&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Негабаритный дизайн&lt;/li&gt;&lt;li&gt;Полиэстер, подкладка - полиэстер, вискоза&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Set new fashion trends this winter by wearing this oversized faux-fur coat from MANGO. This oversized coat is crafted from faux fur fabric and features long sleeves, inner lining, and side pockets. Pair it with matching trousers or jeans to complete the look.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Approximate 32.17" long&lt;/li&gt;&lt;li&gt;Unclosed&lt;/li&gt;&lt;li&gt;Side pockets&lt;/li&gt;&lt;li&gt;Long sleeve&lt;/li&gt;&lt;li&gt;Oversize design&lt;/li&gt;&lt;li&gt;Polyester, Lining - Polyester, Viscose&lt;/li&gt;&lt;li&gt;Dry Clean&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный]</t>
+  </si>
+  <si>
+    <t>[M]</t>
+  </si>
+  <si>
+    <t>черный</t>
+  </si>
+  <si>
+    <t>Пальто Fanye из искусственного меха</t>
+  </si>
+  <si>
+    <t>Fanye Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4658145-fanye-faux-fur-coat-sandro</t>
+  </si>
+  <si>
+    <t>4658145</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t>Плюшевая шуба из искусственного меха с уникальным высоким воротником для гламурного образа 70-х.&lt;ul&gt;&lt;li&gt;Зубчатый лацкан&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Карманы по бокам&lt;/li&gt;&lt;li&gt;Крюковое крепление&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импорт из импортной ткани&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Крупногабаритный крой&lt;/li&gt;&lt;li&gt;Около 34,5 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: 5 футов 10 дюймов в высоту.&lt;/li&gt;&lt;li&gt;На модели американский размер 4.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Plush faux fur coat with a unique slightl highneck for a 70s glam look.&lt;ul&gt;&lt;li&gt;Notched lapel&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Pockets on the sides&lt;/li&gt;&lt;li&gt;Hook fastening&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported of Imported fabric&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Oversized cut&lt;/li&gt;&lt;li&gt;About 34.5" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 5'10" tall&lt;/li&gt;&lt;li&gt;Model is wearing a US size 4&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[Светло-бежевый]</t>
+  </si>
+  <si>
+    <t>[4 (XL)]</t>
+  </si>
+  <si>
+    <t>Светло-бежевый</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/465/81/45/beb9c9b6aa65c798bc286e88b81c7402.jpeg https://usmall.ru/image/465/81/45/ae7032700ef28f61e98e45b1e3fe824a.jpeg https://usmall.ru/image/465/81/45/64b6e29c493e85168b6391bbe3706d7d.jpeg]</t>
+  </si>
+  <si>
+    <t>Женская шуба из искусственного меха кролика</t>
+  </si>
+  <si>
+    <t>Ladies Bunny Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4839362-ladies-bunny-faux-fur-coat-nvlt</t>
+  </si>
+  <si>
+    <t>4839362</t>
+  </si>
+  <si>
+    <t>NVLT</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Оставайтесь стильными в течение всего дня с шубой из искусственного меха NVLT Ladies Bunny.&lt;/li&gt;
+&lt;li&gt;Шаль воротник.&lt;/li&gt;
+&lt;li&gt;Длинный рукав.&lt;/li&gt;
+&lt;li&gt;Застежка спереди на кнопки по центру.&lt;/li&gt;
+&lt;li&gt;Нижние передние прорезные карманы.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Возможна химчистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина: 27 дюймов&lt;/li&gt;
+    &lt;li&gt;Длина рукава: 32 дюйма&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Данные замеры приведены для размеров SM. Обратите внимание, данные величины отличаются на другие размеры модели.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Stay stylish in all day comfort with the NVLT Ladies Bunny Faux Fur Coat.&lt;/li&gt;
+&lt;li&gt;Shawl collar.&lt;/li&gt;
+&lt;li&gt;Long sleeves.&lt;/li&gt;
+&lt;li&gt;Center front snap-button closure.&lt;/li&gt;
+&lt;li&gt;Lower front welt pockets.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Dry clean.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;li&gt;Measurements:
+&lt;ul&gt;&lt;li&gt; Length: 27 in&lt;/li&gt;
+    &lt;li&gt; Sleeve Length: 32 in&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Product measurements were taken using size SM. Please note that measurements may vary by size.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[Пурпурный серый зеленый]</t>
+  </si>
+  <si>
+    <t>[XS SM MD LG XL]</t>
+  </si>
+  <si>
+    <t>Пурпурный</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/483/93/62/40df35658eea3b91d9eaf12f55ac5b18.jpeg https://usmall.ru/image/483/93/62/42408f55b757a7c905d96e63e02eee15.jpeg https://usmall.ru/image/483/93/62/1fdb0fb8272a4d06a23af125e593bd6e.jpeg https://usmall.ru/image/483/93/62/cf7db10076dfafb501bfa967feeeed01.jpeg]</t>
+  </si>
+  <si>
+    <t>серый</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/483/93/62/e556bdfd19be8ef26a02345234a4797a.jpeg https://usmall.ru/image/483/93/62/710b6be887b78baf17b93a3145854f10.jpeg https://usmall.ru/image/483/93/62/85d2ac2a568d3c3b79c586a45cb53c98.jpeg https://usmall.ru/image/483/93/62/99f873e0710a4a33bc5a1991e7dc43d1.jpeg]</t>
+  </si>
+  <si>
+    <t>зеленый</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/483/93/62/d1b2b3d5955a8997d464b3972eb589f2.jpeg https://usmall.ru/image/483/93/62/cd433bb9544dc98144cceddb63accfa9.jpeg https://usmall.ru/image/483/93/62/b6ce7f402dc4cc8cf64cbc5534f3cd58.jpeg https://usmall.ru/image/483/93/62/c6addc5e8d9ed0301f21b96b7eb3417c.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто оверсайз из искусственного меха с отложным воротником</t>
+  </si>
+  <si>
+    <t>Oversized Shawl-Collar Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4845183-oversized-shawl-collar-faux-fur-coat-donna-karan-new-york</t>
+  </si>
+  <si>
+    <t>4845183</t>
+  </si>
+  <si>
+    <t>Donna Karan New York</t>
+  </si>
+  <si>
+    <t>Пальто оверсайз от Donna Karan New York с шикарным шалевым воротником из плюшевого искусственного меха.&lt;ul&gt;&lt;li&gt;Шаль воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Центральная передняя застежка на крючок&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: крашеный искусственный мех&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 33 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: 5 футов 10 дюймов в высоту.&lt;/li&gt;&lt;li&gt;На модели американский размер 4.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Donna Karan New York's oversized coat is designed with a chic shawl collar in a plush faux fur.&lt;ul&gt;&lt;li&gt;Shawl collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Center front hook-&amp;amp;-eye closure&lt;/li&gt;&lt;li&gt;100% polyester&lt;/li&gt;&lt;li&gt;Fur type: Dyed faux fur&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 33" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 5'10" tall&lt;/li&gt;&lt;li&gt;Model is wearing a US size 4&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[разноцветный]</t>
+  </si>
+  <si>
+    <t>[Large Medium Small X-Large X-Small]</t>
+  </si>
+  <si>
+    <t>разноцветный</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/484/51/83/8134accf095336a3929be72e565fd5c9.jpeg https://usmall.ru/image/484/51/83/8bce2d12562aaefd412412466fca2f97.jpeg https://usmall.ru/image/484/51/83/c52dd7ac4cffa99683139f684ed38d41.jpeg https://usmall.ru/image/484/51/83/05ea722e3262079ea45e81d0fd70702e.jpeg https://usmall.ru/image/484/51/83/942b8fd3aea0a74f0dab58eba88dcb9a.jpeg]</t>
+  </si>
+  <si>
+    <t>Шуба из искусственного меха Avaline Новинка</t>
+  </si>
+  <si>
+    <t>Avaline Faux Fur Coat Novelty</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4924713-avaline-faux-fur-coat-novelty-ugg</t>
+  </si>
+  <si>
+    <t>4924713</t>
+  </si>
+  <si>
+    <t>UGG</t>
+  </si>
+  <si>
+    <t>Пальто из искусственного меха Avaline от UGG с клетчатым принтом, фигурным воротником и накладными карманами на флисовой подкладке для согрева рук.&lt;ul&gt;&lt;li&gt;Воротник с надрезом&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Скрытая застежка спереди&lt;/li&gt;&lt;li&gt;Накладные передние карманы&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Искусственный мех&lt;/li&gt;&lt;li&gt;Только сухая чистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 45 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: 5 футов 10 дюймов в высоту.&lt;/li&gt;&lt;li&gt;На модели американский размер 4.&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;О БРЕНДЕ&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;В 1978 году дизайнер Брайан Смит приехал в Калифорнию из Австралии с ботинками из овчины в надежде, что непринужденная культура идеально подойдет его бренду - и он был прав. UGG стал хитом среди серферов и лыжников, а к 90-м годам - во всем мире. UGG - это не просто мягкие уютные ботинки, тапочки и сандалии, но и бренд стиля жизни с добавлением одежды, аксессуаров и предметов домашнего декора.</t>
+  </si>
+  <si>
+    <t>UGG's Avaline faux fur coat features a checkered print, a notched collar, and fleece-lined patch pockets to keep the hands warm.&lt;ul&gt;&lt;li&gt;Notch collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Hidden snap-front closure&lt;/li&gt;&lt;li&gt;Patch front pockets&lt;/li&gt;&lt;li&gt;100% polyester&lt;/li&gt;&lt;li&gt;Faux Fur&lt;/li&gt;&lt;li&gt;Dry clean only&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 45" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 5'10" tall&lt;/li&gt;&lt;li&gt;Model is wearing a US size 4&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;ABOUT THE BRAND&lt;/b&gt;&lt;br /&gt;&lt;br /&gt;In 1978, designer Brian Smith came to California from Australia with sheepskin boots in hopes that the relaxed culture would be the perfect fit for his brand—and he was right. UGG was a hit with surfers and skiers, and by the `90s, with the world. More than just soft, cozy boots, slippers and sandals, UGG has become a lifestyle brand with the addition of clothing, accessories and home décor.</t>
+  </si>
+  <si>
+    <t>[Large Medium Small X-Large]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/492/47/13/767e2cb4a1d82176117ff9886e51dced.jpeg https://usmall.ru/image/492/47/13/b2e1f6ecfe0d6343ab1aede4789544cb.jpeg https://usmall.ru/image/492/47/13/7db77b64c8abe2bc178bdaeeb5b6764d.jpeg https://usmall.ru/image/492/47/13/367f41b3a2c9cc22f40612f8def94bde.jpeg https://usmall.ru/image/492/47/13/b1d82d520a85bafada9039d9c12f0c2a.jpeg https://usmall.ru/image/492/47/13/fbf5e93c5aaed4501d3b35695f06a15d.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто из искусственного меха с пряжкой</t>
+  </si>
+  <si>
+    <t>Buckle Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4840368-buckle-faux-fur-coat-karl-lagerfeld-paris</t>
+  </si>
+  <si>
+    <t>4840368</t>
+  </si>
+  <si>
+    <t>Karl Lagerfeld Paris</t>
+  </si>
+  <si>
+    <t>Пряжки из искусственной кожи на воротнике этого пальто резко контрастируют с плюшевой тканью из искусственного меха. Текстурированный с тонким линейным рисунком, он также имеет универсальный низ, заканчивающийся на бедре.&lt;ul&gt;&lt;li&gt;Крыло воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Передняя молния&lt;/li&gt;&lt;li&gt;Карманы на молнии&lt;/li&gt;&lt;li&gt;Трубка из искусственной кожи&lt;/li&gt;&lt;li&gt;Лапки из искусственной кожи&lt;/li&gt;&lt;li&gt;Подкладка из полиэстера&lt;/li&gt;&lt;li&gt;Модакрил / полиэстер&lt;/li&gt;&lt;li&gt;Отделка: полиуретан&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 32 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Faux leather buckle tabs at the collar of this coat provide an edgy contrast against plush faux fur fabric. Textured with a subtle linear pattern it also features a versatile hem ending at the thigh.&lt;ul&gt;&lt;li&gt;Wing collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Front zipper&lt;/li&gt;&lt;li&gt;Zip pockets&lt;/li&gt;&lt;li&gt;Faux leather piping&lt;/li&gt;&lt;li&gt;Faux leather tabs&lt;/li&gt;&lt;li&gt;Polyester lining&lt;/li&gt;&lt;li&gt;Modacrylic/polyester&lt;/li&gt;&lt;li&gt;Trim: Polyurethane&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 32” from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный белый]</t>
+  </si>
+  <si>
+    <t>[L M S XL XS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/484/03/68/8a669f15bb5dffaa6d4baf20289eabcc.jpeg https://usmall.ru/image/484/03/68/41c0b7272dd9215962ee3a37634b9887.jpeg https://usmall.ru/image/484/03/68/09b5f4fb6b4c25190855a3f496a86511.jpeg https://usmall.ru/image/484/03/68/9541f00fddd7902c26914b2b636229e1.jpeg]</t>
+  </si>
+  <si>
+    <t>белый</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/484/03/68/8a669f15bb5dffaa6d4baf20289eabcc.jpeg https://usmall.ru/image/484/03/68/41c0b7272dd9215962ee3a37634b9887.jpeg https://usmall.ru/image/484/03/68/09b5f4fb6b4c25190855a3f496a86511.jpeg https://usmall.ru/image/484/03/68/4f1307288c483bf64cf6faa51e55b4cf.jpeg]</t>
+  </si>
+  <si>
+    <t>КУРТКА ИЗ ИСКУССТВЕННОГО МЕХА</t>
+  </si>
+  <si>
+    <t>FAUX FUR JACKET</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4968225-faux-fur-jacket-zara</t>
+  </si>
+  <si>
+    <t>4968225</t>
+  </si>
+  <si>
+    <t>ZARA</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Жакет с большим клапаном и длинными рукавами. Боковые скрытые карманы в швах. Внутренняя отделка в тон. Застежка на кнопки спереди.&lt;/p&gt;&lt;br /&gt;МАТЕРИАЛЫ&lt;p&gt;Мы работаем с программами мониторинга, чтобы гарантировать соответствие нашей одежды социальным, экологическим, санитарным и безопасным стандартам.&lt;br /&gt;&lt;br /&gt;Для оценки их соответствия мы разработали программу аудита и планы постоянного улучшения.&lt;/p&gt;ВНЕШНЯЯ ОБОЛОЧКА&lt;p&gt;100% полиэстер&lt;/p&gt;ОБОЛОЧКА&lt;p&gt;54 % полиэстер · 46 % вискоза&lt;/p&gt;ЗАБОТА&lt;p&gt;Уход за одеждой — это забота об окружающей среде.&lt;/p&gt;
+&lt;p&gt;Чтобы ваши куртки и пальто оставались чистыми, просто освежите их и протрите тканью или щеткой для одежды. Если необходима химчистка, поищите химчистки, в которых используются экологически безопасные технологии.&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Не мой&lt;/li&gt;
+&lt;li&gt;Не используйте отбеливатель / отбеливатель&lt;/li&gt;
+&lt;li&gt;Не гладить&lt;/li&gt;
+&lt;li&gt;Тетрахлорэтилен Химчистка&lt;/li&gt;
+&lt;li&gt;Не сушить в стиральной машине&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Jacket with large flap and long sleeves. Side hidden in-seam pockets. Tonal lined interior. Front snap button closure.&lt;/p&gt;&lt;br /&gt;MATERIALS
+&lt;p&gt;We are working with monitoring programs to guarantee compliance with the social, environmental, and health and safety standards of our garments.&lt;br /&gt;&lt;br /&gt;To evaluate their compliance, we have developed an auditing program and plans for continual improvement.&lt;/p&gt;
+OUTER SHELL
+&lt;p&gt;100% polyester&lt;/p&gt;
+LINING
+&lt;p&gt;54% polyester · 46% viscose&lt;/p&gt;
+CARE
+&lt;p&gt;Caring for your clothes is caring for the environment.&lt;/p&gt;
+&lt;p&gt;To keep your jackets and coats clean, just freshen them out and wipe them with a cloth or clothing brush. If dry cleaning is necessary, try to look for dry cleaners that use environmentally respectful technologies.&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Do not wash&lt;/li&gt;
+&lt;li&gt;Do not use bleach / whitener&lt;/li&gt;
+&lt;li&gt;Do not iron&lt;/li&gt;
+&lt;li&gt;Tetrachloroethylene Dry Clean&lt;/li&gt;
+&lt;li&gt;Do not tumble dry&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[L S M]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/496/82/25/f319a5903aeaa5cec46d325d8d84aafe.jpeg https://usmall.ru/image/496/82/25/11b63f096a50f8b829682b2f22fe147e.jpeg https://usmall.ru/image/496/82/25/60a2f0033d7760f234844abe8cee53f3.jpeg https://usmall.ru/image/496/82/25/9baaefa4e00ff418b6434f256d5b746d.jpeg https://usmall.ru/image/496/82/25/dfa6650fca2630ce5811efb8cd5e257d.jpeg https://usmall.ru/image/496/82/25/486665a8e8da1e9b31d0bd5d8f2ccb54.jpeg https://usmall.ru/image/000/00/00/25c7d682d02cde202d172d829f7eeff2.jpeg]</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4969612-faux-fur-jacket-zara</t>
+  </si>
+  <si>
+    <t>4969612</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Жакет с круглым вырезом и длинными рукавами. Передние карманы. Передняя застежка на крючок.&lt;/p&gt;&lt;br /&gt;МАТЕРИАЛЫ&lt;p&gt;Мы работаем с программами мониторинга, чтобы гарантировать соответствие нашей одежды социальным, экологическим, санитарным и безопасным стандартам.&lt;br /&gt;&lt;br /&gt;Для оценки их соответствия мы разработали программу аудита и планы постоянного улучшения.&lt;/p&gt;ВНЕШНЯЯ ОБОЛОЧКА&lt;p&gt;100% полиэстер&lt;/p&gt;ОБОЛОЧКА&lt;p&gt;100% полиэстер&lt;/p&gt;ЗАБОТА&lt;p&gt;Уход за одеждой — это забота об окружающей среде.&lt;/p&gt;
+&lt;p&gt;Чтобы ваши куртки и пальто оставались чистыми, просто освежите их и протрите тканью или щеткой для одежды. Если необходима химчистка, поищите химчистки, в которых используются экологически безопасные технологии.&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Не мой&lt;/li&gt;
+&lt;li&gt;Не используйте отбеливатель / отбеливатель&lt;/li&gt;
+&lt;li&gt;Не гладить&lt;/li&gt;
+&lt;li&gt;Тетрахлорэтилен Химчистка&lt;/li&gt;
+&lt;li&gt;Не сушить в стиральной машине&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Round neck long sleeve jacket. Front pockets. Front hook closure.&lt;/p&gt;&lt;br /&gt;MATERIALS
+&lt;p&gt;We are working with monitoring programs to guarantee compliance with the social, environmental, and health and safety standards of our garments.&lt;br /&gt;&lt;br /&gt;To evaluate their compliance, we have developed an auditing program and plans for continual improvement.&lt;/p&gt;
+OUTER SHELL
+&lt;p&gt;100% polyester&lt;/p&gt;
+LINING
+&lt;p&gt;100% polyester&lt;/p&gt;
+CARE
+&lt;p&gt;Caring for your clothes is caring for the environment.&lt;/p&gt;
+&lt;p&gt;To keep your jackets and coats clean, just freshen them out and wipe them with a cloth or clothing brush. If dry cleaning is necessary, try to look for dry cleaners that use environmentally respectful technologies.&lt;/p&gt;
+&lt;ul&gt;&lt;li&gt;Do not wash&lt;/li&gt;
+&lt;li&gt;Do not use bleach / whitener&lt;/li&gt;
+&lt;li&gt;Do not iron&lt;/li&gt;
+&lt;li&gt;Tetrachloroethylene Dry Clean&lt;/li&gt;
+&lt;li&gt;Do not tumble dry&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[S M XL XS XXL]</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/496/96/12/fb478d594d246b36628c4b89b396aab4.jpeg https://usmall.ru/image/496/96/12/0bb51ee9801d85fef1106ed902fe7ab2.jpeg https://usmall.ru/image/496/96/12/6b2dce6d18e5145d914f1591316358fc.jpeg https://usmall.ru/image/496/96/12/5facb036626cdb2961b615b7b293d479.jpeg https://usmall.ru/image/496/96/12/20638211c6c0c05d0ef1905b87e8153a.jpeg https://usmall.ru/image/000/00/00/0f895d8d9441432bf5a60c8d19d555c3.jpeg]</t>
+  </si>
+  <si>
+    <t>Коричневое и хаки длинное пальто из искусственного меха в шахматную клетку ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN checkerboard longline faux fur coat in khaki &amp; brown</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4977989-asos-design-checkerboard-longline-faux-fur-coat-in-khaki-brown-asos-design</t>
+  </si>
+  <si>
+    <t>4977989</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ИНФОРМАЦИЯ О ПРОДУКТЕ&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Выделяйтесь, оставайтесь в тепле&lt;/li&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Безопасное закрытие&lt;/li&gt;&lt;li&gt;Регулярная посадка&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;РАЗМЕР И ПОДХОДИТ&lt;/p&gt;&lt;p&gt;Одежда на модели: UK 8/EU 36/US 4 Рост модели: 176 см/5 футов 9,5 дюймов&lt;/p&gt;&lt;p&gt;ПРИСМОТРИТЕ ЗА МНОЙ&lt;/p&gt;&lt;p&gt;Машинная стирка в соответствии с инструкциями на этикетках по уходу&lt;/p&gt;&lt;p&gt;ОБО МНЕ&lt;/p&gt;&lt;p&gt;Искусственный мех: сверхмягкая синтетическая тканьПодкладка: 100% полиэстер. Искусственный мех: 60% полиэстер, 40% акрил.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[коричневый]</t>
+  </si>
+  <si>
+    <t>[US 6]</t>
+  </si>
+  <si>
+    <t>коричневый</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/497/79/89/82b6996b5848dc2780db1590fa7c61d2.jpeg https://usmall.ru/image/497/79/89/2e8056eabe13ee493efb08fa00bac2a4.jpeg https://usmall.ru/image/497/79/89/52522ad59036b3ba12831e97133974a7.jpeg https://usmall.ru/image/497/79/89/56a90b4431ddccefd4059eb4240b4294.jpeg https://usmall.ru/image/000/00/00/94649b6ac14fd10373cd458f9a82193c.jpeg]</t>
+  </si>
+  <si>
+    <t>Синее длинное пальто из искусственного меха ASOS DESIGN Petite</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN Petite faux fur maxi coat in blue</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4978922-asos-design-petite-faux-fur-maxi-coat-in-blue-asos-petite</t>
+  </si>
+  <si>
+    <t>4978922</t>
+  </si>
+  <si>
+    <t>ASOS Petite</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Throw on, go out&lt;/li&gt;&lt;li&gt;Oversized collar&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Longline cut&lt;/li&gt;&lt;li&gt;Regular fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: UK 6/ EU 34/ US 2Model's height: 160cm/5'3"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricLining: 100% Polyester, Shell: 100% Polyester.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[синий]</t>
+  </si>
+  <si>
+    <t>[US 4 US 6 US 0 US 00 US 8 US 2]</t>
+  </si>
+  <si>
+    <t>синий</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/497/89/22/20ace64c9fa69e37bb3ee892da2941d6.jpeg https://usmall.ru/image/497/89/22/e769cacc9723769f5cccbfcf82b3a6bb.jpeg https://usmall.ru/image/497/89/22/ba97d07496e68a69937ba0781d6b5488.jpeg https://usmall.ru/image/497/89/22/e3803fd83b20ee628eefdf549ec2ea47.jpeg https://usmall.ru/image/000/00/00/b20e142c943897f636aa226a97ba0a30.jpeg]</t>
+  </si>
+  <si>
+    <t>Синее длинное пальто из искусственного меха ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN faux fur maxi coat in blue</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4984227-asos-design-faux-fur-maxi-coat-in-blue-asos-design</t>
+  </si>
+  <si>
+    <t>4984227</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;That new-coat feeling&lt;/li&gt;&lt;li&gt;Notch collar&lt;/li&gt;&lt;li&gt;Drop shoulders&lt;/li&gt;&lt;li&gt;Relaxed fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: UK 8/ EU 36/ US 4Model's height: 168cm/5'6"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricLining: 100% Polyester, Shell: 100% Polyester.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[US 2 US 8 US 4 US 0]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/498/42/27/1ae04c72f940fef4e65a78252c041438.jpeg https://usmall.ru/image/498/42/27/42e88165d24d7b40bfc82a848536b582.jpeg https://usmall.ru/image/498/42/27/e8ba34858c2fb52e07110172d068491a.jpeg https://usmall.ru/image/498/42/27/d55f8dca5feee278661051f71f42fdde.jpeg https://usmall.ru/image/000/00/00/778d52749f0c1378f1cffe9acdd35cc6.jpeg]</t>
+  </si>
+  <si>
+    <t>Хлопок: Розовая укороченная куртка из искусственного меха On Curve</t>
+  </si>
+  <si>
+    <t>Cotton:On Curve faux fur cropped jacket in pink</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4989168-cottonon-curve-faux-fur-cropped-jacket-in-pink-cottonon</t>
+  </si>
+  <si>
+    <t>4989168</t>
+  </si>
+  <si>
+    <t>Cotton:On</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Jacket upgrade: check&lt;/li&gt;&lt;li&gt;High collar&lt;/li&gt;&lt;li&gt;Zip fastening&lt;/li&gt;&lt;li&gt;Cropped length&lt;/li&gt;&lt;li&gt;Regular fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: UK 18/ EU 46/ US 14Model's height: 175cm/5'9"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricMain: 100% Polyester.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[розовый]</t>
+  </si>
+  <si>
+    <t>[US 14]</t>
+  </si>
+  <si>
+    <t>розовый</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/498/91/68/700a2a18cfb4737f468298ac42b4d43f.jpeg https://usmall.ru/image/498/91/68/b1fd2e7260d26b3ff55be236602be59c.jpeg https://usmall.ru/image/498/91/68/982af5d57774805c9f33ea6a3044f7eb.jpeg https://usmall.ru/image/498/91/68/71b31c637096c98723501b875da4b29e.jpeg https://usmall.ru/image/000/00/00/4da9070bad79f19107d1e5e13a8aaf5b.jpeg]</t>
+  </si>
+  <si>
+    <t>Удлиненная розовая шуба из искусственного меха Jayley</t>
+  </si>
+  <si>
+    <t>Jayley longer length faux fur coat in pink</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4997587-jayley-longer-length-faux-fur-coat-in-pink-jayley</t>
+  </si>
+  <si>
+    <t>4997587</t>
+  </si>
+  <si>
+    <t>Jayley</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ИНФОРМАЦИЯ О ПРОДУКТЕ&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Выделяйтесь, оставайтесь в тепле&lt;/li&gt;&lt;li&gt;Воротник с надрезом&lt;/li&gt;&lt;li&gt;Открытый фронт&lt;/li&gt;&lt;li&gt;Опустить плечи&lt;/li&gt;&lt;li&gt;Ярусный отруб&lt;/li&gt;&lt;li&gt;Расслабленная посадка&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;РАЗМЕР И ПОДХОДИТ&lt;/p&gt;&lt;p&gt;Одежда на модели: UK 8/EU 36/US 4 Рост модели: 170 см/5 футов 7 дюймов&lt;/p&gt;&lt;p&gt;ПРИСМОТРИТЕ ЗА МНОЙ&lt;/p&gt;&lt;p&gt;Только сухая чистка&lt;/p&gt;&lt;p&gt;ОБО МНЕ&lt;/p&gt;&lt;p&gt;Искусственный мех: сверхмягкая синтетическая тканьПодкладка: 100% вискоза. Основная часть: 85% модакрил, 15% акрил.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/499/75/87/598c1cf8c1fd69aabe68348d2752a89e.jpeg https://usmall.ru/image/499/75/87/50b37f33edfba93c5eea58855fc7e1ad.jpeg https://usmall.ru/image/499/75/87/64d1347e0a7fed5308bdf32219c405d7.jpeg https://usmall.ru/image/499/75/87/983b88d489f5ca91b6225e4ff26cd5f7.jpeg https://usmall.ru/image/000/00/00/9c3230bc5d2bd6ed84d81bf317bbdd7c.jpeg]</t>
+  </si>
+  <si>
+    <t>Горчичное длинное пальто из искусственного меха Missguided Plus</t>
+  </si>
+  <si>
+    <t>Missguided Plus longline faux fur coat in mustard</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5006343-missguided-plus-longline-faux-fur-coat-in-mustard-missguided-plus</t>
+  </si>
+  <si>
+    <t>5006343</t>
+  </si>
+  <si>
+    <t>Missguided Plus</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Exclusive to ASOS&lt;/li&gt;&lt;li&gt;Notch lapels&lt;/li&gt;&lt;li&gt;Button closure&lt;/li&gt;&lt;li&gt;Side pockets&lt;/li&gt;&lt;li&gt;Center vent to reverse&lt;/li&gt;&lt;li&gt;Longline cut&lt;/li&gt;&lt;li&gt;Regular fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model is wearing: UK 18/ EU 46/ US 14Model's height: 173cm/5'8"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Super-soft faux furFully linedLining: 100% Polyester, Main: 100% Polyester.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[US 12]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/500/63/43/6fcf8856a5aa052266cba45a07750536.jpeg https://usmall.ru/image/500/63/43/10a9ba8dcb9cf4c401501ee332e81ee0.jpeg https://usmall.ru/image/500/63/43/4962939a8b473f05b6f62612abb7c994.jpeg https://usmall.ru/image/500/63/43/4b5d602406c75aa9ee978d273f8c3c44.jpeg https://usmall.ru/image/000/00/00/c4b79e76a6ac9eb19faf03414fe789cd.jpeg]</t>
+  </si>
+  <si>
+    <t>Удлиненное пальто Miss Selfridge из искусственного меха с животными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss Selfridge animal longline faux fur coat </t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5008655-miss-selfridge-animal-longline-faux-fur-coat-miss-selfridge</t>
+  </si>
+  <si>
+    <t>5008655</t>
+  </si>
+  <si>
+    <t>Miss Selfridge</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;That new-coat feeling&lt;/li&gt;&lt;li&gt;Notch collar&lt;/li&gt;&lt;li&gt;Snap placket&lt;/li&gt;&lt;li&gt;Longline cut&lt;/li&gt;&lt;li&gt;Regular fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: UK 8/ EU 36/ US 4Model's height: 168cm/5'6"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricLining: 100% Polyester, Main: 64% Acrylic, 36% Polyester.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[US 4 US 6 US 2]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/500/86/55/3898633f7caf3d44e2516bf108f6003b.jpeg https://usmall.ru/image/500/86/55/d77be210fe82e4a5e969fab42152f654.jpeg https://usmall.ru/image/500/86/55/fe6c06a22858f6d1b41209b6b5b2133b.jpeg https://usmall.ru/image/500/86/55/62b3eff56d2c7d55a836d0321cf78091.jpeg https://usmall.ru/image/000/00/00/edd53dc2dd087af0504baecf1d887832.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка из искусственного меха на молнии спереди</t>
+  </si>
+  <si>
+    <t>Faux Fur Zip Front Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5019796-faux-fur-zip-front-jacket-calvin-klein</t>
+  </si>
+  <si>
+    <t>5019796</t>
+  </si>
+  <si>
+    <t>Calvin Klein</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Молнии спереди&lt;/li&gt;&lt;li&gt;Нагрудный карман на молнии&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Полиэстер / нейлон&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Машинная стирка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 23 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Stay warm and stylish in this plush faux fur jacket designed in a zip-front silhouette.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Zip front&lt;/li&gt;&lt;li&gt;Chest zip pocket&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Polyester/nylon&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 23" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный синий]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/501/97/96/e29ac66cd3ab6a776bc997bb00222f69.jpeg https://usmall.ru/image/501/97/96/3cd46c25a86fe5d4b8937824dff3252d.jpeg https://usmall.ru/image/501/97/96/c4a75cf251252d17c90a61a4c48ebd8c.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/501/97/96/3cd46c25a86fe5d4b8937824dff3252d.jpeg https://usmall.ru/image/501/97/96/c4a75cf251252d17c90a61a4c48ebd8c.jpeg https://usmall.ru/image/501/97/96/6cfc0ee278d158d05c30541a9eb1bf4b.jpeg]</t>
+  </si>
+  <si>
+    <t>Faux Fur Teddy Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5039712-faux-fur-teddy-coat-rachel-rachel-roy</t>
+  </si>
+  <si>
+    <t>5039712</t>
+  </si>
+  <si>
+    <t>RACHEL Rachel Roy</t>
+  </si>
+  <si>
+    <t>RACHEL Rachel Roy's teddy coat is a furry alternative to the basic trench. The oversized collar and roomy pockets ensure a cozy feel whenever you wear it.Style yours unbuttoned with your favorite knitwear and jeans.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Button front&lt;/li&gt;&lt;li&gt;Two waist slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 41.5" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5’10” (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/503/97/12/7f3bbafa3c40c04f8567d3ad31cbe228.jpeg https://usmall.ru/image/503/97/12/6bfca97b61f416e348701af688814516.jpeg https://usmall.ru/image/503/97/12/db4d32d28b06b4f89c90daffd1292dc1.jpeg]</t>
+  </si>
+  <si>
+    <t>Ярко-синяя укороченная куртка из ворсистого искусственного меха Topshop</t>
+  </si>
+  <si>
+    <t>Topshop cropped shaggy faux fur jacket in bright blue</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5106672-topshop-cropped-shaggy-faux-fur-jacket-in-bright-blue-topshop</t>
+  </si>
+  <si>
+    <t>5106672</t>
+  </si>
+  <si>
+    <t>TOPSHOP</t>
+  </si>
+  <si>
+    <t>[US 4 US  8 US  6 US 2]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/510/66/72/9f81f35ac39f3aafdc01fd8bdce7356f.jpeg https://usmall.ru/image/510/66/72/57f29e57303c6fb0de6d233bd8e9791c.jpeg https://usmall.ru/image/510/66/72/9c4d60e1fbaa649e6820f12364982612.jpeg https://usmall.ru/image/510/66/72/21e1cf2feba471f8ba2aec465634d1d5.jpeg https://usmall.ru/image/000/00/00/5675224619f97456ec84f2cc6b4b5828.jpeg]</t>
+  </si>
+  <si>
+    <t>Только искусственная шуба кремового цвета</t>
+  </si>
+  <si>
+    <t>Only faux fur coat in cream</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5141749-only-faux-fur-coat-in-cream-only</t>
+  </si>
+  <si>
+    <t>5141749</t>
+  </si>
+  <si>
+    <t>ONLY</t>
+  </si>
+  <si>
+    <t>[M - US 6]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/514/17/49/057fe6621f4380c090606aa8e4830004.jpeg https://usmall.ru/image/514/17/49/9d631ede08c603e7f5f361406446eaec.jpeg https://usmall.ru/image/514/17/49/4dcfc731d35180b69075745a5ddc9a38.jpeg https://usmall.ru/image/514/17/49/e1c2437069d60cd61ca4bdee652f202f.jpeg https://usmall.ru/image/000/00/00/eaaec10f712677200eb3d04b5abbe25f.jpeg]</t>
   </si>
   <si>
     <t>Укороченная куртка из искусственного меха</t>
@@ -116,140 +730,730 @@
     <t>[MD LG SM]</t>
   </si>
   <si>
-    <t>серый</t>
+    <t>[https://usmall.ru/image/047/79/64/4114ae44c6fe9562ed77c725377aad26.jpeg https://usmall.ru/image/047/79/64/bac5359c2f1a5671ee8fdfc565fc55fb.jpeg https://usmall.ru/image/047/79/64/ef3a366c5a4385f33ecb96da40cac1c1.jpeg https://usmall.ru/image/047/79/64/69b6bf21de01bfc4024c956c588c60bd.jpeg https://usmall.ru/image/047/79/64/60ac9771c2b83fa0cb81550428b91edb.jpeg]</t>
   </si>
   <si>
     <t>красный</t>
   </si>
   <si>
+    <t>[https://usmall.ru/image/047/79/64/98979907243ae2a985156ea4108fcfc5.jpeg https://usmall.ru/image/047/79/64/1ac05154e42b2d4cd8c42c8596d80915.jpeg https://usmall.ru/image/047/79/64/76775584138d99b34bfbb1a4c45667e9.jpeg https://usmall.ru/image/047/79/64/0ddf989b1d081f1a1eea0ec9eb032901.jpeg https://usmall.ru/image/047/79/64/1f584a6099683b35de1c8a331de08580.jpeg]</t>
+  </si>
+  <si>
     <t>желтый</t>
   </si>
   <si>
-    <t>Шуба из искусственного меха для юниоров</t>
-  </si>
-  <si>
-    <t>Juniors' Faux-Fur Coat</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/304935-juniors-faux-fur-coat-coffeeshop</t>
-  </si>
-  <si>
-    <t>304935</t>
-  </si>
-  <si>
-    <t>CoffeeShop</t>
-  </si>
-  <si>
-    <t>Пусть ваш стиль говорит о вас в этой вечно крутой шубе из искусственного меха от CoffeeShop с супер шикарным леопардовым принтом и воротником в стиле мото.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Прибл. Высота модели 5'10 ", и она носит размер M&lt;/li&gt;&lt;li&gt;Прибл. 31,5 "длиной от центра спины до подола&lt;/li&gt;&lt;li&gt;Мото воротник; передние застежки на крючки&lt;/li&gt;&lt;li&gt;Повсюду искусственный мех&lt;/li&gt;&lt;li&gt;Два кармана на бедре&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Раковина, подкладка: полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в стиральной машинке&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Let your style do the talking in this eternally cool faux-fur coat from CoffeeShop, in a super chic leopard print with a moto-inspired collar.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Approx. model height is 5'10" and she is wearing size M&lt;/li&gt;&lt;li&gt;Approx. 31.5" long from center back to hem&lt;/li&gt;&lt;li&gt;Moto collar; front hook-and-eye closures&lt;/li&gt;&lt;li&gt;Allover faux fur&lt;/li&gt;&lt;li&gt;Two pockets at hip&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Shell, lining: polyester&lt;/li&gt;&lt;li&gt;Machine washable&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>[черный]</t>
-  </si>
-  <si>
-    <t>[XS S M]</t>
-  </si>
-  <si>
-    <t>черный</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/030/49/35/e267c78fceb697cbaaee5314d845bffe.jpeg]</t>
-  </si>
-  <si>
-    <t>Куртка из суперфлиса из искусственного меха - Войлок</t>
-  </si>
-  <si>
-    <t>Super Fleece Faux Fur Jacket - Felt</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/1058175-super-fleece-faux-fur-jacket-felt-champion</t>
-  </si>
-  <si>
-    <t>1058175</t>
-  </si>
-  <si>
-    <t>Champion</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;Сохраняйте классику и всегда будьте в курсе, надевая спортивную куртку из искусственного меха Champion® Super Fleece - Felt. Суперсофт из искусственного меха с добавлением флиса для стильного тепла и комфорта.&lt;/li&gt;
-&lt;li&gt;Мягкая подкладка из трикотажа и ребристая отделка из ниток на макетном воротнике, манжетах и поясе.&lt;/li&gt;
-&lt;li&gt;Передняя часть на молнии с логотипом «С».&lt;/li&gt;
+    <t>[https://usmall.ru/image/047/79/64/ad7361a3b41487208387ca18c57a1439.jpeg https://usmall.ru/image/047/79/64/5b1b895852298b4b18e872f407491791.jpeg https://usmall.ru/image/047/79/64/d7232cec0cef4e9c7d226dfa27496143.jpeg https://usmall.ru/image/047/79/64/406678088b9d694b40dce5c1f8eb28c1.jpeg https://usmall.ru/image/047/79/64/d279e95c35cad49c2526da79e6bb2d4d.jpeg]</t>
+  </si>
+  <si>
+    <t>Удлиненное пальто из искусственного меха саванны</t>
+  </si>
+  <si>
+    <t>Savannah Longline Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3288325-savannah-longline-faux-fur-coat-noize</t>
+  </si>
+  <si>
+    <t>3288325</t>
+  </si>
+  <si>
+    <t>NOIZE</t>
+  </si>
+  <si>
+    <t>Роскошное удлиненное пальто из искусственного меха создает стильный уют.&lt;ul&gt;&lt;li&gt;Лагерь воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Спереди на потайной кнопке&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 41 дюйма от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Sumptuous longline coat of faux fur keeps you stylishly cozy.&lt;ul&gt;&lt;li&gt;Camp collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Concealed snap front closure&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 41" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный желтый слоновая кость]</t>
+  </si>
+  <si>
+    <t>[M L S XL]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/328/83/25/3d878f4e4367ff774b303c61d27ccb95.jpeg https://usmall.ru/image/328/83/25/b07e6eb6309a462ed076756dbbb9ea2d.jpeg https://usmall.ru/image/328/83/25/63a9921a656ee117a0dd265fa6caaa0c.jpeg]</t>
+  </si>
+  <si>
+    <t>слоновая кость</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/328/83/25/b07e6eb6309a462ed076756dbbb9ea2d.jpeg https://usmall.ru/image/328/83/25/63a9921a656ee117a0dd265fa6caaa0c.jpeg https://usmall.ru/image/328/83/25/6a5f07a670d6a289979df72acde23e3c.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/328/83/25/b07e6eb6309a462ed076756dbbb9ea2d.jpeg https://usmall.ru/image/328/83/25/63a9921a656ee117a0dd265fa6caaa0c.jpeg https://usmall.ru/image/328/83/25/a4c10071b60fc0eba6f2e9db35dcc575.jpeg]</t>
+  </si>
+  <si>
+    <t>Женская куртка из искусственного меха, смешанная техника, Fleet Street</t>
+  </si>
+  <si>
+    <t>Women's Fleet Street Mixed Media Faux-Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3358326-womens-fleet-street-mixed-media-faux-fur-jacket-fleet-street</t>
+  </si>
+  <si>
+    <t>3358326</t>
+  </si>
+  <si>
+    <t>Fleet Street</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Вам понравится дизайн этой женской бейсбольной куртки Fleet Street с искусственным мехом и дизайном из шерпы.&lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;ОСОБЕННОСТИ ПРОДУКТА&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Смешанный дизайн с конструкциями из искусственного меха и шерпы.&lt;/li&gt; &lt;li&gt;Ветрозащитная оболочка&lt;/li&gt; &lt;li&gt;Застежка-молния&lt;/li&gt; &lt;li&gt;Длинные рукава с манжетами&lt;/li&gt; &lt;li&gt;2 кармана&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ПОДХОДИТ И РАЗМЕР&lt;/p&gt;&lt;ul&gt;&lt;li&gt;26-дюйм. приблизительная длина от центра спины до подола&lt;/li&gt; &lt;li&gt;Создан для ударов чуть ниже талии&lt;/li&gt; &lt;li&gt;Эластичный подол&lt;/li&gt; &lt;li&gt;тяжеловес&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;ТКАНИ И УХОД&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Оболочка и подкладка: полиэстер&lt;/li&gt; &lt;li&gt;Машинная стирка&lt;/li&gt; &lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; You'll love the faux-fur and sherpa design of this women's Fleet Street baseball style jacket. &lt;/p&gt;&lt;br /&gt;&lt;p&gt;&lt;/p&gt;&lt;br /&gt;&lt;p&gt;PRODUCT FEATURES&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mixed-media design with faux-fur and sherpa constructions&lt;/li&gt; &lt;li&gt;Wind resistant shell&lt;/li&gt; &lt;li&gt;Zipper closure&lt;/li&gt; &lt;li&gt;Long sleeves with thumbhole cuffs&lt;/li&gt; &lt;li&gt;2 pockets&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FIT &amp;amp; SIZING&lt;/p&gt;&lt;ul&gt;&lt;li&gt;26-in. approximate length from center back to hem&lt;/li&gt; &lt;li&gt;Designed to hit just below the waist&lt;/li&gt; &lt;li&gt;Elastic hem&lt;/li&gt; &lt;li&gt;Heavyweight&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;FABRIC &amp;amp; CARE&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Shell &amp;amp; lining: polyester&lt;/li&gt; &lt;li&gt;Machine wash&lt;/li&gt; &lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[слоновая кость зеленый]</t>
+  </si>
+  <si>
+    <t>[MEDIUM LARGE SMALL X LARGE]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/335/83/26/c9f4eacc825aa38d2321024c7b7f80a0.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg https://usmall.ru/image/000/00/00/c001e73e071cb0bed6de42fe9818a586.jpeg https://usmall.ru/image/000/00/00/f13e708497a8625f9096a2b30709ff66.jpeg https://usmall.ru/image/000/00/00/4b579c2f70119706edf65ab85358523b.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/335/83/26/4802b4193c6ded974c74a3b3650859c8.jpeg https://usmall.ru/image/000/00/00/4d2f4b76b7a4396d2ff1dd9b3420d8ea.jpeg https://usmall.ru/image/000/00/00/c001e73e071cb0bed6de42fe9818a586.jpeg https://usmall.ru/image/000/00/00/f13e708497a8625f9096a2b30709ff66.jpeg https://usmall.ru/image/000/00/00/4b579c2f70119706edf65ab85358523b.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто из искусственного меха с запахом</t>
+  </si>
+  <si>
+    <t>Faux Fur Wrap Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4533600-faux-fur-wrap-coat-ted-baker-london</t>
+  </si>
+  <si>
+    <t>4533600</t>
+  </si>
+  <si>
+    <t>Ted Baker London</t>
+  </si>
+  <si>
+    <t>Это модное пальто имеет роскошную основу из искусственного меха, дополненную поясом из искусственной кожи.&lt;ul&gt;&lt;li&gt;Шаль воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Одна пуговица спереди&lt;/li&gt;&lt;li&gt;Опущенные плечи&lt;/li&gt;&lt;li&gt;Передние накладные карманы&lt;/li&gt;&lt;li&gt;Ткань 1: Акрил/шерсть&lt;/li&gt;&lt;li&gt;Ткань 2: полиэстер&lt;/li&gt;&lt;li&gt;Ткань 3: полиэстер/эластан&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 50 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 5 футов 10 дюймов (177 см), размер 4 (США).&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>This fashion-forward coat boasts a lavish faux fur body complimented with a faux leather waist belt.&lt;ul&gt;&lt;li&gt;Shawl collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Single button front&lt;/li&gt;&lt;li&gt;Dropped shoulders&lt;/li&gt;&lt;li&gt;Front slip pockets&lt;/li&gt;&lt;li&gt;Fabric 1: Acrylic/wool&lt;/li&gt;&lt;li&gt;Fabric 2: Polyester&lt;/li&gt;&lt;li&gt;Fabric 3: Polyester/elastane&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 50" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size 4&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[2 (6)]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/453/36/00/63c9ed8072365a1803c8b4c7d3623523.jpeg https://usmall.ru/image/453/36/00/e20f41566e5bed80695881a0b28d041f.jpeg https://usmall.ru/image/453/36/00/f1745667b9e9e79f7b21951e885b3a4d.jpeg]</t>
+  </si>
+  <si>
+    <t>Асимметричное пальто из искусственного меха</t>
+  </si>
+  <si>
+    <t>Faux Fur Asymmetric Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4610038-faux-fur-asymmetric-coat-rebecca-taylor</t>
+  </si>
+  <si>
+    <t>4610038</t>
+  </si>
+  <si>
+    <t>Rebecca Taylor</t>
+  </si>
+  <si>
+    <t>Верхнее пальто из мягкого искусственного меха с асимметричной застежкой, расстегнутым воротником и разрезом на спине.&lt;ul&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Закрытие передней кнопки&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Задняя часть: 100% полиуретан.&lt;/li&gt;&lt;li&gt;Комбо 100% хлопок&lt;/li&gt;&lt;li&gt;Переплет-100% хлопок.&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 37 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: рост 6 футов 1 дюйм, бюст 37 дюймов, талия 30,5 дюйма, бедра 37 дюймов.&lt;/li&gt;&lt;li&gt;На модели американский размер 4.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Soft faux fur topper coat with asymmetric closure features a spread collar and back vent.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Front button closure&lt;/li&gt;&lt;li&gt;100% polyester&lt;/li&gt;&lt;li&gt;Back: 100% polyurethane&lt;/li&gt;&lt;li&gt;Combo 100% cotton&lt;/li&gt;&lt;li&gt;Binding-100% cotton&lt;/li&gt;&lt;li&gt;Fur tyle: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 37" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 6'1" tall, 37" bust, 30.5" waist, 37" hips&lt;/li&gt;&lt;li&gt;Model is wearing a US size 4&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/461/00/38/6ccc3cc3fac58f4105011b3f71534df0.jpeg https://usmall.ru/image/461/00/38/eedd871dac8ad11298b52c1c98fb1f96.jpeg https://usmall.ru/image/461/00/38/198d1f3b4a5cdaf1ceb66eb419af26f1.jpeg https://usmall.ru/image/461/00/38/630aac2b859592a067d1b605ee2cdae0.jpeg https://usmall.ru/image/461/00/38/33c53a39adeeae4a6b1e6b1631a0c2b2.jpeg]</t>
+  </si>
+  <si>
+    <t>Коричневая куртка из искусственного меха COLLUSION</t>
+  </si>
+  <si>
+    <t>COLLUSION faux fur jacket in brown</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4630444-collusion-faux-fur-jacket-in-brown-collusion</t>
+  </si>
+  <si>
+    <t>4630444</t>
+  </si>
+  <si>
+    <t>Collusion</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ИНФОРМАЦИЯ О ПРОДУКТЕ&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Эксклюзивно для ASOS&lt;/li&gt;&lt;li&gt;V-образный вырез&lt;/li&gt;&lt;li&gt;Однобортный стиль&lt;/li&gt;&lt;li&gt;Застежка на две пуговицы&lt;/li&gt;&lt;li&gt;Функциональные карманы.&lt;/li&gt;&lt;li&gt;Отделка из искусственного меха&lt;/li&gt;&lt;li&gt;Регулярная посадка&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;РАЗМЕР И ПОДХОДИТ&lt;/p&gt;&lt;p&gt;На модели: UK 8/EU 36/US 4 Рост модели: 168см/5'6"&lt;/p&gt;&lt;p&gt;ПРИСМОТРИТЕ ЗА МНОЙ&lt;/p&gt;&lt;p&gt;Машинная стирка в соответствии с инструкциями на этикетках по уходу&lt;/p&gt;&lt;p&gt;ОБО МНЕ&lt;/p&gt;&lt;p&gt;Гладкая искусственная кожаГлянцевая, лакированная поверхностьПокрытие: 100% полиуретан. Подкладка: 100% полиэстер. Утеплитель: 100% полиэстер. Ткань-основа: 100% вискоза. Искусственный мех: 57% модакрил, 23% полиэстер, 20% акрил.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[US 6 US 0]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/463/04/44/51d81679a6a20e64e37e3dc751d931b0.jpeg https://usmall.ru/image/463/04/44/c3b68c9baef26b1ac20386b7d3f9468e.jpeg https://usmall.ru/image/463/04/44/37b4676e4fbfe55074719c6460fc5852.jpeg https://usmall.ru/image/463/04/44/8ceee05f84e7bbf25364192c7e7b8b6d.jpeg https://usmall.ru/image/000/00/00/fea23544c9e3ff24ae0787f132a0a0c5.jpeg]</t>
+  </si>
+  <si>
+    <t>Жакет Marlene из искусственного меха</t>
+  </si>
+  <si>
+    <t>Marlene Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4705359-marlene-faux-fur-jacket-ugg</t>
+  </si>
+  <si>
+    <t>4705359</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Носите яркий стиль в куртке из искусственного меха UGG® Marlene Faux Fur Jacket и сохраняйте тепло, при этом выглядя стильно.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Свободный крой.&lt;/li&gt;
+&lt;li&gt;Воротник стойка.&lt;/li&gt;
+&lt;li&gt;Длинные рукава с эластичными манжетами.&lt;/li&gt;
+&lt;li&gt;Полная передняя застежка-молния.&lt;/li&gt;
+&lt;li&gt;Трикотажная окантовка ярких цветов вдоль центральной застежки спереди, по краю, карманам на молнии и манжетам.&lt;/li&gt;
+&lt;li&gt;Застежка-молния с металлическим покрытием и язычком из искусственной замши с рельефным тиснением UGG®.&lt;/li&gt;
+&lt;li&gt;Полукруглый подол.&lt;/li&gt;
+&lt;li&gt;Сплошной многоцветный блок-принт.&lt;/li&gt;
+&lt;li&gt;Частично облицован.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Подкладка - 100% хлопок.&lt;/li&gt;
+&lt;li&gt;Машинная стирка, сушка в стиральной машине.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;br /&gt;Длина по центру спины [Размер S]: 23 1⁄2 дюйма.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wear vibrant style donning the UGG® Marlene Faux Fur Jacket and keep yourself warm while looking stylish.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Relaxed fit.&lt;/li&gt;
+&lt;li&gt;Stand collar.&lt;/li&gt;
+&lt;li&gt;Long sleeves with elasticized cuffs.&lt;/li&gt;
+&lt;li&gt;Full front zipper closure. &lt;/li&gt;
+&lt;li&gt;Pop color knit binding along center front closure, hem, pocket zipper plackets, and cuffs.&lt;/li&gt;
+&lt;li&gt;Metal coated zipper with UGG® graphic exaggerated embossed faux suede zipper pull.&lt;/li&gt;
+&lt;li&gt;Curved hemline.&lt;/li&gt;
+&lt;li&gt;Allover multicolor block print.&lt;/li&gt;
+&lt;li&gt;Partially lined.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Lining - 100% cotton.&lt;/li&gt;
+&lt;li&gt;Machine wash, tumble dry.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;li&gt;Measurements:&lt;br /&gt;Center back length [Size S]:  23 1⁄2 in.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[LG One Size SM One Size MD One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/470/53/59/b2e41d2e8ffcee62ba096588465f78b1.jpeg https://usmall.ru/image/470/53/59/f902046cfb586ff89d232f0e63430e73.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка из искусственного меха</t>
+  </si>
+  <si>
+    <t>Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4776336-faux-fur-jacket-apparis</t>
+  </si>
+  <si>
+    <t>4776336</t>
+  </si>
+  <si>
+    <t>APPARIS</t>
+  </si>
+  <si>
+    <t>Эта роскошная куртка из мягкого искусственного меха добавит текстурности и игривости вашему образу.&lt;ul&gt;&lt;li&gt;Широкий воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Кнопка спереди&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Подкладка из полиэстера&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 23 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Add texture and playfulness to your look with this luxuriously soft faux fur jacket.&lt;ul&gt;&lt;li&gt;Wide spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Button front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Polyester lining&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 23" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[разноцветный зеленый черный]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/63/36/b2dd3617d1966d1eee33b6c7cc48f733.jpeg https://usmall.ru/image/477/63/36/8c52846c30cf25d2383eafd8f6fb983e.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/63/36/23db557bac4c6ce657cff4cecbe6bbeb.jpeg https://usmall.ru/image/477/63/36/b2dd3617d1966d1eee33b6c7cc48f733.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/63/36/b2dd3617d1966d1eee33b6c7cc48f733.jpeg https://usmall.ru/image/477/63/36/03b91ec6cd0ab8b63e1cc1e4d38b2f92.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка Miss Tiffy из искусственного меха</t>
+  </si>
+  <si>
+    <t>Miss Tiffy Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4778977-miss-tiffy-faux-fur-jacket-show-me-your-mumu</t>
+  </si>
+  <si>
+    <t>4778977</t>
+  </si>
+  <si>
+    <t>Show Me Your Mumu</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Привлеките внимание своей великолепной, яркой и стильной курткой из искусственного меха Show Me Your Mumu™ Miss Tiffy.&lt;/li&gt;
+&lt;li&gt;Однобортный воротник.&lt;/li&gt;
+&lt;li&gt;Открытое закрытие.&lt;/li&gt;
 &lt;li&gt;Длинный рукав.&lt;/li&gt;
-&lt;li&gt;Боковые карманы.&lt;/li&gt;
+&lt;li&gt;Повсюду красочный абстрактный дизайн в полоску.&lt;/li&gt;
 &lt;li&gt;Модель прямого силуэта.&lt;/li&gt;
-&lt;li&gt;Корпус: 100% полиэстер;&lt;br /&gt;Подкладка: 60% хлопок, 40% полиэстер;&lt;br /&gt;Ребро: 97% полиэстер, 3% хлопок.&lt;/li&gt;
-&lt;li&gt;Машинная стирка, сушка в стиральной машине.&lt;/li&gt;
+&lt;li&gt;75% полиэстер 25% хлопок.&lt;/li&gt;
+&lt;li&gt;Машинная стирка отдельно в холодной воде, стирка наизнанку, не отбеливать, сушить в стиральной машине при низкой температуре, при необходимости теплым утюгом.&lt;/li&gt;
 &lt;li&gt;Импортные.&lt;/li&gt;
-&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина: 24 дюйма&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Turn heads in the gorgeous, colorful, and stylish Show Me Your Mumu™ Miss Tiffy Faux Fur Jacket.&lt;/li&gt;
+&lt;li&gt;Single breasted collar.&lt;/li&gt;
+&lt;li&gt;Open closure.&lt;/li&gt;
+&lt;li&gt;Long sleeves.&lt;/li&gt;
+&lt;li&gt;All over colorful abstract stripe inspired design.&lt;/li&gt;
+&lt;li&gt;Straight hemline.&lt;/li&gt;
+&lt;li&gt;75% polyester 25% cotton.&lt;/li&gt;
+&lt;li&gt;Machine wash separately in cold water, wash inside out, do not bleach, tumble dry low, warm iron if needed.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[MD One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/89/77/77dae8251bc631053a6010eb7fc56a0c.jpeg https://usmall.ru/image/477/89/77/d72b87cfffa2bae1b81b0f980ee8a30f.jpeg]</t>
+  </si>
+  <si>
+    <t>Шуба Liliam из искусственного меха</t>
+  </si>
+  <si>
+    <t>Liliam Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4827591-liliam-faux-fur-coat-ted-baker</t>
+  </si>
+  <si>
+    <t>4827591</t>
+  </si>
+  <si>
+    <t>Ted Baker</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Проведите этот холодный сезон стильно и стильно в шубе из искусственного меха Ted Baker™ Liliam.&lt;/li&gt;
+&lt;li&gt;Объемный круглый воротник.&lt;/li&gt;
+&lt;li&gt;Потайная застежка спереди.&lt;/li&gt;
+&lt;li&gt;Дизайн с длинным рукавом.&lt;/li&gt;
+&lt;li&gt;Передние карманы.&lt;/li&gt;
+&lt;li&gt;Удары по бедрам.&lt;/li&gt;
+&lt;li&gt;Оболочка: 100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Подкладка основной части: 94% полиэстер, 6% эластан.&lt;/li&gt;
+&lt;li&gt;Подкладка рукавов: 96% полиэстер, 4% эластан.&lt;/li&gt;
+&lt;li&gt;Возможна химчистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина: 26 дюймов&lt;/li&gt;
+    &lt;li&gt;Длина рукава: 34 дюйма&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Измерения продукта были проведены с использованием размера 1 (США 4). Заметьте, пожалуйста, что измерения могут быть разной величины.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Step out in chic style this cold-weather season in the Ted Baker™ Liliam Faux Fur Coat.&lt;/li&gt;
+&lt;li&gt;Oversized round collar.&lt;/li&gt;
+&lt;li&gt;Concealed front snap-closure.&lt;/li&gt;
+&lt;li&gt;Long sleeve design.&lt;/li&gt;
+&lt;li&gt;Front hand pockets.&lt;/li&gt;
+&lt;li&gt;Hits at hips.&lt;/li&gt;
+&lt;li&gt;Shell: 100% polyester.&lt;/li&gt;
+&lt;li&gt;Body lining: 94% polyester, 6% elastane.&lt;/li&gt;
+&lt;li&gt;Sleeve lining: 96% polyester, 4% elastane.&lt;/li&gt;
+&lt;li&gt;Dry clean.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;li&gt;Measurements:
+&lt;ul&gt;&lt;li&gt; Length: 27 in&lt;/li&gt;
+    &lt;li&gt; Sleeve Length: 29 in&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Product measurements were taken using size 1 (US 4). Please note that measurements may vary by size.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[Пурпурный]</t>
+  </si>
+  <si>
+    <t>[5 (US 12) One Size 4 (US 10) One Size 3 (US 8) One Size 2 (US 6) One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/482/75/91/b0745e14e9d94038ae6eaeef45557c7b.jpeg https://usmall.ru/image/482/75/91/f888fb1313187cef31d367c51fb32222.jpeg https://usmall.ru/image/482/75/91/0b4dd7fb698c0b15052d7e81c76a1a60.jpeg https://usmall.ru/image/482/75/91/892dc525a4a8165027a970d04a60797d.jpeg]</t>
+  </si>
+  <si>
+    <t>Шуба из искусственного меха Avaline</t>
+  </si>
+  <si>
+    <t>Avaline Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4842722-avaline-faux-fur-coat-ugg</t>
+  </si>
+  <si>
+    <t>4842722</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Почувствуйте теплое прикосновение, надевая шубу из искусственного меха UGG® Avaline.&lt;/li&gt;
+&lt;li&gt;Свободный крой.&lt;/li&gt;
+&lt;li&gt;Расстегнутый воротник блейзера.&lt;/li&gt;
+&lt;li&gt;Длинный рукав.&lt;/li&gt;
+&lt;li&gt;Центральная передняя потайная кнопка.&lt;/li&gt;
+&lt;li&gt;Самостоятельные накладные карманы.&lt;/li&gt;
+&lt;li&gt;Полноразмерная шуба из искусственного меха.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Оболочка: 100% полиэстер;&lt;br /&gt;Подкладка: 100% полиэстер;&lt;br /&gt;Подкладка кармана для согревания рук из мягкого флиса.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Только сухая чистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;br /&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Feel the pampered warm touch by wearing UGG® Avaline Faux Fur Coat.&lt;/li&gt;
+&lt;li&gt;Relaxed fit.&lt;/li&gt;
+&lt;li&gt;Spread blazer collar.&lt;/li&gt;
+&lt;li&gt;Long sleeves.&lt;/li&gt;
+&lt;li&gt;Center front hidden snap closure.&lt;/li&gt;
+&lt;li&gt;Self patch pockets.&lt;/li&gt;
+&lt;li&gt;Full length faux fur coat.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Shell: 100% polyester;&lt;br /&gt;Lining: 100% polyester;&lt;br /&gt;Soft fleece hand warmer pocket lining.&lt;br /&gt;&lt;/li&gt;
+&lt;li&gt;Dry clean only.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;br /&gt;&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[LG One Size MD One Size SM One Size XL One Size XS One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/484/27/22/83545a4f241a3b72401ffe3e49ab5e41.jpeg https://usmall.ru/image/484/27/22/6ec13eaae2aa9e8b95ed78ee1d622e22.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка из искусственного меха кролика</t>
+  </si>
+  <si>
+    <t>Bunny Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4843480-bunny-faux-fur-jacket-nvlt</t>
+  </si>
+  <si>
+    <t>4843480</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Оставайтесь стильными в комфорте и тепле в течение всего дня с курткой из искусственного меха NVLT Bunny.&lt;/li&gt;
+&lt;li&gt;Шаль воротник.&lt;/li&gt;
+&lt;li&gt;Длинный рукав.&lt;/li&gt;
+&lt;li&gt;Центральная передняя кнопка закрытия.&lt;/li&gt;
+&lt;li&gt;По всему дизайну звезд.&lt;/li&gt;
+&lt;li&gt;Модель прямого силуэта.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Возможна химчистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина: 27 дюймов&lt;/li&gt;
+    &lt;li&gt;Длина рукава: 36 дюймов&lt;/li&gt;
     &lt;/ul&gt;&lt;/li&gt;
 &lt;li&gt;Данные замеры приведены для размеров SM. Обратите внимание, данные величины отличаются на другие размеры модели.&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Keep it classic and always on point when you layer up sporting the heritage-inspired Champion® Super Fleece Faux Fur Jacket - Felt. Supersoft faux-fur fabrication with fleece piecing for stylish warmth and comfort.&lt;/li&gt;
-&lt;li&gt;Soft jersey-knit lining and yarn-dyed ribbed trim at the mock collar, cuffs, and waistband.&lt;/li&gt;
-&lt;li&gt;Zippered front with 'C' logo pull.&lt;/li&gt;
+    <t>&lt;ul&gt;&lt;li&gt;Stay stylish in all day comfort and warmth with the NVLT Bunny Faux Fur Jacket.&lt;/li&gt;
+&lt;li&gt;Shawl collar.&lt;/li&gt;
 &lt;li&gt;Long sleeves.&lt;/li&gt;
-&lt;li&gt;Side hand pockets.&lt;/li&gt;
+&lt;li&gt;Center front button closure.&lt;/li&gt;
+&lt;li&gt;All over stars pattern design.&lt;/li&gt;
 &lt;li&gt;Straight hemline.&lt;/li&gt;
-&lt;li&gt;Body: 100% polyester;&lt;br /&gt;Lining: 60% cotton, 40% polyester;&lt;br /&gt;Rib: 97% polyester, 3% cotton.&lt;/li&gt;
-&lt;li&gt;Machine wash, tumble dry.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Dry clean.&lt;/li&gt;
 &lt;li&gt;Imported.&lt;/li&gt;
 &lt;li&gt;Measurements:
-&lt;ul&gt;&lt;li&gt; Length: 24 in&lt;/li&gt;
+&lt;ul&gt;&lt;li&gt; Length: 27 in&lt;/li&gt;
+    &lt;li&gt; Sleeve Length: 36 in&lt;/li&gt;
     &lt;/ul&gt;&lt;/li&gt;
 &lt;li&gt;Product measurements were taken using size SM. Please note that measurements may vary by size.&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
   <si>
-    <t>[черный розовый]</t>
-  </si>
-  <si>
-    <t>[XS One Size MD One Size]</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/105/81/75/841cde652c4b062b22bc11eed1abe434.jpeg https://usmall.ru/image/105/81/75/ef43125b6466cb4a1099a2769c6e1109.jpeg]</t>
-  </si>
-  <si>
-    <t>розовый</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/105/81/75/8fa7bccb47ab0cbc1138e450f3e0026c.jpeg https://usmall.ru/image/105/81/75/c8dfb25daed9afca4f98b01cd14ea09c.jpeg]</t>
-  </si>
-  <si>
-    <t>Пальто из искусственного меха с капюшоном для юниоров, созданное для Macy's</t>
-  </si>
-  <si>
-    <t>Juniors' Hooded Faux-Fur Coat, Created for Macy's</t>
-  </si>
-  <si>
-    <t>https://usmall.ru/product/3025761-juniors-hooded-faux-fur-coat-created-for-macys-jou-jou</t>
-  </si>
-  <si>
-    <t>3025761</t>
-  </si>
-  <si>
-    <t>Jou Jou</t>
-  </si>
-  <si>
-    <t>Джоу Джоу выводит любой образ на новый уровень с этой шубой из искусственного меха с симпатичным капюшоном и двумя боковыми карманами.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Прибл. 23-1 / 2 "длиной от центра спины до подола&lt;/li&gt;&lt;li&gt;Прикрепленный капюшон; передняя молния&lt;/li&gt;&lt;li&gt;Два боковых кармана&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;-&lt;/li&gt;&lt;li&gt;Раковина, подкладка: полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в стиральной машинке&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Jou Jou takes any outfit to the next level with this faux-fur coat designed with a cute hood and two side pockets.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Approx. 23-1/2" long from center back to hem&lt;/li&gt;&lt;li&gt;Attached hood; front zipper closure&lt;/li&gt;&lt;li&gt;Two side pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Created for Macy's&lt;/li&gt;&lt;li&gt;Shell, lining: polyester&lt;/li&gt;&lt;li&gt;Machine washable&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>[разноцветный]</t>
-  </si>
-  <si>
-    <t>[XL XXL]</t>
-  </si>
-  <si>
-    <t>разноцветный</t>
-  </si>
-  <si>
-    <t>[https://usmall.ru/image/302/57/61/16108373aa616378b9c2078cafdb1317.jpeg https://usmall.ru/image/302/57/61/d22b5ad35b6fbf4075107cb79b9c21fb.jpeg https://usmall.ru/image/302/57/61/649603d75f0a7ae444db43c84e580ec2.jpeg https://usmall.ru/image/302/57/61/c6686b24818c01bd57f4cc8989685e72.jpeg https://usmall.ru/image/302/57/61/eda5b254c47ec65cc590a32ccb168c68.jpeg https://usmall.ru/image/302/57/61/44acac05efcf11050c3a2bad64564908.jpeg https://usmall.ru/image/302/57/61/69c7c7823334654aa70db01345c66a4c.jpeg https://usmall.ru/image/302/57/61/69e3edbeeb9d9c5e97016c52350e7388.jpeg]</t>
+    <t>[синий Пурпурный]</t>
+  </si>
+  <si>
+    <t>[SM One Size MD One Size LG One Size XL One Size XS One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/483/93/47/898f75f254b8bad47875049d5ab7200c.jpeg https://usmall.ru/image/483/93/47/fbda5c91642e35ea134e570c1922df81.jpeg https://usmall.ru/image/483/93/47/d5c8ce68ea89f29e0d56e4d214f3835c.jpeg https://usmall.ru/image/483/93/47/0dc51067ca6615cab5874d2f4cf5ded3.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/483/93/47/cfea04e26a19387a5a5b07f81b0c5ce4.jpeg https://usmall.ru/image/483/93/47/6bdc7201c00b593749b99b27ee7cf542.jpeg https://usmall.ru/image/483/93/47/950f01bdb9f33a33ffcb0e2f0f82c8d3.jpeg https://usmall.ru/image/483/93/47/b98f0bd613a24fa945a4b7b0bc6dcf0d.jpeg]</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4843573-ladies-bunny-faux-fur-coat-nvlt</t>
+  </si>
+  <si>
+    <t>4843573</t>
+  </si>
+  <si>
+    <t>[XS One Size SM One Size MD One Size LG One Size XL One Size]</t>
+  </si>
+  <si>
+    <t>Стеганая куртка из искусственного меха</t>
+  </si>
+  <si>
+    <t>Quilted Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4875108-quilted-faux-fur-jacket-calvin-klein</t>
+  </si>
+  <si>
+    <t>4875108</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Остроконечный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Кнопки спереди&lt;/li&gt;&lt;li&gt;Два боковых кармана с клапанами на пуговицах&lt;/li&gt;&lt;li&gt;Полиэстер и нейлон&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Машинная стирка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 30 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Point collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Snap button front&lt;/li&gt;&lt;li&gt;Two side button flap pockets&lt;/li&gt;&lt;li&gt;Polyester &amp;amp; nylon&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 30" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5’10” (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/487/51/08/7994f3076ad4e2c16b1afab7a291d671.jpeg https://usmall.ru/image/487/51/08/1bf7abc7185d197aee616bb0190b8cab.jpeg https://usmall.ru/image/487/51/08/54e3e0123761649743871c0fadf6e4ae.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/487/51/08/1bf7abc7185d197aee616bb0190b8cab.jpeg https://usmall.ru/image/487/51/08/54e3e0123761649743871c0fadf6e4ae.jpeg https://usmall.ru/image/487/51/08/aacbfb5122c9a06000490e801e8f5fd2.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто из искусственного меха с отделкой из искусственной кожи</t>
+  </si>
+  <si>
+    <t>Faux Leather Trim Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4929120-faux-leather-trim-faux-fur-coat-karl-lagerfeld-paris</t>
+  </si>
+  <si>
+    <t>4929120</t>
+  </si>
+  <si>
+    <t>Комфортное пальто из плюшевого искусственного меха. Многоуровневый дизайн со вставкой из искусственной кожи придает стиль этому пальто.&lt;ul&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Кнопка спереди&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Полиуретановая отделка&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 33 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Comfy coat in a plush faux fur finish. The tiered design with faux leather insert adds style to this coat.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Snap-button front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyurethane trim&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 33" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный Пурпурный]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/492/91/20/79072ea9c89cc777c237a65fec2f7506.jpeg https://usmall.ru/image/492/91/20/4825c38f5499d1fe84cdfd8f378d4e92.jpeg https://usmall.ru/image/492/91/20/fc975352d1e6363180fddc16a8eed1fd.jpeg https://usmall.ru/image/492/91/20/cd81b3e85465abd3dddb85a7ded09ce3.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/492/91/20/e8c07d401cf521c31966794e910ada1e.jpeg https://usmall.ru/image/492/91/20/79072ea9c89cc777c237a65fec2f7506.jpeg https://usmall.ru/image/492/91/20/4825c38f5499d1fe84cdfd8f378d4e92.jpeg https://usmall.ru/image/492/91/20/fc975352d1e6363180fddc16a8eed1fd.jpeg]</t>
+  </si>
+  <si>
+    <t>Коричневая куртка из искусственного меха с укороченным воротником ASOS DESIGN Petite</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN Petite crop collared faux fur jacket in brown</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4981781-asos-design-petite-crop-collared-faux-fur-jacket-in-brown-asos-petite</t>
+  </si>
+  <si>
+    <t>4981781</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Jacket upgrade: check&lt;/li&gt;&lt;li&gt;Shawl collar&lt;/li&gt;&lt;li&gt;Secure closure&lt;/li&gt;&lt;li&gt;Cropped length&lt;/li&gt;&lt;li&gt;Boxy fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: UK 6/ EU 34/ US 2Model's height: 160cm/5'3"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricLining: 100% Polyester, Main: 44% Modacrylic, 37% Polyester, 19% Acrylic.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[US 0 US 2 US 00]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/498/17/81/1cd0558281c68e7f55a58b56179ff965.jpeg https://usmall.ru/image/498/17/81/e6029b806cbbfc5bb95df9855c9091f7.jpeg https://usmall.ru/image/498/17/81/cff100ef601a11c119e595a97be64ffd.jpeg https://usmall.ru/image/498/17/81/1465341123786db3d68e81e1c62cf358.jpeg https://usmall.ru/image/000/00/00/5ab5eabc030a184b1a89aab87d96536f.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто средней длины из искусственного меха Daisy Street Plus с волнистым принтом в шахматную клетку</t>
+  </si>
+  <si>
+    <t>Daisy Street Plus mid length faux fur coat in wavy checkerboard print</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4991489-daisy-street-plus-mid-length-faux-fur-coat-in-wavy-checkerboard-print-daisy-street-plus</t>
+  </si>
+  <si>
+    <t>4991489</t>
+  </si>
+  <si>
+    <t>Daisy Street Plus</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ИНФОРМАЦИЯ О ПРОДУКТЕ&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Энергия главного героя&lt;/li&gt;&lt;li&gt;Сплошной принт в шахматном порядке&lt;/li&gt;&lt;li&gt;Нотч лацканы&lt;/li&gt;&lt;li&gt;Планка с кнопками&lt;/li&gt;&lt;li&gt;Функциональные карманы.&lt;/li&gt;&lt;li&gt;Регулярная посадка&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;РАЗМЕР И ПОДХОДИТ&lt;/p&gt;&lt;p&gt;На модели: UK 18/EU 46/US 14 Рост модели: 166 см/5 футов 5,5 дюймов&lt;/p&gt;&lt;p&gt;ПРИСМОТРИТЕ ЗА МНОЙ&lt;/p&gt;&lt;p&gt;Машинная стирка в соответствии с инструкциями на этикетках по уходу&lt;/p&gt;&lt;p&gt;ОБО МНЕ&lt;/p&gt;&lt;p&gt;Сверхмягкий искусственный мехШелковистая атласная подкладкаВнешняя часть куртки: 100% полиэстер.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[зеленый]</t>
+  </si>
+  <si>
+    <t>[US 20 Plus]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/499/14/89/94b2c14456ce82083be236dc798090b8.jpeg https://usmall.ru/image/499/14/89/1f6b9e1e8c719a48700aacf0b42ead5d.jpeg https://usmall.ru/image/499/14/89/72f0bbede590f3500081f0b4952efde8.jpeg https://usmall.ru/image/499/14/89/2bcb116f07387a127d91cae05e9539a7.jpeg https://usmall.ru/image/000/00/00/9cbf28867e499a2e95c11c2e27ae84ed.jpeg]</t>
+  </si>
+  <si>
+    <t>Черная удлиненная шуба из искусственного меха Jayley</t>
+  </si>
+  <si>
+    <t>Jayley longer length faux fur coat in black</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4996816-jayley-longer-length-faux-fur-coat-in-black-jayley</t>
+  </si>
+  <si>
+    <t>4996816</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;That new-coat feeling&lt;/li&gt;&lt;li&gt;Notch collar&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Side pockets&lt;/li&gt;&lt;li&gt;Relaxed fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: One SizeModel's height: 170cm/5'7"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Dry clean only
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricLining: 100% Viscose, Main: 85% Modacrylic, 15% Acrylic.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/499/68/16/53601b0bf5a4e20199d228cbaeff8266.jpeg https://usmall.ru/image/499/68/16/3a3cad580a6e0c12014123936443e013.jpeg https://usmall.ru/image/499/68/16/17cf40ec6a695870c754de29726b0b6c.jpeg https://usmall.ru/image/499/68/16/9470d556ee5d32ba31400ee842748258.jpeg https://usmall.ru/image/000/00/00/51629230938109139eb251dfce7fdb9c.jpeg]</t>
+  </si>
+  <si>
+    <t>Синяя удлиненная шуба из искусственного меха Jayley</t>
+  </si>
+  <si>
+    <t>Jayley longer length faux fur coat in blue</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4998562-jayley-longer-length-faux-fur-coat-in-blue-jayley</t>
+  </si>
+  <si>
+    <t>4998562</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Throw-on appeal&lt;/li&gt;&lt;li&gt;Notch collar&lt;/li&gt;&lt;li&gt;Drop shoulders&lt;/li&gt;&lt;li&gt;Open front&lt;/li&gt;&lt;li&gt;Longline cut&lt;/li&gt;&lt;li&gt;Relaxed fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: one size Model's height: 170cm/5'7"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Dry clean only
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Faux fur: super-soft synthetic fabricLining: 100% Viscose, Main: 85% Modacrylic, 15% Acrylic.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/499/85/62/952c381aaf018d23168d2fdcf3cd47e3.jpeg https://usmall.ru/image/499/85/62/31ce35668db6e368e0896af06436ced4.jpeg https://usmall.ru/image/499/85/62/f1d8b1f2ac78a6eafb4733306b392626.jpeg https://usmall.ru/image/499/85/62/87e8a17568b4cf33759317a62aaa81ea.jpeg https://usmall.ru/image/000/00/00/2d03056465e47dbc38e467383de10560.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка из искусственного меха в ломаную клетку</t>
+  </si>
+  <si>
+    <t>Houndstooth Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5020636-houndstooth-faux-fur-jacket-karl-lagerfeld-paris</t>
+  </si>
+  <si>
+    <t>5020636</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Круглый вырез&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Молнии спереди&lt;/li&gt;&lt;li&gt;Два накладных кармана на талии&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Искусственный мех из полиэстера&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 19 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Designed for style and comfort, this faux fur jacket has a houndstooth pattern with a zip front.&lt;ul&gt;&lt;li&gt;Roundneck&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Zip front&lt;/li&gt;&lt;li&gt;Two waist slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Faux fur polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 19" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/502/06/36/82130641a86435c9104324079a16636f.jpeg https://usmall.ru/image/502/06/36/22612387c2196136fee384f902bcbce0.jpeg https://usmall.ru/image/502/06/36/175de1aa9282c7c2e3eccaf154b12960.jpeg]</t>
+  </si>
+  <si>
+    <t>Светло-серое пальто из искусственного меха &amp; Other Stories</t>
+  </si>
+  <si>
+    <t>&amp; Other Stories faux fur coat in light gray</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5101816-other-stories-faux-fur-coat-in-light-gray-other-stories</t>
+  </si>
+  <si>
+    <t>5101816</t>
+  </si>
+  <si>
+    <t>&amp; OTHER STORIES</t>
+  </si>
+  <si>
+    <t>[серый]</t>
+  </si>
+  <si>
+    <t>[XS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/510/18/16/9c14f509200bc76b89184ef54069b505.jpeg https://usmall.ru/image/510/18/16/c902eabbf0ed22d706946c98cfa9b8b9.jpeg https://usmall.ru/image/510/18/16/bd432cae4843a61787359a9fe74cae11.jpeg https://usmall.ru/image/510/18/16/e3097c3c0edb71d0c71957825bd2aeac.jpeg https://usmall.ru/image/000/00/00/8da265be2c21ac3c4ddec6d1312dc15d.jpeg]</t>
+  </si>
+  <si>
+    <t>Женское пальто со съемным воротником из искусственного меха</t>
+  </si>
+  <si>
+    <t>Women's Detachable Faux Fur Collar Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5119248-womens-detachable-faux-fur-collar-coat-mango</t>
+  </si>
+  <si>
+    <t>5119248</t>
+  </si>
+  <si>
+    <t>Это пальто со съемным меховым воротником от MANGO изготовлено из переработанной смешанной шерстяной ткани. Длинное, прямое и структурированное, с длинными рукавами, кружевной застежкой, петлями и внутренней подкладкой.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Воротник с лацканами Воротник с треугольным вырезом, лацкан с вырезом, застежка на шнурок&lt;/li&gt;&lt;li&gt;Съемная шея из искусственного меха.&lt;/li&gt;&lt;li&gt;Ткань из смеси переработанной шерсти&lt;/li&gt;&lt;li&gt;Верх и пояс — полиэстер, переработанная шерсть, переработанный полиэстер, шерсть, акрил, подкладка, окантовка, подкладка капюшона и искусственный мех — полиэстер&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>This detachable fur collar coat from MANGO is crafted from recycled wool mix fabric and features long, straight, and structured design, long sleeve, lace fastening, loops, and inner lining.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Lapel-collar V-neck collar, lapel with notch, lace fastening&lt;/li&gt;&lt;li&gt;Faux fur removable neck&lt;/li&gt;&lt;li&gt;Recycled wool mix fabric&lt;/li&gt;&lt;li&gt;Shell and Belt- Polyester, Recycled Wool, Recycled Polyester, Wool, Acrylic, Lining, Piping, Hood Lining and Faux Fur- Polyester&lt;/li&gt;&lt;li&gt;Dry Clean&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[XXS XL XS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/511/92/48/ac2ae728522090ca836b00d19aee36e2.jpeg https://usmall.ru/image/511/92/48/0cbd54e00c744e8a588b40208f4f53a4.jpeg https://usmall.ru/image/511/92/48/af2e5880b944c9d8045e7a9dc29bc6a1.jpeg https://usmall.ru/image/511/92/48/1b0818ba9a40e054edbfe30924a0d249.jpeg https://usmall.ru/image/511/92/48/f1c77b1d8b329137820110414c0e6c2b.jpeg https://usmall.ru/image/511/92/48/e1e9fb0fd310fee5c0441e82518dc362.jpeg https://usmall.ru/image/511/92/48/b18984c8fbe449dd2cde1974d661f788.jpeg]</t>
+  </si>
+  <si>
+    <t>Серое пальто из искусственного меха с манжетами ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN cuff detail faux fur coat in gray</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5264055-asos-design-cuff-detail-faux-fur-coat-in-gray-asos-design</t>
+  </si>
+  <si>
+    <t>5264055</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/526/40/55/196824c1eeca6672aeb26d359bb7067a.jpeg https://usmall.ru/image/526/40/55/24c6417badc4d9781ac0e2cf169c2617.jpeg https://usmall.ru/image/526/40/55/cce8cdff55629b8121dedcacd17db9f9.jpeg https://usmall.ru/image/526/40/55/f473a0eb0710b8cb1f4a66a75576af9b.jpeg https://usmall.ru/image/000/00/00/7574241c67414fe15b2ff6a5647dfc90.jpeg]</t>
+  </si>
+  <si>
+    <t>Кожаная куртка Celine из искусственного меха</t>
+  </si>
+  <si>
+    <t>Celine Leather Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/1941172-celine-leather-faux-fur-jacket-walter-baker</t>
+  </si>
+  <si>
+    <t>1941172</t>
+  </si>
+  <si>
+    <t>Walter Baker</t>
+  </si>
+  <si>
+    <t>Из осенней коллекции. Кожаная куртка с поясом внизу и оторочкой из искусственного меха.&lt;ul&gt;&lt;li&gt;Нотч лацканы&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Открытая молния спереди&lt;/li&gt;&lt;li&gt;Манжеты с поясом&lt;/li&gt;&lt;li&gt;Передние асимметричные карманы на молнии&lt;/li&gt;&lt;li&gt;Кожа&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;РАЗМЕР И ПОДХОДИТ&lt;ul&gt;&lt;li&gt;Около 29 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (5 футов 10 дюймов), на ней размер Small (США).&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>From the Fall Collection. Leather jacket with belt detail at the bottom and faux fur shearling trim.&lt;ul&gt;&lt;li&gt;Notch lapels&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Exposed front zip&lt;/li&gt;&lt;li&gt;Belted cuffs&lt;/li&gt;&lt;li&gt;Front asymmetrical zip pockets&lt;/li&gt;&lt;li&gt;Leather&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;br /&gt;SIZE &amp;amp; FIT&lt;ul&gt;&lt;li&gt;About 29" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) and wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[L S XS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/194/11/72/68a944555cdbb13960126daf29e225bc.jpeg https://usmall.ru/image/194/11/72/568d3c8a3d49e5a0fa4628d64f5be178.jpeg https://usmall.ru/image/194/11/72/3db87591c4bf30daad33d6a196de0f31.jpeg https://usmall.ru/image/194/11/72/d81740f8f44bc5c1530f83348d0f6510.jpeg]</t>
   </si>
   <si>
     <t>Жакет Gio из искусственного меха</t>
@@ -308,6 +1512,628 @@
   </si>
   <si>
     <t>[https://usmall.ru/image/208/03/35/1390822d4e0b6b5640d2557c4728ea8e.jpeg https://usmall.ru/image/208/03/35/a26b85003cc9b266ae9333802101b436.jpeg https://usmall.ru/image/208/03/35/cb8b77bb84ce2c5cd1b2e0589c22280e.jpeg https://usmall.ru/image/208/03/35/c23075c79c750f136426a5fda94efcb7.jpeg https://usmall.ru/image/208/03/35/b333c65412f9857d366e9a0d89e048b3.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто Myra с капюшоном из искусственного меха</t>
+  </si>
+  <si>
+    <t>Myra Hooded Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3100137-myra-hooded-faux-fur-coat-apparis</t>
+  </si>
+  <si>
+    <t>3100137</t>
+  </si>
+  <si>
+    <t>Ультрамягкий искусственный мех и уютный пышный силуэт определяют это пальто с капюшоном.&lt;ul&gt;&lt;li&gt;Прикрепленный капюшон&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Передние застежки на крючки&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 35 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: 5 футов 10 дюймов в высоту.&lt;/li&gt;&lt;li&gt;На модели маленький размер США.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Ultra-soft faux fur and a cozy, generous silhouette define this hooded coat.&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Front hook-and-eye closures&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 35 from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 5'10" tall&lt;/li&gt;&lt;li&gt;Model is wearing a US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[слоновая кость]</t>
+  </si>
+  <si>
+    <t>[Medium]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/310/01/37/814f8a3f5bf82149c503e4536cad4d22.jpeg https://usmall.ru/image/310/01/37/290ef867f163f43d317b6a96e16c2e44.jpeg https://usmall.ru/image/310/01/37/baa5e35178dd8f36555b7dd2151e6a78.jpeg https://usmall.ru/image/310/01/37/1652cc0b1fd079fed3c82ee6e596da7b.jpeg https://usmall.ru/image/310/01/37/e51647e50ea2216a52febb07cf2dd46d.jpeg https://usmall.ru/image/310/01/37/2a81378c16fb697e513ade75afb2991f.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка Kianna из искусственного меха</t>
+  </si>
+  <si>
+    <t>Kianna Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3133749-kianna-faux-fur-jacket-ugg</t>
+  </si>
+  <si>
+    <t>3133749</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Подчеркните свой образ в прохладную погоду с помощью роскошной куртки из искусственного меха UGG® Kianna.&lt;/li&gt;
+&lt;li&gt;Дизайн средней длины с полной застежкой-молнией и широким воротником.&lt;/li&gt;
+&lt;li&gt;Вместительные карманы для утепления рук с флисовой подкладкой.&lt;/li&gt;
+&lt;li&gt;Эластичные манжеты и подколенная область.&lt;/li&gt;
+&lt;li&gt;100% полиэстер;&lt;br /&gt;Подкладка: 98% полиэстер, 2% эластан.&lt;/li&gt;
+&lt;li&gt;Возможна химчистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Enhance your cool-weather looks with the luxurious style of the UGG® Kianna Faux Fur Jacket.&lt;/li&gt;
+&lt;li&gt;Mid-length design with full zippered closure and spread collar.&lt;/li&gt;
+&lt;li&gt;Roomy, fleece-lined hand warmer pockets.&lt;/li&gt;
+&lt;li&gt;Elasticized cuffs and hamline.&lt;/li&gt;
+&lt;li&gt;100% polyester;&lt;br /&gt;Lining: 98% polyester, 2% elastane.&lt;/li&gt;
+&lt;li&gt;Dry clean.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный Светло-бежевый серый]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/313/37/49/0722ff3eef119cb6d5ae32e66dddd5ca.jpeg https://usmall.ru/image/313/37/49/9e76f97d9066aae125d838c4a0222473.jpeg https://usmall.ru/image/313/37/49/c0ff9eb8bfc3bd0c4958d7c004c52bfc.jpeg https://usmall.ru/image/313/37/49/e18fb84b9394712f0fd349710cf38f03.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/313/37/49/f247d889ffbae960f3fa9f720f0cc9c0.jpeg https://usmall.ru/image/313/37/49/243f51c0affb0a2ed81e7ff82fa34c01.jpeg https://usmall.ru/image/313/37/49/d07d1b83697adbc1489d46db63e59bb3.jpeg https://usmall.ru/image/313/37/49/e5e242717ee073a6bbf6aec96c46628c.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/313/37/49/29205f07b8ba7ab641731b9ed7a8ca2e.jpeg https://usmall.ru/image/313/37/49/dfc628b468ceec345f58005f5085c7fa.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто с капюшоном из искусственного меха</t>
+  </si>
+  <si>
+    <t>Faux Fur Hooded Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3205736-faux-fur-hooded-coat-nvlt</t>
+  </si>
+  <si>
+    <t>3205736</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Прохладная погода зовет, и вы готовы к ней в пальто с капюшоном из искусственного меха Thread Collective.&lt;/li&gt;
+&lt;li&gt;Пришитый капюшон с застежкой на две пуговицы спереди.&lt;/li&gt;
+&lt;li&gt;Длинный рукав.&lt;/li&gt;
+&lt;li&gt;Два боковых кармана.&lt;/li&gt;
+&lt;li&gt;Животный принт по всему телу.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Возможна химчистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;li&gt;Размеры:&lt;ul&gt;&lt;li&gt;Длина: 30 дюймов&lt;/li&gt;
+    &lt;li&gt;Длина рукава: 30 дюймов&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Данные замеры приведены для размеров SM. Обратите внимание, данные величины отличаются на другие размеры модели.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Cool weather is calling and you're ready for it in the Thread Collective Faux Fur Hooded Coat. &lt;/li&gt;
+&lt;li&gt;Attached hood with two-button front closure.&lt;/li&gt;
+&lt;li&gt;Long sleeve construction.&lt;/li&gt;
+&lt;li&gt;Two side hand pockets.&lt;/li&gt;
+&lt;li&gt;All over animal print.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Dry clean.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;li&gt;Measurements:
+&lt;ul&gt;&lt;li&gt; Length: 30 in&lt;/li&gt;
+    &lt;li&gt; Sleeve Length: 30 in&lt;/li&gt;
+    &lt;/ul&gt;&lt;/li&gt;
+&lt;li&gt;Product measurements were taken using size SM. Please note that measurements may vary by size.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/320/57/36/c97505c4780d76d7736cc2fdd3366bea.jpeg https://usmall.ru/image/320/57/36/54952e1d1dd2f9d97b05a6d605fe35db.jpeg https://usmall.ru/image/320/57/36/1f154801ec1671fb408d2daf40feb1da.jpeg https://usmall.ru/image/320/57/36/1e69fc0ae91823dec587927d7bd9f8d6.jpeg]</t>
+  </si>
+  <si>
+    <t>​Жакет из искусственного меха Raegan с леопардовым принтом</t>
+  </si>
+  <si>
+    <t>​Raegan Leopard-Print Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3518938-raegan-leopard-print-faux-fur-jacket-rebecca-minkoff</t>
+  </si>
+  <si>
+    <t>3518938</t>
+  </si>
+  <si>
+    <t>Rebecca Minkoff</t>
+  </si>
+  <si>
+    <t>Куртка Raegan, разработанная как идеальная переходная вещь, выполнена из мягкой ткани из искусственного меха, имеет силуэт оверсайз и вдохновлена жакетом-рубашкой.&lt;ul&gt;&lt;li&gt;Остроконечный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Манжеты на пуговицах&lt;/li&gt;&lt;li&gt;Опущенные плечи&lt;/li&gt;&lt;li&gt;Кнопка спереди&lt;/li&gt;&lt;li&gt;Заднее ярмо&lt;/li&gt;&lt;li&gt;Центральная складка на спине&lt;/li&gt;&lt;li&gt;Два передних кармана с клапанами на пуговицах&lt;/li&gt;&lt;li&gt;Два накладных кармана&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Искусственный мех: полиэстер/шерсть&lt;/li&gt;&lt;li&gt;Тип меха: искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 31 дюйма от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Designed as the ultimate transitional piece, the Raegan jacket features a soft faux fur fabric, an oversized silhouette, and shirt jacket inspiration.&lt;ul&gt;&lt;li&gt;Point collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Button cuffs&lt;/li&gt;&lt;li&gt;Dropped shoulders&lt;/li&gt;&lt;li&gt;Button front&lt;/li&gt;&lt;li&gt;Back yoke&lt;/li&gt;&lt;li&gt;Back center box pleat&lt;/li&gt;&lt;li&gt;Two front button flap pockets&lt;/li&gt;&lt;li&gt;Two slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Faux fur: Polyester/wool&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 31" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[хаки]</t>
+  </si>
+  <si>
+    <t>[S]</t>
+  </si>
+  <si>
+    <t>хаки</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/351/89/38/7bde5883173a3ca5d2c4c238fe641ae0.jpeg https://usmall.ru/image/351/89/38/26106ed1ae9073d473e8936313ed81e1.jpeg https://usmall.ru/image/351/89/38/71471e55c790047662c3465c72318ed6.jpeg]</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4520240-kianna-faux-fur-jacket-ugg</t>
+  </si>
+  <si>
+    <t>4520240</t>
+  </si>
+  <si>
+    <t>Уютная куртка из искусственного меха с широким воротником и простой застежкой-молнией спереди.&lt;ul&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Передняя застежка-молния&lt;/li&gt;&lt;li&gt;Передние накладные карманы&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Подкладка: 98 % полиэстер/2 % эластан.&lt;/li&gt;&lt;li&gt;Машинная стирка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 26,5 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: рост 6 футов 1 дюйм, бюст 37 дюймов, талия 30,5 дюйма, бедра 37 дюймов.&lt;/li&gt;&lt;li&gt;На модели маленький размер США.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Cozy faux fur jacket tailored with an oversized spread collar and simple front zip closure.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Front zip closure&lt;/li&gt;&lt;li&gt;Front patch pockets&lt;/li&gt;&lt;li&gt;100% polyester&lt;/li&gt;&lt;li&gt;Lining: 98% polyester/2% elastane&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 26.5" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 6'1" tall, 37" bust, 30.5" waist, 37" hips&lt;/li&gt;&lt;li&gt;Model is wearing a US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный разноцветный ]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/452/02/40/d13b86d3e5bff22675d9eb7b63377ff2.jpeg https://usmall.ru/image/452/02/40/8804a5b98dacd3d618ad6bb4bb3fee86.jpeg https://usmall.ru/image/452/02/40/f695550cb09ab81fad9fa1b6ad50720a.jpeg https://usmall.ru/image/452/02/40/6ad0bd30de9e481149e5a2d1b140b15b.jpeg https://usmall.ru/image/452/02/40/b1bca2307e64d19ce8dc31313e4b98cf.jpeg https://usmall.ru/image/452/02/40/c2b98208ac1e209a6d4723546cd29687.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://app.usmall.ru/image/38571293 https://app.usmall.ru/image/38571294 https://app.usmall.ru/image/38571295 https://app.usmall.ru/image/38571296 https://app.usmall.ru/image/38571297 https://app.usmall.ru/image/38571298]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/452/02/40/969952e661066adf11c28c95c499ac91.jpeg https://usmall.ru/image/452/02/40/879d9198e9dcadf1a655e615b07de304.jpeg https://usmall.ru/image/452/02/40/3996ef1391663c31f2c676d2df92657e.jpeg https://usmall.ru/image/452/02/40/03a9d22da67846479751d9c765c33d7a.jpeg]</t>
+  </si>
+  <si>
+    <t>Пуховик из стеганого искусственного меха Channel</t>
+  </si>
+  <si>
+    <t>Channel Quilted Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4720259-channel-quilted-faux-fur-coat-kenneth-cole</t>
+  </si>
+  <si>
+    <t>4720259</t>
+  </si>
+  <si>
+    <t>Kenneth Cole</t>
+  </si>
+  <si>
+    <t>Эта плюшевая шуба из искусственного меха от Kenneth Cole отличается стеганым кантом и классическим силуэтом пальто. Наденьте его поверх повседневных ансамблей, чтобы украсить вещи, или добавьте к официальному образу.&lt;ul&gt;&lt;li&gt;Стенд воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Скрытая кнопка спереди&lt;/li&gt;&lt;li&gt;Два кармана&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 32,5 дюймов от плеча до края&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>This plush faux fur coat by Kenneth Cole features a channel-quilted design with a classic coat silhouette. Layer it over casual ensembles to dress things up, or add it to a formal look.&lt;ul&gt;&lt;li&gt;Stand collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Hidden button front&lt;/li&gt;&lt;li&gt;Two pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 32.5” from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный розовый зеленый]</t>
+  </si>
+  <si>
+    <t>[XS L M S XL]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/472/02/59/63ffe57778732fce7b380dd9efa95dca.jpeg https://usmall.ru/image/472/02/59/8675eb803e693e9d0cdd1742f94bc293.jpeg https://usmall.ru/image/472/02/59/f6fe0d12265c94b1e98e7e786f14a9ae.jpeg https://usmall.ru/image/472/02/59/46f0656f3bf9b92f5e80e0cd1f780161.jpeg https://usmall.ru/image/472/02/59/8446306ccaf04a205a17ee3364080926.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/472/02/59/e210565ecc3697794d1abf0a5391e700.jpeg https://usmall.ru/image/472/02/59/63ffe57778732fce7b380dd9efa95dca.jpeg https://usmall.ru/image/472/02/59/8675eb803e693e9d0cdd1742f94bc293.jpeg https://usmall.ru/image/472/02/59/f6fe0d12265c94b1e98e7e786f14a9ae.jpeg https://usmall.ru/image/472/02/59/46f0656f3bf9b92f5e80e0cd1f780161.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/472/02/59/63ffe57778732fce7b380dd9efa95dca.jpeg https://usmall.ru/image/472/02/59/8675eb803e693e9d0cdd1742f94bc293.jpeg https://usmall.ru/image/472/02/59/f6fe0d12265c94b1e98e7e786f14a9ae.jpeg https://usmall.ru/image/472/02/59/46f0656f3bf9b92f5e80e0cd1f780161.jpeg https://usmall.ru/image/472/02/59/d47b51ca9e3163a5de6a81e486359b47.jpeg]</t>
+  </si>
+  <si>
+    <t>Zip Front Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4745478-zip-front-faux-fur-jacket-dkny</t>
+  </si>
+  <si>
+    <t>4745478</t>
+  </si>
+  <si>
+    <t>DKNY</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Сохраняйте тепло в мягком комфорте и бесконечных стилях с курткой из искусственного меха DKNY Zip Front.&lt;/li&gt;
+&lt;li&gt;Воротник с капюшоном.&lt;/li&gt;
+&lt;li&gt;Длинный рукав.&lt;/li&gt;
+&lt;li&gt;Центральный передний карман на молнии.&lt;/li&gt;
+&lt;li&gt;Стеганый дизайн.&lt;/li&gt;
+&lt;li&gt;Прямой крой.&lt;/li&gt;
+&lt;li&gt;100% полиэстер.&lt;/li&gt;
+&lt;li&gt;Только сухая чистка.&lt;/li&gt;
+&lt;li&gt;Импортные.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Stay warm in soft comfort and endless styles with the DKNY Zip Front Faux Fur Jacket.&lt;/li&gt;
+&lt;li&gt;Hooded collar.&lt;/li&gt;
+&lt;li&gt;Long sleeves.&lt;/li&gt;
+&lt;li&gt;Center front zipper pocket.&lt;/li&gt;
+&lt;li&gt;Quilted design.&lt;/li&gt;
+&lt;li&gt;Straight hem.&lt;/li&gt;
+&lt;li&gt;100% polyester.&lt;/li&gt;
+&lt;li&gt;Dry clean only.&lt;/li&gt;
+&lt;li&gt;Imported.&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный разноцветный]</t>
+  </si>
+  <si>
+    <t>[LG (12-14) One Size XL (16-18) One Size MD (8-10) One Size SM (4-6) One Size XS (0-2) One Size]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/474/54/78/c5975a5d73d02f5b529c3ea922421638.jpeg https://usmall.ru/image/474/54/78/fb5397fda8c8aae7cae341ac139f1c85.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/474/54/78/3b0b83df2b30951a3dbfd535f878b54f.jpeg https://usmall.ru/image/474/54/78/b287132e0fce40112f37df561ea04493.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто оверсайз из искусственного меха</t>
+  </si>
+  <si>
+    <t>Oversized Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4752829-oversized-faux-fur-coat-donna-karan-new-york</t>
+  </si>
+  <si>
+    <t>4752829</t>
+  </si>
+  <si>
+    <t>Шикарное пальто оверсайз от Donna Karan New York длиной миди выполнено из мягкого искусственного меха.&lt;ul&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Прорезные карманы на талии&lt;/li&gt;&lt;li&gt;Центральная передняя застежка на крючок&lt;/li&gt;&lt;li&gt;Полностью выложены&lt;/li&gt;&lt;li&gt;100% полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 42 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Размеры модели: 5 футов 10 дюймов в высоту.&lt;/li&gt;&lt;li&gt;На модели маленький размер США.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Cut in a chic midi length, Donna Karan New York's oversized coat is crafted of plush faux fur.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Waist welt pockets&lt;/li&gt;&lt;li&gt;Center front hook-&amp;amp;-eye closure&lt;/li&gt;&lt;li&gt;Fully lined&lt;/li&gt;&lt;li&gt;100% polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 42" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model measurements: 5'10" tall&lt;/li&gt;&lt;li&gt;Model is wearing a US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[коричневый белый]</t>
+  </si>
+  <si>
+    <t>[Large Medium Small X-Small XX-Small X-Large]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/475/28/29/408e53b6c484d3492f8caa45e932ab97.jpeg https://usmall.ru/image/475/28/29/1232f30af9a3489854cb79284cdbee9a.jpeg https://usmall.ru/image/475/28/29/d83a27120d2562bb26976b3733013d87.jpeg https://usmall.ru/image/475/28/29/9a2995812ccdcac4ceabfe66238e089d.jpeg https://usmall.ru/image/475/28/29/0353052389e058e102d5f33e2a5a0fe1.jpeg https://usmall.ru/image/475/28/29/53afc25f6bb7b697450e671cb192200c.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/475/28/29/17d0cea0f7128f10e9d566ccb6cbd3d9.jpeg https://usmall.ru/image/475/28/29/11acaf641301da3bdce045ae111a611a.jpeg https://usmall.ru/image/475/28/29/5aee0bd8bafc905ee0624495015f0d9b.jpeg https://usmall.ru/image/475/28/29/023201bd81f8f0e98c8991194b1ee810.jpeg https://usmall.ru/image/475/28/29/217f043c645e86c3914c22631066ae87.jpeg https://usmall.ru/image/475/28/29/04fd3e5b7619a4417015268c67b383a2.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто из искусственного меха с леопардовым принтом</t>
+  </si>
+  <si>
+    <t>Leopard Print Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4776102-leopard-print-faux-fur-coat-donna-karan</t>
+  </si>
+  <si>
+    <t>4776102</t>
+  </si>
+  <si>
+    <t>Donna Karan</t>
+  </si>
+  <si>
+    <t>Экзотический леопардовый узор и шалевый воротник подчеркивают роскошную привлекательность этой плюшевой шубы из искусственного меха. Это пальто прекрасно сочетается с коктейльными платьями и платьями.&lt;ul&gt;&lt;li&gt;Широкие лацканы шалью&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Кнопка спереди&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 33 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>The exotic leopard pattern and shawl collar enhance the luxurious appeal of this plush faux fur coat. This coat is a great piece to layer over cocktail dresses and gowns.&lt;ul&gt;&lt;li&gt;Wide shawl lapels&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Button front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 33" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[L M]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/61/02/8d1c419a3544efbfd52cd1cf403499d9.jpeg https://usmall.ru/image/477/61/02/3616de56ab09b18acf7031a03b360a01.jpeg]</t>
+  </si>
+  <si>
+    <t>Шуба из искусственного меха</t>
+  </si>
+  <si>
+    <t>Faux Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4776421-faux-fur-coat-belle-fare</t>
+  </si>
+  <si>
+    <t>4776421</t>
+  </si>
+  <si>
+    <t>BELLE FARE</t>
+  </si>
+  <si>
+    <t>Большой плюшевый воротник выводит гламурный шик этой шубы из искусственного меха на новый уровень. Превратите любой простой образ в модный, надев эту модель длиной до бедра.&lt;ul&gt;&lt;li&gt;Большой воротник из искусственного меха.&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Передний крючок&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Подкладка из полиэстера&lt;/li&gt;&lt;li&gt;Полиэстер из искусственного меха&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Верный размер&lt;/li&gt;&lt;li&gt;Около 34 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>The plush oversized collar takes the glam-chic style of this faux fur coat to the next level. Transform any simple look into a fashion-forward by layering this hip-length piece.&lt;ul&gt;&lt;li&gt;Oversized faux fur collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Front hook-and-eye&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Polyester lining&lt;/li&gt;&lt;li&gt;Polyester faux fur&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;True to size&lt;/li&gt;&lt;li&gt;About 34" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/64/21/5816be3979c2a58799a8022ad20454fa.jpeg https://usmall.ru/image/477/64/21/5a32760878184f67afe151af5acbf7bf.jpeg https://usmall.ru/image/477/64/21/b55bea73605151420eeae384e58039ac.jpeg]</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4777098-cropped-faux-fur-jacket-juicy-couture</t>
+  </si>
+  <si>
+    <t>4777098</t>
+  </si>
+  <si>
+    <t>Juicy Couture</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Воротник с надрезом&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Передняя молния&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Искусственный мех из полиэстера&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 20,5 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Notch collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Front zipper&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Faux fur polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 20.5" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[M S XS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/477/70/98/1e8e35ecf26246d3fa242d87f0a27104.jpeg https://usmall.ru/image/477/70/98/0ca8c4b0590644f4ba5a190c67dad91a.jpeg]</t>
+  </si>
+  <si>
+    <t>Женское пальто из искусственного меха с капюшоном</t>
+  </si>
+  <si>
+    <t>Women's Hooded Faux-Fur Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4798221-womens-hooded-faux-fur-coat-dkny</t>
+  </si>
+  <si>
+    <t>4798221</t>
+  </si>
+  <si>
+    <t>DKNY привнесет немного гламура в ваш стиль в холодную погоду с помощью этого пальто с капюшоном, полностью выполненного из великолепного искусственного меха.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Прибл. 33 "длиной от центра спины до подола&lt;/li&gt;&lt;li&gt;Прикрепленный капюшон; застежка спереди&lt;/li&gt;&lt;li&gt;Два кармана на бедрах&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Оболочка и подкладка: полиэстер&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>DKNY brings a little glam to your cold-weather style with this hooded coat designed entirely in gorgeous faux fur.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Approx. 33" long from center back to hem&lt;/li&gt;&lt;li&gt;Attached hood; front clasp closure&lt;/li&gt;&lt;li&gt;Two pockets at hips&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Shell &amp;amp; lining: polyester&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный Пурпурный розовый]</t>
+  </si>
+  <si>
+    <t>[XS S XXL M XL]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/479/82/21/5c9ea7a5d24611875b5acb5b9edcbc04.jpeg https://usmall.ru/image/479/82/21/13c2c9d18a0e1c6c09f40b5ca7054911.jpeg https://usmall.ru/image/479/82/21/3a57a82e3e50226344cc843bcc921a23.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/479/82/21/3bad59518bfa87b27f5600f5b4cecb07.jpeg https://usmall.ru/image/479/82/21/d6e230cebee5a78af0880e6706e0000d.jpeg https://usmall.ru/image/479/82/21/5abb18932fda2d4cfea5a5a431d4cd06.jpeg https://usmall.ru/image/479/82/21/3be27e8f7894e8f8d260410b0294bf37.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/479/82/21/ae1887ea602d1225fb14e90df3626107.jpeg https://usmall.ru/image/479/82/21/93d438e686a13217bf2cafa45604198a.jpeg https://usmall.ru/image/479/82/21/e1c98a45429d71a9a6efc252b8a407df.jpeg]</t>
+  </si>
+  <si>
+    <t>Женское пуховое пальто с капюшоном и отделкой из искусственного меха с поясом</t>
+  </si>
+  <si>
+    <t>Women's Belted Hooded Faux-Fur-Trim Puffer Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4813733-womens-belted-hooded-faux-fur-trim-puffer-coat-michael-kors</t>
+  </si>
+  <si>
+    <t>4813733</t>
+  </si>
+  <si>
+    <t>Michael Kors</t>
+  </si>
+  <si>
+    <t>В этом пуховом пальто MICHAEL Michael Kors с эластичным поясом, стильной отделкой из искусственного меха и множеством удобных карманов можно создать что-то новое.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Прибл. Высота модели 5'7 ", и она носит размер M&lt;/li&gt;&lt;li&gt;Прибл. 30 "длиной от центра спины до подола&lt;/li&gt;&lt;li&gt;Воротник-стойка и капюшон на молнии с оторочкой из искусственного меха; передняя застежка-молния с накладкой на пуговицы&lt;/li&gt;&lt;li&gt;Съемный эластичный пояс&lt;/li&gt;&lt;li&gt;Два кармана спереди; карман на молнии на рукаве&lt;/li&gt;&lt;li&gt;Длинные рукава с вязаными манжетами для дополнительной защиты; деталь большого пальца&lt;/li&gt;&lt;li&gt;Водостойкий&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Верх, подкладка и наполнитель: полиэстер; сила наполнения: 400; оболочка 2 и трикотажная отделка: полиэстер/спандекс; искусственный мех: модакрил/полиэстер&lt;/li&gt;&lt;li&gt;Можно стирать в стиральной машинке&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Mix things up in this MICHAEL Michael Kors puffer coat designed with an elasticized belt, stylish faux-fur trim and plenty of handy pockets.&lt;br /&gt;&lt;ul&gt;&lt;li&gt;Approx. model height is 5'7" and she is wearing a size M&lt;/li&gt;&lt;li&gt;Approx. 30" long from center back to hem&lt;/li&gt;&lt;li&gt;Stand collar &amp;amp; zip-off hood with attached faux-fur trim; front zipper closure with button overlay&lt;/li&gt;&lt;li&gt;Removable elastic belt&lt;/li&gt;&lt;li&gt;Two pockets at front; zipper pocket at sleeve&lt;/li&gt;&lt;li&gt;Long sleeves with knit cuffs for added protection; thumbhole detail&lt;/li&gt;&lt;li&gt;Water-resistant&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Shell, lining &amp;amp; fill: polyester; fill power: 400; shell 2 &amp;amp; knit trim: polyester/spandex; faux fur: modacrylic/polyester&lt;/li&gt;&lt;li&gt;Machine washable&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[черный зеленый синий красный розовый]</t>
+  </si>
+  <si>
+    <t>[S M XL XXL XS L XXS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/481/37/33/196d6c15a013da09519b86c226582edd.jpeg https://usmall.ru/image/481/37/33/9def9f2a9ba021db1ff3359fccab81eb.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/481/37/33/f40f1d60e8184560ae7cb8f11996e522.jpeg https://usmall.ru/image/481/37/33/8d913f1332c95cd9d265717b5b0ae5d3.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/481/37/33/30866b6fa65db4ef4832b4716d0e79cd.jpeg https://usmall.ru/image/481/37/33/fa3e3a6afdaed9e8288162cd7a153b41.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/481/37/33/07d6b07a14a9e0c553b09fcce10e9183.jpeg https://usmall.ru/image/481/37/33/2e66947a1e16298567979a9d8f269b1c.jpeg https://usmall.ru/image/481/37/33/fc14df65cdc8fdc6ed2ed3511c962206.jpeg]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/481/37/33/9161b489ca3f2f913dce1420ae4d1bd2.jpeg https://usmall.ru/image/481/37/33/cf86492e0d397c624e51b241d496bd5f.jpeg https://usmall.ru/image/481/37/33/7ac0af3fc49d1b96cd453fa96ea525a8.jpeg]</t>
+  </si>
+  <si>
+    <t>Двустороннее пальто с капюшоном из искусственного меха</t>
+  </si>
+  <si>
+    <t>Reversible Faux Fur Hooded Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/3304639-reversible-faux-fur-hooded-coat-la-fiorentina</t>
+  </si>
+  <si>
+    <t>3304639</t>
+  </si>
+  <si>
+    <t>La Fiorentina</t>
+  </si>
+  <si>
+    <t>Эту шубу из искусственного меха с капюшоном можно перевернуть и носить со стеганой нейлоновой стороной наружу.&lt;ul&gt;&lt;li&gt;Прикрепленный капюшон&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Молнии спереди&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Нейлон / полиэфир&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 33 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>This hooded faux fur coat can be reversed and worn with a quilted nylon side out.&lt;ul&gt;&lt;li&gt;Attached hood&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Zip front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Nylon/polyester&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 33" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[S/M]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/330/46/39/c89774250a3f47b0c8b30172287b08fe.jpeg https://usmall.ru/image/330/46/39/0076015ffed0cb45fd95029582bbb67b.jpeg https://usmall.ru/image/330/46/39/2a6fa90614c1bd5947ecd601f9575861.jpeg]</t>
+  </si>
+  <si>
+    <t>Пухлая куртка из искусственного меха</t>
+  </si>
+  <si>
+    <t>Chubby Faux Fur Jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4897690-chubby-faux-fur-jacket-nvlt</t>
+  </si>
+  <si>
+    <t>4897690</t>
+  </si>
+  <si>
+    <t>Этот плюшевый жакет добавит роскошной текстуры вашему любимому вечернему образу. Создайте свой стиль с открытыми плечами с украшенными клешами.&lt;ul&gt;&lt;li&gt;Расслабленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Кнопки спереди&lt;/li&gt;&lt;li&gt;Прикрепленный ремень&lt;/li&gt;&lt;li&gt;Два накладных кармана на талии&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 25 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>This plush jacket adds luxe texture to your favorite evening look. Style yours off the shoulders with embellished flares.&lt;ul&gt;&lt;li&gt;Relaxed collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Snap button front&lt;/li&gt;&lt;li&gt;Attached belt&lt;/li&gt;&lt;li&gt;Two waist slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 25" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/489/76/90/78806ac1331ec6075ecf7b3c9879e569.jpeg https://usmall.ru/image/489/76/90/ed2317b1026e190922db5221da2380f1.jpeg]</t>
+  </si>
+  <si>
+    <t>Серебряное официальное пальто из искусственного меха на манжетах и воротнике ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN faux fur cuff and collar formal coat in sage</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/4975809-asos-design-faux-fur-cuff-and-collar-formal-coat-in-sage-asos-design</t>
+  </si>
+  <si>
+    <t>4975809</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;PRODUCT DETAILS&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mid-season layering&lt;/li&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Button placket&lt;/li&gt;&lt;li&gt;Side pockets&lt;/li&gt;&lt;li&gt;Faux-fur trims&lt;/li&gt;&lt;li&gt;Regular fit&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;SIZE &amp;amp; FIT&lt;/p&gt;&lt;p&gt;Model wears: UK 8/ EU 36/ US 4Model's height: 170cm/5'7"&lt;/p&gt;&lt;p&gt;LOOK AFTER ME&lt;/p&gt;&lt;p&gt;
+            Machine wash according to instructions on care labels
+         &lt;/p&gt;&lt;p&gt;ABOUT ME&lt;/p&gt;&lt;p&gt;
+            Soft woven fabricLining: 100% Polyester, Shell: 100% Polyester, Faux Fur: 100% Polyester.
+         &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>[US 8 US 14 US 0 US 6 US 10 US 12 US 4]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/497/58/09/f5de1ebdc8404ec588dcc8fc30ab2704.jpeg https://usmall.ru/image/497/58/09/885197402623565ce5d7b310fda39067.jpeg https://usmall.ru/image/497/58/09/913e771ed3a7558fba76ce4ed4190d23.jpeg https://usmall.ru/image/497/58/09/58644385f55e70f1b360eb9329719b7c.jpeg https://usmall.ru/image/000/00/00/ef8177e6a0535461f01a582006d97f0a.jpeg]</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5019444-oversized-faux-fur-coat-belle-fare</t>
+  </si>
+  <si>
+    <t>5019444</t>
+  </si>
+  <si>
+    <t>Плюшевый искусственный мех придает роскошный вид этому пальто А-силуэта.&lt;ul&gt;&lt;li&gt;Расправленный воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Скрытая кнопка спереди&lt;/li&gt;&lt;li&gt;Боковые накладные карманы&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Химчистка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 34 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Plush faux fur lends a lavish look to this A-line coat.&lt;ul&gt;&lt;li&gt;Spread collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Concealed snap button front&lt;/li&gt;&lt;li&gt;Side slip pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Dry clean&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 34" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[L M S XS]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/501/94/44/1461d0661646cdb39094e28026e32c71.jpeg https://usmall.ru/image/501/94/44/4e39268622cd6088f94e1ca8135c35f9.jpeg]</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN faux fur coat in cream</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5101291-asos-design-faux-fur-coat-in-cream-asos-design</t>
+  </si>
+  <si>
+    <t>5101291</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/510/12/91/d7e9db78349a5f1f9605b13f7afa2922.jpeg https://usmall.ru/image/510/12/91/fdac5fbf43778b2f97cfe263887c9d4d.jpeg https://usmall.ru/image/510/12/91/bf487fb1101d60196e4ac22c71c31c2c.jpeg https://usmall.ru/image/510/12/91/c48c90f062e6c25a180a083d5aced608.jpeg https://usmall.ru/image/000/00/00/d5ae89be83f72e4e7853cab6bdab4a92.jpeg]</t>
+  </si>
+  <si>
+    <t>Шуба оверсайз из искусственного меха Sixth June с большим воротником</t>
+  </si>
+  <si>
+    <t>Sixth June oversized faux fur coat with large collar</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5124532-sixth-june-oversized-faux-fur-coat-with-large-collar-sixth-june</t>
+  </si>
+  <si>
+    <t>5124532</t>
+  </si>
+  <si>
+    <t>Sixth June</t>
+  </si>
+  <si>
+    <t>[M L S]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/512/45/32/9231d21871a957e46a1dcf7b74725b1a.jpeg https://usmall.ru/image/512/45/32/e508ebd08b122f485a64ba60d167b83f.jpeg https://usmall.ru/image/512/45/32/a46cb30fd140dbd7d5a29b8e180f3c34.jpeg https://usmall.ru/image/512/45/32/a3871f3edcd375834610ab846145e22c.jpeg https://usmall.ru/image/000/00/00/c28797ead0badbe4277ab91a36980e02.jpeg]</t>
+  </si>
+  <si>
+    <t>Куртка оверсайз из искусственного меха с капюшоном ASOS DESIGN</t>
+  </si>
+  <si>
+    <t>ASOS DESIGN oversized hooded faux fur jacket</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5132971-asos-design-oversized-hooded-faux-fur-jacket-asos-design</t>
+  </si>
+  <si>
+    <t>5132971</t>
+  </si>
+  <si>
+    <t>[US 2]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/513/29/71/01f12cd535afeeafc810c8c35303d0d0.jpeg https://usmall.ru/image/513/29/71/34b55c95036b6520b5f44bb56c086222.jpeg https://usmall.ru/image/513/29/71/ef36069cf2d926946c0ca2883df62791.jpeg https://usmall.ru/image/513/29/71/649372a210034b0d45ded7c58ebdae78.jpeg https://usmall.ru/image/000/00/00/24fcbd117c47474cd4aa5e520f7395c1.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто с воротником из овчины</t>
+  </si>
+  <si>
+    <t>Shearling Fur Collar Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5151270-shearling-fur-collar-coat-la-fiorentina</t>
+  </si>
+  <si>
+    <t>5151270</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Меховой воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Полный почтовый индекс&lt;/li&gt;&lt;li&gt;Два накладных кармана на талии&lt;/li&gt;&lt;li&gt;Подкладка: полиэстер из искусственной замши.&lt;/li&gt;&lt;li&gt;Овечий мех&lt;/li&gt;&lt;li&gt;Тип меха: Крашеная овца&lt;/li&gt;&lt;li&gt;Происхождение меха: Австралия&lt;/li&gt;&lt;li&gt;Химчистка от меховщика&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 33 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Fur collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Full zip&lt;/li&gt;&lt;li&gt;Two waist slip pockets&lt;/li&gt;&lt;li&gt;Lining: Faux suede polyester&lt;/li&gt;&lt;li&gt;Sheep fur&lt;/li&gt;&lt;li&gt;Fur type: Dyed sheep&lt;/li&gt;&lt;li&gt;Fur origin: Australia&lt;/li&gt;&lt;li&gt;Dry clean by fur specialist&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 33" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[M S]</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/515/12/70/97823d783f53c3682faabf6ac48aa325.jpeg https://usmall.ru/image/515/12/70/0a2f0d16605b3ab54f102d28e0af8a11.jpeg]</t>
+  </si>
+  <si>
+    <t>Пальто с отделкой из искусственного меха</t>
+  </si>
+  <si>
+    <t>​Faux Fur Trim Coat</t>
+  </si>
+  <si>
+    <t>https://usmall.ru/product/5169456-faux-fur-trim-coat-dkny</t>
+  </si>
+  <si>
+    <t>5169456</t>
+  </si>
+  <si>
+    <t>Согрейтесь, когда погода похолодает, с этим пальто DKNY. Он имеет капюшон с отделкой из искусственного меха, воротник-стойку и шнурки. Благодаря большому количеству карманов и удобному полифиллу он станет стильным дополнением к вашему зимнему гардеробу.&lt;ul&gt;&lt;li&gt;Съемный капюшон с отделкой из искусственного меха.&lt;/li&gt;&lt;li&gt;Стенд воротник&lt;/li&gt;&lt;li&gt;Длинный рукав&lt;/li&gt;&lt;li&gt;Манжеты на пуговицах&lt;/li&gt;&lt;li&gt;Трикотажные манжеты в рубчик&lt;/li&gt;&lt;li&gt;Скрытая передняя молния&lt;/li&gt;&lt;li&gt;Передние кнопки&lt;/li&gt;&lt;li&gt;Вкладка на воротнике с пуговицами&lt;/li&gt;&lt;li&gt;Шесть карманов&lt;/li&gt;&lt;li&gt;Подкладка&lt;/li&gt;&lt;li&gt;Ткань 1: полиэстер / полиамид&lt;/li&gt;&lt;li&gt;Ткань 2: Акрил&lt;/li&gt;&lt;li&gt;Наполнитель: Полиэстер&lt;/li&gt;&lt;li&gt;Тип меха: Искусственный&lt;/li&gt;&lt;li&gt;Машинная стирка&lt;/li&gt;&lt;li&gt;Импортные&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;РАЗМЕР И ПОДХОДИТ&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Около 32 дюймов от плеча до низа&lt;/li&gt;&lt;li&gt;Показанная модель ростом 177 см (США), размер Small (США)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Stay warm when the weather cools down with this DKNY coat. It features a faux-fur trimmed hood followed by a stand collar and drawstrings. With plenty of pockets and a comfy polyfill, it makes a stylish addition to your winter wardrobe.&lt;ul&gt;&lt;li&gt;Detachable faux fur trimmed hood&lt;/li&gt;&lt;li&gt;Stand collar&lt;/li&gt;&lt;li&gt;Long sleeves&lt;/li&gt;&lt;li&gt;Button tab cuffs&lt;/li&gt;&lt;li&gt;Ribbed knit cuffs&lt;/li&gt;&lt;li&gt;Concealed front zipper&lt;/li&gt;&lt;li&gt;Front buttons&lt;/li&gt;&lt;li&gt;Button collar tab&lt;/li&gt;&lt;li&gt;Six pockets&lt;/li&gt;&lt;li&gt;Lined&lt;/li&gt;&lt;li&gt;Fabric 1: Polyester/polyamide&lt;/li&gt;&lt;li&gt;Fabric 2: Acrylic&lt;/li&gt;&lt;li&gt;Fill: Polyester&lt;/li&gt;&lt;li&gt;Fur type: Faux&lt;/li&gt;&lt;li&gt;Machine wash&lt;/li&gt;&lt;li&gt;Imported&lt;/li&gt;&lt;/ul&gt;&lt;br /&gt;&lt;b&gt;SIZE &amp;amp; FIT&lt;/b&gt;&lt;ul&gt;&lt;li&gt;About 32" from shoulder to hem&lt;/li&gt;&lt;li&gt;Model shown is 5'10" (177cm) wearing US size Small&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>[https://usmall.ru/image/516/94/56/ea1c5f338a63b578178762721d78f62f.jpeg https://usmall.ru/image/516/94/56/18d21bd34fef718bef5f7e6f02acceb6.jpeg https://usmall.ru/image/516/94/56/3a87726e7931adbc455991102267ecd6.jpeg]</t>
   </si>
 </sst>
 </file>
@@ -663,22 +2489,49 @@
         <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="2">
@@ -710,7 +2563,7 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>16490</v>
+        <v>11640</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -724,11 +2577,14 @@
       <c r="N2" t="s">
         <v>26</v>
       </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -745,37 +2601,37 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3">
+        <v>15520</v>
+      </c>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="J3">
-        <v>10350</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -792,37 +2648,37 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4">
+        <v>6330</v>
+      </c>
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="J4">
-        <v>7010</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U4" t="s">
-        <v>74</v>
+      <c r="T4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -839,34 +2695,40 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5">
-        <v>6280</v>
+        <v>65260</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -883,34 +2745,2979 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6">
-        <v>7120</v>
+        <v>27270</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
         <v>72</v>
+      </c>
+      <c r="T6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7">
+        <v>24810</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8">
+        <v>19270</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>8780</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10">
+        <v>17200</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11">
+        <v>11840</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="s">
+        <v>119</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12">
+        <v>14750</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13">
+        <v>4020</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14">
+        <v>15460</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" t="s">
+        <v>136</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15">
+        <v>9140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>172</v>
+      </c>
+      <c r="X15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <v>9060</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17">
+        <v>2830</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" t="s">
+        <v>176</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18">
+        <v>15520</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19">
+        <v>14360</v>
+      </c>
+      <c r="K19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="R19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20">
+        <v>5470</v>
+      </c>
+      <c r="K20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21">
+        <v>16490</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" t="s">
+        <v>202</v>
+      </c>
+      <c r="S21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22">
+        <v>19400</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s">
+        <v>215</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" t="s">
+        <v>224</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23">
+        <v>13040</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" t="s">
+        <v>228</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24">
+        <v>19400</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="W24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" t="s">
+        <v>243</v>
+      </c>
+      <c r="H25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I25" t="s">
+        <v>245</v>
+      </c>
+      <c r="J25">
+        <v>18110</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="T25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26">
+        <v>5730</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>274</v>
+      </c>
+      <c r="S26" t="s">
+        <v>276</v>
+      </c>
+      <c r="T26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" t="s">
+        <v>259</v>
+      </c>
+      <c r="G27" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27">
+        <v>18700</v>
+      </c>
+      <c r="K27" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" t="s">
+        <v>61</v>
+      </c>
+      <c r="N27" t="s">
+        <v>264</v>
+      </c>
+      <c r="X27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28">
+        <v>16170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="s">
+        <v>273</v>
+      </c>
+      <c r="N28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>277</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>279</v>
+      </c>
+      <c r="H29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29">
+        <v>27420</v>
+      </c>
+      <c r="K29" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>283</v>
+      </c>
+      <c r="M29" t="s">
+        <v>119</v>
+      </c>
+      <c r="N29" t="s">
+        <v>284</v>
+      </c>
+      <c r="T29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" t="s">
+        <v>289</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30">
+        <v>36390</v>
+      </c>
+      <c r="K30" t="s">
+        <v>291</v>
+      </c>
+      <c r="L30" t="s">
+        <v>292</v>
+      </c>
+      <c r="M30" t="s">
+        <v>293</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>313</v>
+      </c>
+      <c r="X30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31">
+        <v>23130</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>306</v>
+      </c>
+      <c r="H32" t="s">
+        <v>307</v>
+      </c>
+      <c r="I32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32">
+        <v>7960</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="s">
+        <v>310</v>
+      </c>
+      <c r="N32" t="s">
+        <v>311</v>
+      </c>
+      <c r="O32" t="s">
+        <v>324</v>
+      </c>
+      <c r="U32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>314</v>
+      </c>
+      <c r="H33" t="s">
+        <v>315</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <v>9200</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="s">
+        <v>46</v>
+      </c>
+      <c r="N33" t="s">
+        <v>316</v>
+      </c>
+      <c r="O33" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34">
+        <v>4710</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" t="s">
+        <v>82</v>
+      </c>
+      <c r="W34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>325</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>327</v>
+      </c>
+      <c r="H35" t="s">
+        <v>328</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>14840</v>
+      </c>
+      <c r="K35" t="s">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s">
+        <v>330</v>
+      </c>
+      <c r="M35" t="s">
+        <v>331</v>
+      </c>
+      <c r="N35" t="s">
+        <v>82</v>
+      </c>
+      <c r="S35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>336</v>
+      </c>
+      <c r="H36" t="s">
+        <v>337</v>
+      </c>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36">
+        <v>11510</v>
+      </c>
+      <c r="K36" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" t="s">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="s">
+        <v>343</v>
+      </c>
+      <c r="H37" t="s">
+        <v>344</v>
+      </c>
+      <c r="I37" t="s">
+        <v>345</v>
+      </c>
+      <c r="J37">
+        <v>13450</v>
+      </c>
+      <c r="K37" t="s">
+        <v>346</v>
+      </c>
+      <c r="L37" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" t="s">
+        <v>347</v>
+      </c>
+      <c r="N37" t="s">
+        <v>348</v>
+      </c>
+      <c r="X37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" t="s">
+        <v>352</v>
+      </c>
+      <c r="H38" t="s">
+        <v>353</v>
+      </c>
+      <c r="I38" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38">
+        <v>14090</v>
+      </c>
+      <c r="K38" t="s">
+        <v>354</v>
+      </c>
+      <c r="L38" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>146</v>
+      </c>
+      <c r="O38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" t="s">
+        <v>358</v>
+      </c>
+      <c r="H39" t="s">
+        <v>359</v>
+      </c>
+      <c r="I39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39">
+        <v>25860</v>
+      </c>
+      <c r="K39" t="s">
+        <v>360</v>
+      </c>
+      <c r="L39" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" t="s">
+        <v>146</v>
+      </c>
+      <c r="R39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40">
+        <v>12930</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>82</v>
+      </c>
+      <c r="R40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>369</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>371</v>
+      </c>
+      <c r="H41" t="s">
+        <v>372</v>
+      </c>
+      <c r="I41" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41">
+        <v>21120</v>
+      </c>
+      <c r="K41" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" t="s">
+        <v>374</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="R41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>379</v>
+      </c>
+      <c r="H42" t="s">
+        <v>380</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42">
+        <v>19400</v>
+      </c>
+      <c r="K42" t="s">
+        <v>381</v>
+      </c>
+      <c r="L42" t="s">
+        <v>382</v>
+      </c>
+      <c r="M42" t="s">
+        <v>374</v>
+      </c>
+      <c r="N42" t="s">
+        <v>383</v>
+      </c>
+      <c r="O42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>385</v>
+      </c>
+      <c r="F43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G43" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43" t="s">
+        <v>388</v>
+      </c>
+      <c r="I43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J43">
+        <v>11510</v>
+      </c>
+      <c r="K43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L43" t="s">
+        <v>101</v>
+      </c>
+      <c r="M43" t="s">
+        <v>374</v>
+      </c>
+      <c r="N43" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>390</v>
+      </c>
+      <c r="F44" t="s">
+        <v>391</v>
+      </c>
+      <c r="G44" t="s">
+        <v>392</v>
+      </c>
+      <c r="H44" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44">
+        <v>22040</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>397</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>399</v>
+      </c>
+      <c r="F45" t="s">
+        <v>400</v>
+      </c>
+      <c r="G45" t="s">
+        <v>401</v>
+      </c>
+      <c r="H45" t="s">
+        <v>402</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45">
+        <v>7120</v>
+      </c>
+      <c r="K45" t="s">
+        <v>404</v>
+      </c>
+      <c r="L45" t="s">
+        <v>405</v>
+      </c>
+      <c r="M45" t="s">
+        <v>406</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>426</v>
+      </c>
+      <c r="P45" t="s">
+        <v>427</v>
+      </c>
+      <c r="R45" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>410</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>412</v>
+      </c>
+      <c r="H46" t="s">
+        <v>413</v>
+      </c>
+      <c r="I46" t="s">
+        <v>270</v>
+      </c>
+      <c r="J46">
+        <v>13970</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="s">
+        <v>416</v>
+      </c>
+      <c r="N46" t="s">
+        <v>417</v>
+      </c>
+      <c r="T46" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>419</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
+        <v>421</v>
+      </c>
+      <c r="H47" t="s">
+        <v>422</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47">
+        <v>15370</v>
+      </c>
+      <c r="K47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M47" t="s">
+        <v>425</v>
+      </c>
+      <c r="N47" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>429</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>431</v>
+      </c>
+      <c r="H48" t="s">
+        <v>432</v>
+      </c>
+      <c r="I48" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48">
+        <v>8940</v>
+      </c>
+      <c r="K48" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s">
+        <v>434</v>
+      </c>
+      <c r="M48" t="s">
+        <v>61</v>
+      </c>
+      <c r="N48" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" t="s">
+        <v>454</v>
+      </c>
+      <c r="T48" t="s">
+        <v>452</v>
+      </c>
+      <c r="V48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" t="s">
+        <v>438</v>
+      </c>
+      <c r="H49" t="s">
+        <v>439</v>
+      </c>
+      <c r="I49" t="s">
+        <v>440</v>
+      </c>
+      <c r="J49">
+        <v>10990</v>
+      </c>
+      <c r="K49" t="s">
+        <v>441</v>
+      </c>
+      <c r="L49" t="s">
+        <v>442</v>
+      </c>
+      <c r="M49" t="s">
+        <v>443</v>
+      </c>
+      <c r="N49" t="s">
+        <v>444</v>
+      </c>
+      <c r="O49" t="s">
+        <v>465</v>
+      </c>
+      <c r="S49" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>419</v>
+      </c>
+      <c r="F50" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" t="s">
+        <v>447</v>
+      </c>
+      <c r="H50" t="s">
+        <v>448</v>
+      </c>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50">
+        <v>15370</v>
+      </c>
+      <c r="K50" t="s">
+        <v>449</v>
+      </c>
+      <c r="L50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M50" t="s">
+        <v>451</v>
+      </c>
+      <c r="N50" t="s">
+        <v>62</v>
+      </c>
+      <c r="O50" t="s">
+        <v>475</v>
+      </c>
+      <c r="T50" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>455</v>
+      </c>
+      <c r="F51" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" t="s">
+        <v>457</v>
+      </c>
+      <c r="H51" t="s">
+        <v>458</v>
+      </c>
+      <c r="I51" t="s">
+        <v>459</v>
+      </c>
+      <c r="J51">
+        <v>18110</v>
+      </c>
+      <c r="K51" t="s">
+        <v>460</v>
+      </c>
+      <c r="L51" t="s">
+        <v>461</v>
+      </c>
+      <c r="M51" t="s">
+        <v>462</v>
+      </c>
+      <c r="N51" t="s">
+        <v>463</v>
+      </c>
+      <c r="U51" t="s">
+        <v>486</v>
+      </c>
+      <c r="W51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" t="s">
+        <v>467</v>
+      </c>
+      <c r="G52" t="s">
+        <v>468</v>
+      </c>
+      <c r="H52" t="s">
+        <v>469</v>
+      </c>
+      <c r="I52" t="s">
+        <v>470</v>
+      </c>
+      <c r="J52">
+        <v>25200</v>
+      </c>
+      <c r="K52" t="s">
+        <v>471</v>
+      </c>
+      <c r="L52" t="s">
+        <v>472</v>
+      </c>
+      <c r="M52" t="s">
+        <v>473</v>
+      </c>
+      <c r="N52" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>477</v>
+      </c>
+      <c r="F53" t="s">
+        <v>478</v>
+      </c>
+      <c r="G53" t="s">
+        <v>479</v>
+      </c>
+      <c r="H53" t="s">
+        <v>480</v>
+      </c>
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53">
+        <v>65260</v>
+      </c>
+      <c r="K53" t="s">
+        <v>481</v>
+      </c>
+      <c r="L53" t="s">
+        <v>482</v>
+      </c>
+      <c r="M53" t="s">
+        <v>483</v>
+      </c>
+      <c r="N53" t="s">
+        <v>484</v>
+      </c>
+      <c r="O53" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>487</v>
+      </c>
+      <c r="F54" t="s">
+        <v>488</v>
+      </c>
+      <c r="G54" t="s">
+        <v>489</v>
+      </c>
+      <c r="H54" t="s">
+        <v>490</v>
+      </c>
+      <c r="I54" t="s">
+        <v>491</v>
+      </c>
+      <c r="J54">
+        <v>18110</v>
+      </c>
+      <c r="K54" t="s">
+        <v>492</v>
+      </c>
+      <c r="L54" t="s">
+        <v>493</v>
+      </c>
+      <c r="M54" t="s">
+        <v>406</v>
+      </c>
+      <c r="N54" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>496</v>
+      </c>
+      <c r="F55" t="s">
+        <v>497</v>
+      </c>
+      <c r="G55" t="s">
+        <v>498</v>
+      </c>
+      <c r="H55" t="s">
+        <v>499</v>
+      </c>
+      <c r="I55" t="s">
+        <v>500</v>
+      </c>
+      <c r="J55">
+        <v>32960</v>
+      </c>
+      <c r="K55" t="s">
+        <v>501</v>
+      </c>
+      <c r="L55" t="s">
+        <v>502</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>494</v>
+      </c>
+      <c r="O55" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" t="s">
+        <v>504</v>
+      </c>
+      <c r="H56" t="s">
+        <v>505</v>
+      </c>
+      <c r="I56" t="s">
+        <v>506</v>
+      </c>
+      <c r="J56">
+        <v>10350</v>
+      </c>
+      <c r="K56" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" t="s">
+        <v>508</v>
+      </c>
+      <c r="M56" t="s">
+        <v>136</v>
+      </c>
+      <c r="N56" t="s">
+        <v>509</v>
+      </c>
+      <c r="O56" t="s">
+        <v>531</v>
+      </c>
+      <c r="S56" t="s">
+        <v>532</v>
+      </c>
+      <c r="X56" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>511</v>
+      </c>
+      <c r="F57" t="s">
+        <v>512</v>
+      </c>
+      <c r="G57" t="s">
+        <v>513</v>
+      </c>
+      <c r="H57" t="s">
+        <v>514</v>
+      </c>
+      <c r="I57" t="s">
+        <v>470</v>
+      </c>
+      <c r="J57">
+        <v>24810</v>
+      </c>
+      <c r="K57" t="s">
+        <v>515</v>
+      </c>
+      <c r="L57" t="s">
+        <v>516</v>
+      </c>
+      <c r="M57" t="s">
+        <v>517</v>
+      </c>
+      <c r="N57" t="s">
+        <v>518</v>
+      </c>
+      <c r="O57" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>522</v>
+      </c>
+      <c r="F58" t="s">
+        <v>523</v>
+      </c>
+      <c r="G58" t="s">
+        <v>524</v>
+      </c>
+      <c r="H58" t="s">
+        <v>525</v>
+      </c>
+      <c r="I58" t="s">
+        <v>526</v>
+      </c>
+      <c r="J58">
+        <v>19400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>527</v>
+      </c>
+      <c r="L58" t="s">
+        <v>528</v>
+      </c>
+      <c r="M58" t="s">
+        <v>529</v>
+      </c>
+      <c r="N58" t="s">
+        <v>530</v>
+      </c>
+      <c r="O58" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>536</v>
+      </c>
+      <c r="F59" t="s">
+        <v>537</v>
+      </c>
+      <c r="G59" t="s">
+        <v>538</v>
+      </c>
+      <c r="H59" t="s">
+        <v>539</v>
+      </c>
+      <c r="I59" t="s">
+        <v>540</v>
+      </c>
+      <c r="J59">
+        <v>13580</v>
+      </c>
+      <c r="K59" t="s">
+        <v>541</v>
+      </c>
+      <c r="L59" t="s">
+        <v>542</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>543</v>
+      </c>
+      <c r="S59" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>545</v>
+      </c>
+      <c r="F60" t="s">
+        <v>546</v>
+      </c>
+      <c r="G60" t="s">
+        <v>547</v>
+      </c>
+      <c r="H60" t="s">
+        <v>548</v>
+      </c>
+      <c r="I60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J60">
+        <v>5340</v>
+      </c>
+      <c r="K60" t="s">
+        <v>549</v>
+      </c>
+      <c r="L60" t="s">
+        <v>550</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
+        <v>509</v>
+      </c>
+      <c r="W60" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" t="s">
+        <v>552</v>
+      </c>
+      <c r="F61" t="s">
+        <v>553</v>
+      </c>
+      <c r="G61" t="s">
+        <v>554</v>
+      </c>
+      <c r="H61" t="s">
+        <v>555</v>
+      </c>
+      <c r="I61" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61">
+        <v>7910</v>
+      </c>
+      <c r="K61" t="s">
+        <v>556</v>
+      </c>
+      <c r="L61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M61" t="s">
+        <v>347</v>
+      </c>
+      <c r="N61" t="s">
+        <v>557</v>
+      </c>
+      <c r="T61" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>477</v>
+      </c>
+      <c r="F62" t="s">
+        <v>478</v>
+      </c>
+      <c r="G62" t="s">
+        <v>559</v>
+      </c>
+      <c r="H62" t="s">
+        <v>560</v>
+      </c>
+      <c r="I62" t="s">
+        <v>500</v>
+      </c>
+      <c r="J62">
+        <v>23510</v>
+      </c>
+      <c r="K62" t="s">
+        <v>561</v>
+      </c>
+      <c r="L62" t="s">
+        <v>562</v>
+      </c>
+      <c r="M62" t="s">
+        <v>109</v>
+      </c>
+      <c r="N62" t="s">
+        <v>563</v>
+      </c>
+      <c r="O62" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>565</v>
+      </c>
+      <c r="F63" t="s">
+        <v>565</v>
+      </c>
+      <c r="G63" t="s">
+        <v>566</v>
+      </c>
+      <c r="H63" t="s">
+        <v>567</v>
+      </c>
+      <c r="I63" t="s">
+        <v>107</v>
+      </c>
+      <c r="J63">
+        <v>12940</v>
+      </c>
+      <c r="K63" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63" t="s">
+        <v>101</v>
+      </c>
+      <c r="M63" t="s">
+        <v>61</v>
+      </c>
+      <c r="N63" t="s">
+        <v>137</v>
+      </c>
+      <c r="W63" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>569</v>
+      </c>
+      <c r="F64" t="s">
+        <v>570</v>
+      </c>
+      <c r="G64" t="s">
+        <v>571</v>
+      </c>
+      <c r="H64" t="s">
+        <v>572</v>
+      </c>
+      <c r="I64" t="s">
+        <v>573</v>
+      </c>
+      <c r="J64">
+        <v>9620</v>
+      </c>
+      <c r="K64" t="s">
+        <v>101</v>
+      </c>
+      <c r="L64" t="s">
+        <v>101</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>574</v>
+      </c>
+      <c r="W64" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" t="s">
+        <v>576</v>
+      </c>
+      <c r="F65" t="s">
+        <v>577</v>
+      </c>
+      <c r="G65" t="s">
+        <v>578</v>
+      </c>
+      <c r="H65" t="s">
+        <v>579</v>
+      </c>
+      <c r="I65" t="s">
+        <v>107</v>
+      </c>
+      <c r="J65">
+        <v>12940</v>
+      </c>
+      <c r="K65" t="s">
+        <v>101</v>
+      </c>
+      <c r="L65" t="s">
+        <v>101</v>
+      </c>
+      <c r="M65" t="s">
+        <v>109</v>
+      </c>
+      <c r="N65" t="s">
+        <v>580</v>
+      </c>
+      <c r="X65" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>582</v>
+      </c>
+      <c r="F66" t="s">
+        <v>583</v>
+      </c>
+      <c r="G66" t="s">
+        <v>584</v>
+      </c>
+      <c r="H66" t="s">
+        <v>585</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66">
+        <v>50760</v>
+      </c>
+      <c r="K66" t="s">
+        <v>586</v>
+      </c>
+      <c r="L66" t="s">
+        <v>587</v>
+      </c>
+      <c r="M66" t="s">
+        <v>109</v>
+      </c>
+      <c r="N66" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" t="s">
+        <v>590</v>
+      </c>
+      <c r="F67" t="s">
+        <v>591</v>
+      </c>
+      <c r="G67" t="s">
+        <v>592</v>
+      </c>
+      <c r="H67" t="s">
+        <v>593</v>
+      </c>
+      <c r="I67" t="s">
+        <v>470</v>
+      </c>
+      <c r="J67">
+        <v>12930</v>
+      </c>
+      <c r="K67" t="s">
+        <v>594</v>
+      </c>
+      <c r="L67" t="s">
+        <v>595</v>
+      </c>
+      <c r="M67" t="s">
+        <v>119</v>
+      </c>
+      <c r="N67" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
